--- a/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CA96B4-E174-4868-82D3-BA624611A18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA54AD3-FF48-436A-BCA1-4DCABDEAF086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4532,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>17.28</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4582,7 +4582,7 @@
       <c r="H6" s="133"/>
       <c r="I6" s="397">
         <f>I4*I5/1000000</f>
-        <v>136740.1580352</v>
+        <v>149876.07599460002</v>
       </c>
       <c r="J6" s="398"/>
       <c r="K6" s="151"/>
@@ -4624,11 +4624,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.240733692204227</v>
+        <v>11.221370250338319</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.7649253467185795E-2</v>
+        <v>8.9115676400558161E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4647,11 +4647,11 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.68506854369957237</v>
+        <v>0.75066963039621148</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>230.41618349082697</v>
+        <v>252.93092774849015</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>7.8465120610971395</v>
+        <v>7.8487060384870606</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4705,21 +4705,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>7.2198974945245427</v>
+        <v>7.2219162630852987</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>27.050043260674713</v>
+        <v>27.057606772060179</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>19.674780373600939</v>
+        <v>19.680281674428009</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4750,14 +4750,14 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>17.28</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="C16" s="418">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>3.8586827175980248E-2</v>
+        <v>-6.0914378330094637E-2</v>
       </c>
       <c r="E16" s="415">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
@@ -4772,20 +4772,20 @@
       </c>
       <c r="H16" s="399">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>-2.3077682841633713</v>
+        <v>-2.3084135634157583</v>
       </c>
       <c r="I16" s="402" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>19.587768284163374</v>
+        <v>21.24841356341576</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>17.886163976000852</v>
+        <v>17.891165158570917</v>
       </c>
       <c r="C17" s="419"/>
       <c r="D17" s="289">
@@ -4802,7 +4802,7 @@
       <c r="I17" s="403"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>20.193932260164225</v>
+        <v>20.199578721986676</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4813,7 +4813,7 @@
       <c r="C18" s="420"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.21165202490672916</v>
+        <v>0.21201877829520063</v>
       </c>
       <c r="E18" s="417"/>
       <c r="F18" s="163">
@@ -4825,7 +4825,7 @@
       <c r="I18" s="404"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>17.307768284163373</v>
+        <v>17.308413563415758</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="J25" s="355">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>15.739824298880752</v>
+        <v>15.744225339542407</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5113,7 +5113,7 @@
       <c r="H35" s="433"/>
       <c r="I35" s="427">
         <f ca="1">'FCFF Model'!C34*0.8</f>
-        <v>32.903732767036438</v>
+        <v>32.912933039102903</v>
       </c>
       <c r="J35" s="428"/>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>18.988582303582657</v>
+        <v>18.993891735329701</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.3578342802920904</v>
+        <v>1.3582139467842875</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10462,7 +10462,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="442">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>134433154.0352</v>
+        <v>147569071.99460003</v>
       </c>
       <c r="E60" s="443"/>
       <c r="F60" s="6"/>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="C30" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>7.2198974945245427</v>
+        <v>7.2219162630852987</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12527,7 +12527,7 @@
       </c>
       <c r="E30" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>27.050043260674713</v>
+        <v>27.057606772060179</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="C33" s="253">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>19.674780373600939</v>
+        <v>19.680281674428009</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12571,11 +12571,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>441.25136689200139</v>
+        <v>441.37292878100999</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.78001001956896543</v>
+        <v>0.78001001956896554</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="C34" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>41.129665958795549</v>
+        <v>41.14116629887863</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12595,11 +12595,11 @@
       </c>
       <c r="E34" s="120">
         <f ca="1">(C34-G19)/C9</f>
-        <v>915.33858774813314</v>
+        <v>915.59271002006221</v>
       </c>
       <c r="F34" s="158">
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.6305926134977975</v>
+        <v>1.6305926134977979</v>
       </c>
       <c r="G34" s="281">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA54AD3-FF48-436A-BCA1-4DCABDEAF086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55789C-297D-45DD-A7C6-54BA9A2AE213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="333">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1159,6 +1159,9 @@
   </si>
   <si>
     <t>Book Cash Ratio</t>
+  </si>
+  <si>
+    <t>Expected Upside</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2932,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="452">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3835,6 +3838,176 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3857,177 +4030,7 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4074,6 +4077,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4461,8 +4467,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4506,33 +4512,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="383" t="s">
+      <c r="C3" s="387" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="384"/>
+      <c r="D3" s="388"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="395" t="s">
+      <c r="I3" s="397" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="396"/>
+      <c r="J3" s="398"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="385" t="s">
+      <c r="C4" s="389" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="386"/>
+      <c r="D4" s="390"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>18.940000000000001</v>
+        <v>18.78</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4543,10 +4549,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="387">
+      <c r="C5" s="391">
         <v>44987</v>
       </c>
-      <c r="D5" s="386"/>
+      <c r="D5" s="390"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4554,10 +4560,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="379">
+      <c r="I5" s="399">
         <v>7913203590</v>
       </c>
-      <c r="J5" s="380"/>
+      <c r="J5" s="400"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4580,11 +4586,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="397">
+      <c r="I6" s="401">
         <f>I4*I5/1000000</f>
-        <v>149876.07599460002</v>
-      </c>
-      <c r="J6" s="398"/>
+        <v>148609.96342020002</v>
+      </c>
+      <c r="J6" s="402"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4624,11 +4630,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>11.221370250338319</v>
+        <v>11.125214698272686</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>8.9115676400558161E-2</v>
+        <v>8.9885905766408369E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4647,47 +4653,47 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.75066963039621148</v>
+        <v>0.7442371670589043</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>252.93092774849015</v>
+        <v>250.76083191642621</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="409">
+      <c r="C11" s="411">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="410"/>
+      <c r="D11" s="412"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="407" t="s">
+      <c r="I11" s="409" t="s">
         <v>311</v>
       </c>
-      <c r="J11" s="408"/>
+      <c r="J11" s="410"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="411">
+      <c r="C12" s="365">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="412"/>
+      <c r="D12" s="366"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>7.8487060384870606</v>
+        <v>7.8496658194483659</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4705,21 +4711,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>7.2219162630852987</v>
+        <v>7.2227993969037225</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>27.057606772060179</v>
+        <v>27.060915518203934</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>19.680281674428009</v>
+        <v>19.682688282545527</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4750,16 +4756,16 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>18.940000000000001</v>
-      </c>
-      <c r="C16" s="418">
+        <v>18.78</v>
+      </c>
+      <c r="C16" s="375">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-6.0914378330094637E-2</v>
-      </c>
-      <c r="E16" s="415">
+        <v>-5.1933531280855899E-2</v>
+      </c>
+      <c r="E16" s="370">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -4767,42 +4773,42 @@
         <f>E16/B16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="402" t="s">
+      <c r="G16" s="378" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="399">
+      <c r="H16" s="403">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>-2.3084135634157583</v>
-      </c>
-      <c r="I16" s="402" t="s">
+        <v>-2.3086958483399385</v>
+      </c>
+      <c r="I16" s="378" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>21.24841356341576</v>
+        <v>21.088695848339938</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>17.891165158570917</v>
-      </c>
-      <c r="C17" s="419"/>
+        <v>17.893352984132296</v>
+      </c>
+      <c r="C17" s="376"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="416"/>
+      <c r="E17" s="371"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="403"/>
-      <c r="H17" s="400"/>
-      <c r="I17" s="403"/>
+      <c r="G17" s="379"/>
+      <c r="H17" s="404"/>
+      <c r="I17" s="379"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>20.199578721986676</v>
+        <v>20.202048832472233</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4810,22 +4816,22 @@
         <f>C35</f>
         <v>15</v>
       </c>
-      <c r="C18" s="420"/>
+      <c r="C18" s="377"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.21201877829520063</v>
-      </c>
-      <c r="E18" s="417"/>
+        <v>0.21217921883636856</v>
+      </c>
+      <c r="E18" s="372"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="404"/>
-      <c r="H18" s="401"/>
-      <c r="I18" s="404"/>
+      <c r="G18" s="380"/>
+      <c r="H18" s="405"/>
+      <c r="I18" s="380"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>17.308413563415758</v>
+        <v>17.308695848339937</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4856,42 +4862,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="390"/>
-      <c r="D21" s="391"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="391"/>
-      <c r="G21" s="391"/>
-      <c r="H21" s="391"/>
-      <c r="I21" s="391"/>
-      <c r="J21" s="392"/>
+      <c r="C21" s="394"/>
+      <c r="D21" s="395"/>
+      <c r="E21" s="395"/>
+      <c r="F21" s="395"/>
+      <c r="G21" s="395"/>
+      <c r="H21" s="395"/>
+      <c r="I21" s="395"/>
+      <c r="J21" s="396"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="406"/>
-      <c r="D22" s="371"/>
-      <c r="E22" s="371"/>
-      <c r="F22" s="371"/>
-      <c r="G22" s="406"/>
-      <c r="H22" s="406"/>
-      <c r="I22" s="371"/>
-      <c r="J22" s="371"/>
+      <c r="C22" s="407"/>
+      <c r="D22" s="408"/>
+      <c r="E22" s="408"/>
+      <c r="F22" s="408"/>
+      <c r="G22" s="407"/>
+      <c r="H22" s="407"/>
+      <c r="I22" s="408"/>
+      <c r="J22" s="408"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="393"/>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393"/>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="C23" s="373"/>
+      <c r="D23" s="374"/>
+      <c r="E23" s="374"/>
+      <c r="F23" s="374"/>
+      <c r="G23" s="373"/>
+      <c r="H23" s="373"/>
+      <c r="I23" s="374"/>
+      <c r="J23" s="374"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4928,209 +4934,218 @@
       </c>
       <c r="J25" s="355">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>15.744225339542407</v>
+        <v>15.746150626036421</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="388">
+      <c r="C26" s="392">
         <v>44987</v>
       </c>
-      <c r="D26" s="389"/>
-      <c r="E26" s="424" t="str">
+      <c r="D26" s="393"/>
+      <c r="E26" s="384" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="425"/>
-      <c r="G26" s="425"/>
-      <c r="H26" s="426"/>
-      <c r="I26" s="405" t="s">
+      <c r="F26" s="385"/>
+      <c r="G26" s="385"/>
+      <c r="H26" s="386"/>
+      <c r="I26" s="406" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="405"/>
+      <c r="J26" s="406"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="414">
+      <c r="C27" s="369">
         <f>C31/D25</f>
         <v>5.5E-2</v>
       </c>
-      <c r="D27" s="369"/>
-      <c r="E27" s="413">
+      <c r="D27" s="368"/>
+      <c r="E27" s="367">
         <f>E31/D25</f>
         <v>0.10199999999999999</v>
       </c>
-      <c r="F27" s="369"/>
-      <c r="G27" s="422">
+      <c r="F27" s="368"/>
+      <c r="G27" s="382">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="423"/>
-      <c r="I27" s="421">
+      <c r="H27" s="383"/>
+      <c r="I27" s="381">
         <f>C27+E27+G27</f>
         <v>0.157</v>
       </c>
-      <c r="J27" s="421"/>
+      <c r="J27" s="381"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="370">
+      <c r="C28" s="359">
         <v>2000</v>
       </c>
-      <c r="D28" s="371"/>
-      <c r="E28" s="370">
+      <c r="D28" s="408"/>
+      <c r="E28" s="359">
         <v>4000</v>
       </c>
-      <c r="F28" s="371"/>
-      <c r="G28" s="379"/>
-      <c r="H28" s="380"/>
-      <c r="I28" s="359">
+      <c r="F28" s="408"/>
+      <c r="G28" s="399"/>
+      <c r="H28" s="400"/>
+      <c r="I28" s="423">
         <f>C28+E28+G28</f>
         <v>6000</v>
       </c>
-      <c r="J28" s="359"/>
+      <c r="J28" s="423"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="372">
+      <c r="C29" s="433">
         <v>16.5</v>
       </c>
-      <c r="D29" s="371"/>
-      <c r="E29" s="372">
+      <c r="D29" s="408"/>
+      <c r="E29" s="433">
         <v>15.3</v>
       </c>
-      <c r="F29" s="371"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="374"/>
-      <c r="I29" s="381"/>
-      <c r="J29" s="381"/>
+      <c r="F29" s="408"/>
+      <c r="G29" s="413"/>
+      <c r="H29" s="414"/>
+      <c r="I29" s="419"/>
+      <c r="J29" s="419"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="357">
+      <c r="C30" s="421">
         <f>C29*$I$5/1000000</f>
         <v>130567.859235</v>
       </c>
-      <c r="D30" s="364"/>
-      <c r="E30" s="357">
+      <c r="D30" s="428"/>
+      <c r="E30" s="421">
         <f>E29*$I$5/1000000</f>
         <v>121072.014927</v>
       </c>
-      <c r="F30" s="364"/>
-      <c r="G30" s="375">
+      <c r="F30" s="428"/>
+      <c r="G30" s="415">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="376"/>
-      <c r="I30" s="382"/>
-      <c r="J30" s="382"/>
+      <c r="H30" s="416"/>
+      <c r="I30" s="420"/>
+      <c r="J30" s="420"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="365">
+      <c r="C31" s="429">
         <f>C28*C29</f>
         <v>33000</v>
       </c>
-      <c r="D31" s="366"/>
-      <c r="E31" s="358">
+      <c r="D31" s="430"/>
+      <c r="E31" s="422">
         <f>E28*E29</f>
         <v>61200</v>
       </c>
-      <c r="F31" s="367"/>
-      <c r="G31" s="377">
+      <c r="F31" s="431"/>
+      <c r="G31" s="417">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="378"/>
-      <c r="I31" s="358">
+      <c r="H31" s="418"/>
+      <c r="I31" s="422">
         <f>C31+E31+G31</f>
         <v>94200</v>
       </c>
-      <c r="J31" s="358"/>
+      <c r="J31" s="422"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="360"/>
-      <c r="D32" s="361"/>
-      <c r="E32" s="368">
+      <c r="C32" s="424"/>
+      <c r="D32" s="425"/>
+      <c r="E32" s="432">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>15.7</v>
       </c>
-      <c r="F32" s="369"/>
+      <c r="F32" s="368"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="368">
+      <c r="I32" s="432">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>15.7</v>
       </c>
-      <c r="J32" s="368"/>
+      <c r="J32" s="432"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="362"/>
-      <c r="D33" s="363"/>
-      <c r="E33" s="357">
+      <c r="C33" s="426"/>
+      <c r="D33" s="427"/>
+      <c r="E33" s="421">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>124237.296363</v>
       </c>
-      <c r="F33" s="364"/>
+      <c r="F33" s="428"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="357">
+      <c r="I33" s="421">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>124237.296363</v>
       </c>
-      <c r="J33" s="357"/>
+      <c r="J33" s="421"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="427">
+      <c r="C35" s="357">
         <v>15</v>
       </c>
-      <c r="D35" s="428"/>
-      <c r="G35" s="432" t="s">
+      <c r="D35" s="358"/>
+      <c r="G35" s="363" t="s">
         <v>328</v>
       </c>
-      <c r="H35" s="433"/>
-      <c r="I35" s="427">
+      <c r="H35" s="364"/>
+      <c r="I35" s="357">
         <f ca="1">'FCFF Model'!C34*0.8</f>
-        <v>32.912933039102903</v>
-      </c>
-      <c r="J35" s="428"/>
+        <v>30.066518637001451</v>
+      </c>
+      <c r="J35" s="358"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="370">
+      <c r="C36" s="359">
         <f>E28</f>
         <v>4000</v>
       </c>
-      <c r="D36" s="429"/>
+      <c r="D36" s="360"/>
+      <c r="G36" s="452" t="s">
+        <v>332</v>
+      </c>
+      <c r="H36" s="452"/>
+      <c r="I36" s="440">
+        <f ca="1">I35/C29-1</f>
+        <v>0.82221325072736073</v>
+      </c>
+      <c r="J36" s="441"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J38" s="430"/>
-      <c r="K38" s="431"/>
+      <c r="J38" s="361"/>
+      <c r="K38" s="362"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6061,22 +6076,29 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+  <mergeCells count="55">
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6093,77 +6115,77 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
-    <cfRule type="containsBlanks" priority="18">
+    <cfRule type="containsBlanks" priority="19">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="4">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(J38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="2">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
       <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J36">
+    <cfRule type="containsBlanks" priority="1">
+      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9405,7 +9427,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>18.993891735329701</v>
+        <v>18.99621440808356</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9448,7 +9470,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.3582139467842875</v>
+        <v>1.3583800363130725</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10365,7 +10387,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>8694432</v>
       </c>
-      <c r="E53" s="366"/>
+      <c r="E53" s="430"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10384,7 +10406,7 @@
       <c r="D54" s="444">
         <v>0</v>
       </c>
-      <c r="E54" s="371"/>
+      <c r="E54" s="408"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10398,7 +10420,7 @@
       <c r="D55" s="444">
         <v>0</v>
       </c>
-      <c r="E55" s="371"/>
+      <c r="E55" s="408"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10462,7 +10484,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="442">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>147569071.99460003</v>
+        <v>146302959.42020002</v>
       </c>
       <c r="E60" s="443"/>
       <c r="F60" s="6"/>
@@ -11927,8 +11949,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12189,7 +12211,7 @@
       <c r="F12" s="346"/>
       <c r="G12" s="230">
         <f>G9*D27</f>
-        <v>5.8500038163431096</v>
+        <v>5.3625034983145179</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="56"/>
@@ -12267,7 +12289,7 @@
       </c>
       <c r="G15" s="233">
         <f ca="1">IF(G12=0,0,G12/G14)</f>
-        <v>4.8700681778656865</v>
+        <v>4.4642291630435462</v>
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="56"/>
@@ -12471,19 +12493,19 @@
       </c>
       <c r="C27" s="303">
         <f t="shared" ref="C27" si="0">1/D27</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="D27" s="315">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E27" s="207">
         <f ca="1">G9*D27/G14</f>
-        <v>4.8700681778656865</v>
+        <v>4.4642291630435462</v>
       </c>
       <c r="F27" s="450"/>
       <c r="G27" s="207">
         <f ca="1">$F$25+E27+$G$19</f>
-        <v>4.6649141873049986</v>
+        <v>4.2590751724828584</v>
       </c>
       <c r="I27" s="74" t="s">
         <v>316</v>
@@ -12519,7 +12541,7 @@
       </c>
       <c r="C30" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>7.2219162630852987</v>
+        <v>7.2227993969037225</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12527,7 +12549,7 @@
       </c>
       <c r="E30" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>27.057606772060179</v>
+        <v>27.060915518203934</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12563,7 +12585,7 @@
       </c>
       <c r="C33" s="253">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>19.680281674428009</v>
+        <v>19.682688282545527</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12571,7 +12593,7 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>441.37292878100999</v>
+        <v>441.42610744512325</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -12587,7 +12609,7 @@
       </c>
       <c r="C34" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>41.14116629887863</v>
+        <v>37.583148296251814</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12595,11 +12617,11 @@
       </c>
       <c r="E34" s="120">
         <f ca="1">(C34-G19)/C9</f>
-        <v>915.59271002006221</v>
+        <v>836.9714160530857</v>
       </c>
       <c r="F34" s="158">
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.6305926134977979</v>
+        <v>1.489391683554693</v>
       </c>
       <c r="G34" s="281">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE55789C-297D-45DD-A7C6-54BA9A2AE213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08CC7CC-5CA1-4467-A1E8-78E4D0487FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3838,176 +3838,6 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4030,9 +3860,186 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4045,10 +4052,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4077,9 +4080,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4088,17 +4088,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4107,30 +4097,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4156,22 +4128,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4198,9 +4166,28 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4225,20 +4212,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4467,7 +4453,7 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
@@ -4512,27 +4498,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="387" t="s">
+      <c r="C3" s="383" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="388"/>
+      <c r="D3" s="384"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="397" t="s">
+      <c r="I3" s="395" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="398"/>
+      <c r="J3" s="396"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="389" t="s">
+      <c r="C4" s="385" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="390"/>
+      <c r="D4" s="386"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4549,10 +4535,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="391">
+      <c r="C5" s="387">
         <v>44987</v>
       </c>
-      <c r="D5" s="390"/>
+      <c r="D5" s="386"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4560,10 +4546,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="399">
+      <c r="I5" s="379">
         <v>7913203590</v>
       </c>
-      <c r="J5" s="400"/>
+      <c r="J5" s="380"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4586,11 +4572,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="401">
+      <c r="I6" s="397">
         <f>I4*I5/1000000</f>
         <v>148609.96342020002</v>
       </c>
-      <c r="J6" s="402"/>
+      <c r="J6" s="398"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4664,30 +4650,30 @@
       <c r="B11" s="313" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="411">
+      <c r="C11" s="409">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="412"/>
+      <c r="D11" s="410"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="409" t="s">
+      <c r="I11" s="407" t="s">
         <v>311</v>
       </c>
-      <c r="J11" s="410"/>
+      <c r="J11" s="408"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="365">
+      <c r="C12" s="411">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="366"/>
+      <c r="D12" s="412"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4758,14 +4744,14 @@
         <f>I4</f>
         <v>18.78</v>
       </c>
-      <c r="C16" s="375">
+      <c r="C16" s="418">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-5.1933531280855899E-2</v>
       </c>
-      <c r="E16" s="370">
+      <c r="E16" s="415">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -4773,14 +4759,14 @@
         <f>E16/B16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="378" t="s">
+      <c r="G16" s="402" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="403">
+      <c r="H16" s="399">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>-2.3086958483399385</v>
       </c>
-      <c r="I16" s="378" t="s">
+      <c r="I16" s="402" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4793,19 +4779,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>17.893352984132296</v>
       </c>
-      <c r="C17" s="376"/>
+      <c r="C17" s="419"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="371"/>
+      <c r="E17" s="416"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="379"/>
-      <c r="H17" s="404"/>
-      <c r="I17" s="379"/>
+      <c r="G17" s="403"/>
+      <c r="H17" s="400"/>
+      <c r="I17" s="403"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>20.202048832472233</v>
@@ -4816,19 +4802,19 @@
         <f>C35</f>
         <v>15</v>
       </c>
-      <c r="C18" s="377"/>
+      <c r="C18" s="420"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>0.21217921883636856</v>
       </c>
-      <c r="E18" s="372"/>
+      <c r="E18" s="417"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="380"/>
-      <c r="H18" s="405"/>
-      <c r="I18" s="380"/>
+      <c r="G18" s="404"/>
+      <c r="H18" s="401"/>
+      <c r="I18" s="404"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>17.308695848339937</v>
@@ -4862,42 +4848,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="394"/>
-      <c r="D21" s="395"/>
-      <c r="E21" s="395"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="395"/>
-      <c r="H21" s="395"/>
-      <c r="I21" s="395"/>
-      <c r="J21" s="396"/>
+      <c r="C21" s="390"/>
+      <c r="D21" s="391"/>
+      <c r="E21" s="391"/>
+      <c r="F21" s="391"/>
+      <c r="G21" s="391"/>
+      <c r="H21" s="391"/>
+      <c r="I21" s="391"/>
+      <c r="J21" s="392"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="407"/>
-      <c r="D22" s="408"/>
-      <c r="E22" s="408"/>
-      <c r="F22" s="408"/>
-      <c r="G22" s="407"/>
-      <c r="H22" s="407"/>
-      <c r="I22" s="408"/>
-      <c r="J22" s="408"/>
+      <c r="C22" s="406"/>
+      <c r="D22" s="371"/>
+      <c r="E22" s="371"/>
+      <c r="F22" s="371"/>
+      <c r="G22" s="406"/>
+      <c r="H22" s="406"/>
+      <c r="I22" s="371"/>
+      <c r="J22" s="371"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="373"/>
-      <c r="D23" s="374"/>
-      <c r="E23" s="374"/>
-      <c r="F23" s="374"/>
-      <c r="G23" s="373"/>
-      <c r="H23" s="373"/>
-      <c r="I23" s="374"/>
-      <c r="J23" s="374"/>
+      <c r="C23" s="393"/>
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393"/>
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4941,211 +4927,211 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="392">
+      <c r="C26" s="388">
         <v>44987</v>
       </c>
-      <c r="D26" s="393"/>
-      <c r="E26" s="384" t="str">
+      <c r="D26" s="389"/>
+      <c r="E26" s="424" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="385"/>
-      <c r="G26" s="385"/>
-      <c r="H26" s="386"/>
-      <c r="I26" s="406" t="s">
+      <c r="F26" s="425"/>
+      <c r="G26" s="425"/>
+      <c r="H26" s="426"/>
+      <c r="I26" s="405" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="406"/>
+      <c r="J26" s="405"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="369">
+      <c r="C27" s="414">
         <f>C31/D25</f>
         <v>5.5E-2</v>
       </c>
-      <c r="D27" s="368"/>
-      <c r="E27" s="367">
+      <c r="D27" s="369"/>
+      <c r="E27" s="413">
         <f>E31/D25</f>
         <v>0.10199999999999999</v>
       </c>
-      <c r="F27" s="368"/>
-      <c r="G27" s="382">
+      <c r="F27" s="369"/>
+      <c r="G27" s="422">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="383"/>
-      <c r="I27" s="381">
+      <c r="H27" s="423"/>
+      <c r="I27" s="421">
         <f>C27+E27+G27</f>
         <v>0.157</v>
       </c>
-      <c r="J27" s="381"/>
+      <c r="J27" s="421"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="359">
+      <c r="C28" s="370">
         <v>2000</v>
       </c>
-      <c r="D28" s="408"/>
-      <c r="E28" s="359">
+      <c r="D28" s="371"/>
+      <c r="E28" s="370">
         <v>4000</v>
       </c>
-      <c r="F28" s="408"/>
-      <c r="G28" s="399"/>
-      <c r="H28" s="400"/>
-      <c r="I28" s="423">
+      <c r="F28" s="371"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="380"/>
+      <c r="I28" s="359">
         <f>C28+E28+G28</f>
         <v>6000</v>
       </c>
-      <c r="J28" s="423"/>
+      <c r="J28" s="359"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="433">
+      <c r="C29" s="372">
         <v>16.5</v>
       </c>
-      <c r="D29" s="408"/>
-      <c r="E29" s="433">
+      <c r="D29" s="371"/>
+      <c r="E29" s="372">
         <v>15.3</v>
       </c>
-      <c r="F29" s="408"/>
-      <c r="G29" s="413"/>
-      <c r="H29" s="414"/>
-      <c r="I29" s="419"/>
-      <c r="J29" s="419"/>
+      <c r="F29" s="371"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="374"/>
+      <c r="I29" s="381"/>
+      <c r="J29" s="381"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="421">
+      <c r="C30" s="357">
         <f>C29*$I$5/1000000</f>
         <v>130567.859235</v>
       </c>
-      <c r="D30" s="428"/>
-      <c r="E30" s="421">
+      <c r="D30" s="364"/>
+      <c r="E30" s="357">
         <f>E29*$I$5/1000000</f>
         <v>121072.014927</v>
       </c>
-      <c r="F30" s="428"/>
-      <c r="G30" s="415">
+      <c r="F30" s="364"/>
+      <c r="G30" s="375">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="416"/>
-      <c r="I30" s="420"/>
-      <c r="J30" s="420"/>
+      <c r="H30" s="376"/>
+      <c r="I30" s="382"/>
+      <c r="J30" s="382"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="429">
+      <c r="C31" s="365">
         <f>C28*C29</f>
         <v>33000</v>
       </c>
-      <c r="D31" s="430"/>
-      <c r="E31" s="422">
+      <c r="D31" s="366"/>
+      <c r="E31" s="358">
         <f>E28*E29</f>
         <v>61200</v>
       </c>
-      <c r="F31" s="431"/>
-      <c r="G31" s="417">
+      <c r="F31" s="367"/>
+      <c r="G31" s="377">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="418"/>
-      <c r="I31" s="422">
+      <c r="H31" s="378"/>
+      <c r="I31" s="358">
         <f>C31+E31+G31</f>
         <v>94200</v>
       </c>
-      <c r="J31" s="422"/>
+      <c r="J31" s="358"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="424"/>
-      <c r="D32" s="425"/>
-      <c r="E32" s="432">
+      <c r="C32" s="360"/>
+      <c r="D32" s="361"/>
+      <c r="E32" s="368">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>15.7</v>
       </c>
-      <c r="F32" s="368"/>
+      <c r="F32" s="369"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="432">
+      <c r="I32" s="368">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>15.7</v>
       </c>
-      <c r="J32" s="432"/>
+      <c r="J32" s="368"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="426"/>
-      <c r="D33" s="427"/>
-      <c r="E33" s="421">
+      <c r="C33" s="362"/>
+      <c r="D33" s="363"/>
+      <c r="E33" s="357">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>124237.296363</v>
       </c>
-      <c r="F33" s="428"/>
+      <c r="F33" s="364"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="421">
+      <c r="I33" s="357">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>124237.296363</v>
       </c>
-      <c r="J33" s="421"/>
+      <c r="J33" s="357"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="357">
+      <c r="C35" s="427">
         <v>15</v>
       </c>
-      <c r="D35" s="358"/>
-      <c r="G35" s="363" t="s">
+      <c r="D35" s="428"/>
+      <c r="G35" s="432" t="s">
         <v>328</v>
       </c>
-      <c r="H35" s="364"/>
-      <c r="I35" s="357">
+      <c r="H35" s="433"/>
+      <c r="I35" s="427">
         <f ca="1">'FCFF Model'!C34*0.8</f>
         <v>30.066518637001451</v>
       </c>
-      <c r="J35" s="358"/>
+      <c r="J35" s="428"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="359">
+      <c r="C36" s="370">
         <f>E28</f>
         <v>4000</v>
       </c>
-      <c r="D36" s="360"/>
-      <c r="G36" s="452" t="s">
+      <c r="D36" s="429"/>
+      <c r="G36" s="434" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="452"/>
-      <c r="I36" s="440">
+      <c r="H36" s="434"/>
+      <c r="I36" s="435">
         <f ca="1">I35/C29-1</f>
         <v>0.82221325072736073</v>
       </c>
-      <c r="J36" s="441"/>
+      <c r="J36" s="436"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J38" s="361"/>
-      <c r="K38" s="362"/>
+      <c r="J38" s="430"/>
+      <c r="K38" s="431"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6077,6 +6063,45 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -6093,99 +6118,55 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
   </mergeCells>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="C35:D36">
+    <cfRule type="containsBlanks" priority="6">
+      <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="containsBlanks" priority="3">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G29 I26 I28:I29">
     <cfRule type="containsBlanks" priority="19">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="E26:H26">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
+      <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="6">
-      <formula>LEN(TRIM(C35))=0</formula>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="5">
+  <conditionalFormatting sqref="I35:J36">
+    <cfRule type="containsBlanks" priority="1">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
     <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(J38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36">
-    <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9309,24 +9290,24 @@
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="12" priority="3">
+  <conditionalFormatting sqref="B51:M52">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$C$49="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:M35 D42:M46">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
-      <formula>LEN(TRIM(D17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="5">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="D17:M18">
+    <cfRule type="containsBlanks" dxfId="7" priority="4">
+      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9354,8 +9335,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9469,7 +9450,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>1.3583800363130725</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -10370,11 +10351,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="434">
+      <c r="D52" s="437">
         <f>D53+D54+D55</f>
         <v>8694432</v>
       </c>
-      <c r="E52" s="435"/>
+      <c r="E52" s="438"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10383,11 +10364,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="437">
+      <c r="D53" s="440">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>8694432</v>
       </c>
-      <c r="E53" s="430"/>
+      <c r="E53" s="366"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10403,10 +10384,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="444">
+      <c r="D54" s="445">
         <v>0</v>
       </c>
-      <c r="E54" s="408"/>
+      <c r="E54" s="371"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10417,10 +10398,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="444">
+      <c r="D55" s="445">
         <v>0</v>
       </c>
-      <c r="E55" s="408"/>
+      <c r="E55" s="371"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10435,8 +10416,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="436"/>
-      <c r="E57" s="436"/>
+      <c r="D57" s="439"/>
+      <c r="E57" s="439"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10482,11 +10463,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="442">
+      <c r="D60" s="443">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>146302959.42020002</v>
       </c>
-      <c r="E60" s="443"/>
+      <c r="E60" s="444"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10503,20 +10484,20 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="440">
+      <c r="D63" s="435">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.64687443506582265</v>
       </c>
-      <c r="E63" s="441"/>
+      <c r="E63" s="436"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="438">
+      <c r="D64" s="441">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="E64" s="439"/>
+      <c r="E64" s="442"/>
       <c r="F64" s="266" t="s">
         <v>252</v>
       </c>
@@ -10525,11 +10506,11 @@
       <c r="B65" s="292" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="438">
+      <c r="D65" s="441">
         <f>D63</f>
         <v>-0.64687443506582265</v>
       </c>
-      <c r="E65" s="439"/>
+      <c r="E65" s="442"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11892,48 +11873,35 @@
     <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="G7:H11 I10 I12:I15 G13:H15 H12 I7:I8">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
+  <conditionalFormatting sqref="E16:E18">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
+      <formula>LEN(TRIM(E16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18 I18">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
+      <formula>LEN(TRIM(G18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H11 G13:H15 H12">
+    <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7 I11 I9">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(I7))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="9">
-      <formula>LEN(TRIM(I7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J15">
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
-      <formula>LEN(TRIM(J7))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="7">
-      <formula>LEN(TRIM(J7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16 G18 I18 E18">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(E16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:J16 G18:J18 J17">
-    <cfRule type="containsBlanks" dxfId="4" priority="3">
+  <conditionalFormatting sqref="G7:J18">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(E17))=0</formula>
+  <conditionalFormatting sqref="I7:J15">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
+      <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:I17">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G17))=0</formula>
+    <cfRule type="containsBlanks" priority="7">
+      <formula>LEN(TRIM(I7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11949,8 +11917,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12347,7 +12315,7 @@
         <v>239</v>
       </c>
       <c r="G19" s="197">
-        <f>G18*Data!C$4/Dashboard!I5</f>
+        <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>-0.29411390260970138</v>
       </c>
     </row>
@@ -12363,7 +12331,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.0987246696126012</v>
       </c>
-      <c r="E20" s="447" t="str">
+      <c r="E20" s="448" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12386,7 +12354,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-1.239882796949497</v>
       </c>
-      <c r="E21" s="447"/>
+      <c r="E21" s="448"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>0.95991278040655081</v>
@@ -12408,11 +12376,11 @@
         <f>B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="E23" s="451" t="s">
+      <c r="E23" s="452" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="451"/>
-      <c r="G23" s="451"/>
+      <c r="F23" s="452"/>
+      <c r="G23" s="452"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12453,7 +12421,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>1.6233560592885623</v>
       </c>
-      <c r="F25" s="448">
+      <c r="F25" s="449">
         <f ca="1">SUM(C15:F15)</f>
         <v>8.8959912049013226E-2</v>
       </c>
@@ -12478,7 +12446,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>3.6525511333992653</v>
       </c>
-      <c r="F26" s="449"/>
+      <c r="F26" s="450"/>
       <c r="G26" s="352">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>3.447397142838577</v>
@@ -12502,7 +12470,7 @@
         <f ca="1">G9*D27/G14</f>
         <v>4.4642291630435462</v>
       </c>
-      <c r="F27" s="450"/>
+      <c r="F27" s="451"/>
       <c r="G27" s="207">
         <f ca="1">$F$25+E27+$G$19</f>
         <v>4.2590751724828584</v>
@@ -12566,10 +12534,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="445" t="s">
+      <c r="C32" s="446" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="446"/>
+      <c r="D32" s="447"/>
       <c r="E32" s="30" t="s">
         <v>219</v>
       </c>
@@ -13524,14 +13492,14 @@
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F9 E13:F15">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:E27 G25:G27">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>$E$30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E27 G25:G27">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$30</formula>
+  <conditionalFormatting sqref="E4:F9 E13:F15">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08CC7CC-5CA1-4467-A1E8-78E4D0487FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{791EA415-27BA-4C00-A707-EB38ADF83B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="347">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1163,12 +1163,72 @@
   <si>
     <t>Expected Upside</t>
   </si>
+  <si>
+    <t>Allocation Analysis</t>
+  </si>
+  <si>
+    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
+  </si>
+  <si>
+    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
+  </si>
+  <si>
+    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
+  </si>
+  <si>
+    <t>80% chance of recession in US, and 50% chance of spilling over</t>
+  </si>
+  <si>
+    <t>4. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>60% chance of chinese recession</t>
+  </si>
+  <si>
+    <t>5. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>A = Upside in event of a win</t>
+  </si>
+  <si>
+    <t>B = Downside in event of a loss</t>
+  </si>
+  <si>
+    <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>R = A/B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒ Half Kelly %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = [W – (1 – W)/R] /2</t>
+    </r>
+  </si>
+  <si>
+    <t>capped at</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1193,6 +1253,7 @@
     <numFmt numFmtId="182" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="184" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2932,7 +2993,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3838,6 +3899,25 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4023,10 +4103,6 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4088,7 +4164,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4208,6 +4284,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4453,8 +4539,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:D33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4498,33 +4584,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="383" t="s">
+      <c r="C3" s="392" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="384"/>
+      <c r="D3" s="393"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="395" t="s">
+      <c r="I3" s="404" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="396"/>
+      <c r="J3" s="405"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="385" t="s">
+      <c r="C4" s="394" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="386"/>
+      <c r="D4" s="395"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>18.78</v>
+        <v>18.38</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4535,10 +4621,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="387">
+      <c r="C5" s="396">
         <v>44987</v>
       </c>
-      <c r="D5" s="386"/>
+      <c r="D5" s="395"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4546,10 +4632,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="379">
+      <c r="I5" s="388">
         <v>7913203590</v>
       </c>
-      <c r="J5" s="380"/>
+      <c r="J5" s="389"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4572,11 +4658,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="397">
+      <c r="I6" s="406">
         <f>I4*I5/1000000</f>
-        <v>148609.96342020002</v>
-      </c>
-      <c r="J6" s="398"/>
+        <v>145444.68198419997</v>
+      </c>
+      <c r="J6" s="407"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4616,11 +4702,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>11.125214698272686</v>
+        <v>10.899510915387607</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>8.9885905766408369E-2</v>
+        <v>9.1747235978105177E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4639,47 +4725,47 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.7442371670589043</v>
+        <v>0.72913838932520814</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>250.76083191642621</v>
+        <v>245.33559233626633</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="409">
+      <c r="C11" s="418">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="410"/>
+      <c r="D11" s="419"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="407" t="s">
+      <c r="I11" s="416" t="s">
         <v>311</v>
       </c>
-      <c r="J11" s="408"/>
+      <c r="J11" s="417"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="411">
+      <c r="C12" s="420">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="412"/>
+      <c r="D12" s="421"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>7.8496658194483659</v>
+        <v>7.8415601380983482</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4697,21 +4783,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>7.2227993969037225</v>
+        <v>7.2153410271191953</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>27.060915518203934</v>
+        <v>27.032972015477124</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>19.682688282545527</v>
+        <v>19.662363646694821</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4742,16 +4828,16 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>18.78</v>
-      </c>
-      <c r="C16" s="418">
+        <v>18.38</v>
+      </c>
+      <c r="C16" s="427">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-5.1933531280855899E-2</v>
-      </c>
-      <c r="E16" s="415">
+        <v>-3.0230487122153399E-2</v>
+      </c>
+      <c r="E16" s="424">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -4759,42 +4845,42 @@
         <f>E16/B16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="402" t="s">
+      <c r="G16" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="399">
+      <c r="H16" s="408">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>-2.3086958483399385</v>
-      </c>
-      <c r="I16" s="402" t="s">
+        <v>-2.3063118547647741</v>
+      </c>
+      <c r="I16" s="411" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>21.088695848339938</v>
+        <v>20.686311854764774</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>17.893352984132296</v>
-      </c>
-      <c r="C17" s="419"/>
+        <v>17.874876042449838</v>
+      </c>
+      <c r="C17" s="428"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="416"/>
+      <c r="E17" s="425"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="403"/>
-      <c r="H17" s="400"/>
-      <c r="I17" s="403"/>
+      <c r="G17" s="412"/>
+      <c r="H17" s="409"/>
+      <c r="I17" s="412"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>20.202048832472233</v>
+        <v>20.181187897214613</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4802,22 +4888,22 @@
         <f>C35</f>
         <v>15</v>
       </c>
-      <c r="C18" s="420"/>
+      <c r="C18" s="429"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.21217921883636856</v>
-      </c>
-      <c r="E18" s="417"/>
+        <v>0.21082424311298817</v>
+      </c>
+      <c r="E18" s="426"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="404"/>
-      <c r="H18" s="401"/>
-      <c r="I18" s="404"/>
+      <c r="G18" s="413"/>
+      <c r="H18" s="410"/>
+      <c r="I18" s="413"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>17.308695848339937</v>
+        <v>17.306311854764775</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4848,42 +4934,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="390"/>
-      <c r="D21" s="391"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="391"/>
-      <c r="G21" s="391"/>
-      <c r="H21" s="391"/>
-      <c r="I21" s="391"/>
-      <c r="J21" s="392"/>
+      <c r="C21" s="399"/>
+      <c r="D21" s="400"/>
+      <c r="E21" s="400"/>
+      <c r="F21" s="400"/>
+      <c r="G21" s="400"/>
+      <c r="H21" s="400"/>
+      <c r="I21" s="400"/>
+      <c r="J21" s="401"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="406"/>
-      <c r="D22" s="371"/>
-      <c r="E22" s="371"/>
-      <c r="F22" s="371"/>
-      <c r="G22" s="406"/>
-      <c r="H22" s="406"/>
-      <c r="I22" s="371"/>
-      <c r="J22" s="371"/>
+      <c r="C22" s="415"/>
+      <c r="D22" s="380"/>
+      <c r="E22" s="380"/>
+      <c r="F22" s="380"/>
+      <c r="G22" s="415"/>
+      <c r="H22" s="415"/>
+      <c r="I22" s="380"/>
+      <c r="J22" s="380"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="393"/>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393"/>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="C23" s="402"/>
+      <c r="D23" s="403"/>
+      <c r="E23" s="403"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="402"/>
+      <c r="H23" s="402"/>
+      <c r="I23" s="403"/>
+      <c r="J23" s="403"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4920,245 +5006,378 @@
       </c>
       <c r="J25" s="355">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>15.746150626036421</v>
+        <v>15.729890917355856</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="388">
+      <c r="C26" s="397">
         <v>44987</v>
       </c>
-      <c r="D26" s="389"/>
-      <c r="E26" s="424" t="str">
+      <c r="D26" s="398"/>
+      <c r="E26" s="433" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="425"/>
-      <c r="G26" s="425"/>
-      <c r="H26" s="426"/>
-      <c r="I26" s="405" t="s">
+      <c r="F26" s="434"/>
+      <c r="G26" s="434"/>
+      <c r="H26" s="435"/>
+      <c r="I26" s="414" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="405"/>
+      <c r="J26" s="414"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="414">
+      <c r="C27" s="423">
         <f>C31/D25</f>
         <v>5.5E-2</v>
       </c>
-      <c r="D27" s="369"/>
-      <c r="E27" s="413">
+      <c r="D27" s="378"/>
+      <c r="E27" s="422">
         <f>E31/D25</f>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F27" s="369"/>
-      <c r="G27" s="422">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F27" s="378"/>
+      <c r="G27" s="431">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="423"/>
-      <c r="I27" s="421">
+      <c r="H27" s="432"/>
+      <c r="I27" s="430">
         <f>C27+E27+G27</f>
-        <v>0.157</v>
-      </c>
-      <c r="J27" s="421"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="J27" s="430"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="370">
+      <c r="C28" s="379">
         <v>2000</v>
       </c>
-      <c r="D28" s="371"/>
-      <c r="E28" s="370">
-        <v>4000</v>
-      </c>
-      <c r="F28" s="371"/>
-      <c r="G28" s="379"/>
-      <c r="H28" s="380"/>
-      <c r="I28" s="359">
+      <c r="D28" s="380"/>
+      <c r="E28" s="379">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="380"/>
+      <c r="G28" s="388"/>
+      <c r="H28" s="389"/>
+      <c r="I28" s="368">
         <f>C28+E28+G28</f>
-        <v>6000</v>
-      </c>
-      <c r="J28" s="359"/>
+        <v>3000</v>
+      </c>
+      <c r="J28" s="368"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="372">
+      <c r="C29" s="381">
         <v>16.5</v>
       </c>
-      <c r="D29" s="371"/>
-      <c r="E29" s="372">
-        <v>15.3</v>
-      </c>
-      <c r="F29" s="371"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="374"/>
-      <c r="I29" s="381"/>
-      <c r="J29" s="381"/>
+      <c r="D29" s="380"/>
+      <c r="E29" s="381">
+        <v>16.5</v>
+      </c>
+      <c r="F29" s="380"/>
+      <c r="G29" s="382"/>
+      <c r="H29" s="383"/>
+      <c r="I29" s="390"/>
+      <c r="J29" s="390"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="357">
+      <c r="C30" s="366">
         <f>C29*$I$5/1000000</f>
         <v>130567.859235</v>
       </c>
-      <c r="D30" s="364"/>
-      <c r="E30" s="357">
+      <c r="D30" s="373"/>
+      <c r="E30" s="366">
         <f>E29*$I$5/1000000</f>
-        <v>121072.014927</v>
-      </c>
-      <c r="F30" s="364"/>
-      <c r="G30" s="375">
+        <v>130567.859235</v>
+      </c>
+      <c r="F30" s="373"/>
+      <c r="G30" s="384">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="376"/>
-      <c r="I30" s="382"/>
-      <c r="J30" s="382"/>
+      <c r="H30" s="385"/>
+      <c r="I30" s="391"/>
+      <c r="J30" s="391"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="365">
+      <c r="C31" s="374">
         <f>C28*C29</f>
         <v>33000</v>
       </c>
-      <c r="D31" s="366"/>
-      <c r="E31" s="358">
+      <c r="D31" s="375"/>
+      <c r="E31" s="367">
         <f>E28*E29</f>
-        <v>61200</v>
-      </c>
-      <c r="F31" s="367"/>
-      <c r="G31" s="377">
+        <v>16500</v>
+      </c>
+      <c r="F31" s="376"/>
+      <c r="G31" s="386">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="378"/>
-      <c r="I31" s="358">
+      <c r="H31" s="387"/>
+      <c r="I31" s="367">
         <f>C31+E31+G31</f>
-        <v>94200</v>
-      </c>
-      <c r="J31" s="358"/>
+        <v>49500</v>
+      </c>
+      <c r="J31" s="367"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="360"/>
-      <c r="D32" s="361"/>
-      <c r="E32" s="368">
+      <c r="C32" s="369"/>
+      <c r="D32" s="370"/>
+      <c r="E32" s="377">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>15.7</v>
-      </c>
-      <c r="F32" s="369"/>
+        <v>16.5</v>
+      </c>
+      <c r="F32" s="378"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="368">
+      <c r="I32" s="377">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>15.7</v>
-      </c>
-      <c r="J32" s="368"/>
+        <v>16.5</v>
+      </c>
+      <c r="J32" s="377"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="362"/>
-      <c r="D33" s="363"/>
-      <c r="E33" s="357">
+      <c r="C33" s="371"/>
+      <c r="D33" s="372"/>
+      <c r="E33" s="366">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>124237.296363</v>
-      </c>
-      <c r="F33" s="364"/>
+        <v>130567.859235</v>
+      </c>
+      <c r="F33" s="373"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="357">
+      <c r="I33" s="366">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>124237.296363</v>
-      </c>
-      <c r="J33" s="357"/>
+        <v>130567.859235</v>
+      </c>
+      <c r="J33" s="366"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="427">
+      <c r="C35" s="436">
         <v>15</v>
       </c>
-      <c r="D35" s="428"/>
-      <c r="G35" s="432" t="s">
+      <c r="D35" s="437"/>
+      <c r="G35" s="439" t="s">
         <v>328</v>
       </c>
-      <c r="H35" s="433"/>
-      <c r="I35" s="427">
-        <f ca="1">'FCFF Model'!C34*0.8</f>
-        <v>30.066518637001451</v>
-      </c>
-      <c r="J35" s="428"/>
+      <c r="H35" s="440"/>
+      <c r="I35" s="436">
+        <f ca="1">F14</f>
+        <v>27.032972015477124</v>
+      </c>
+      <c r="J35" s="437"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="370">
+      <c r="C36" s="379">
         <f>E28</f>
-        <v>4000</v>
-      </c>
-      <c r="D36" s="429"/>
-      <c r="G36" s="434" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="438"/>
+      <c r="G36" s="441" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="434"/>
-      <c r="I36" s="435">
+      <c r="H36" s="441"/>
+      <c r="I36" s="442">
         <f ca="1">I35/C29-1</f>
-        <v>0.82221325072736073</v>
-      </c>
-      <c r="J36" s="436"/>
+        <v>0.63836194033194693</v>
+      </c>
+      <c r="J36" s="443"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J38" s="430"/>
-      <c r="K38" s="431"/>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B38" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" s="347" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="357"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F39" s="214">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="358"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40" s="214">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E41" s="359"/>
+      <c r="F41" s="360">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.62807823129251705</v>
+      </c>
+      <c r="G41" s="358" t="s">
+        <v>337</v>
+      </c>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E42" s="359">
+        <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="102" t="str">
+        <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>Strongly Agree</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F43" s="361">
+        <f>AVERAGE(80%*0.5,0.6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+    </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F45" s="360">
+        <f ca="1">I35/C29-1</f>
+        <v>0.63836194033194693</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F46" s="360">
+        <f ca="1">D14/C29-1</f>
+        <v>-0.56270660441701847</v>
+      </c>
+    </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F48" s="214">
+        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0.66561564625850345</v>
+      </c>
+      <c r="G48" s="74"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E49" s="362">
+        <f ca="1">F45/ABS(F46)</f>
+        <v>1.1344489922831273</v>
+      </c>
+      <c r="F49" s="363">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>1.1344489922831273</v>
+      </c>
+      <c r="G49" s="74"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E50" s="107">
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
+        <v>0.18543039319803301</v>
+      </c>
+      <c r="F50" s="364">
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0.18543039319803301</v>
+      </c>
+      <c r="G50" s="365" t="s">
+        <v>346</v>
+      </c>
+      <c r="H50" s="78">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6062,11 +6281,10 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="54">
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="J38:K38"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
@@ -6120,56 +6338,61 @@
     <mergeCell ref="C29:D29"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="6">
+    <cfRule type="containsBlanks" priority="7">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="19">
+    <cfRule type="containsBlanks" priority="20">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="14" priority="2">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="11" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(J38))=0</formula>
+  <conditionalFormatting sqref="K38">
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(K38))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6181,6 +6404,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{C7C166B3-BD53-4EF0-BA4B-F2AAA7BD96F9}">
+      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9335,7 +9561,7 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -9408,7 +9634,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>18.99621440808356</v>
+        <v>18.976598635337282</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9451,7 +9677,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.3583800363130725</v>
+        <v>1.3569773529403231</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10351,11 +10577,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="437">
+      <c r="D52" s="444">
         <f>D53+D54+D55</f>
         <v>8694432</v>
       </c>
-      <c r="E52" s="438"/>
+      <c r="E52" s="445"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10364,11 +10590,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="440">
+      <c r="D53" s="447">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>8694432</v>
       </c>
-      <c r="E53" s="366"/>
+      <c r="E53" s="375"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10384,10 +10610,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="445">
+      <c r="D54" s="452">
         <v>0</v>
       </c>
-      <c r="E54" s="371"/>
+      <c r="E54" s="380"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10398,10 +10624,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="445">
+      <c r="D55" s="452">
         <v>0</v>
       </c>
-      <c r="E55" s="371"/>
+      <c r="E55" s="380"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10416,8 +10642,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="439"/>
-      <c r="E57" s="439"/>
+      <c r="D57" s="446"/>
+      <c r="E57" s="446"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10463,11 +10689,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="443">
+      <c r="D60" s="450">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>146302959.42020002</v>
-      </c>
-      <c r="E60" s="444"/>
+        <v>143137677.98419997</v>
+      </c>
+      <c r="E60" s="451"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10484,20 +10710,20 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="435">
+      <c r="D63" s="442">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.64687443506582265</v>
       </c>
-      <c r="E63" s="436"/>
+      <c r="E63" s="443"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="441">
+      <c r="D64" s="448">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="E64" s="442"/>
+      <c r="E64" s="449"/>
       <c r="F64" s="266" t="s">
         <v>252</v>
       </c>
@@ -10506,11 +10732,11 @@
       <c r="B65" s="292" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="441">
+      <c r="D65" s="448">
         <f>D63</f>
         <v>-0.64687443506582265</v>
       </c>
-      <c r="E65" s="442"/>
+      <c r="E65" s="449"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11918,7 +12144,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12331,7 +12557,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.0987246696126012</v>
       </c>
-      <c r="E20" s="448" t="str">
+      <c r="E20" s="455" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12354,7 +12580,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-1.239882796949497</v>
       </c>
-      <c r="E21" s="448"/>
+      <c r="E21" s="455"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>0.95991278040655081</v>
@@ -12376,11 +12602,11 @@
         <f>B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="E23" s="452" t="s">
+      <c r="E23" s="459" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="452"/>
-      <c r="G23" s="452"/>
+      <c r="F23" s="459"/>
+      <c r="G23" s="459"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12421,7 +12647,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>1.6233560592885623</v>
       </c>
-      <c r="F25" s="449">
+      <c r="F25" s="456">
         <f ca="1">SUM(C15:F15)</f>
         <v>8.8959912049013226E-2</v>
       </c>
@@ -12446,7 +12672,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>3.6525511333992653</v>
       </c>
-      <c r="F26" s="450"/>
+      <c r="F26" s="457"/>
       <c r="G26" s="352">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>3.447397142838577</v>
@@ -12470,7 +12696,7 @@
         <f ca="1">G9*D27/G14</f>
         <v>4.4642291630435462</v>
       </c>
-      <c r="F27" s="451"/>
+      <c r="F27" s="458"/>
       <c r="G27" s="207">
         <f ca="1">$F$25+E27+$G$19</f>
         <v>4.2590751724828584</v>
@@ -12509,7 +12735,7 @@
       </c>
       <c r="C30" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>7.2227993969037225</v>
+        <v>7.2153410271191953</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12517,7 +12743,7 @@
       </c>
       <c r="E30" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>27.060915518203934</v>
+        <v>27.032972015477124</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12534,10 +12760,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="446" t="s">
+      <c r="C32" s="453" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="447"/>
+      <c r="D32" s="454"/>
       <c r="E32" s="30" t="s">
         <v>219</v>
       </c>
@@ -12553,7 +12779,7 @@
       </c>
       <c r="C33" s="253">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>19.682688282545527</v>
+        <v>19.662363646694821</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12561,11 +12787,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>441.42610744512325</v>
+        <v>440.97699527963948</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.78001001956896554</v>
+        <v>0.78001001956896565</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12577,7 +12803,7 @@
       </c>
       <c r="C34" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>37.583148296251814</v>
+        <v>37.544339379894495</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12585,7 +12811,7 @@
       </c>
       <c r="E34" s="120">
         <f ca="1">(C34-G19)/C9</f>
-        <v>836.9714160530857</v>
+        <v>836.11385793527518</v>
       </c>
       <c r="F34" s="158">
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>

--- a/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{791EA415-27BA-4C00-A707-EB38ADF83B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8A5F6B-B74E-4068-A5BB-CE49AA441A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1179,13 +1179,7 @@
     <t>80% chance of recession in US, and 50% chance of spilling over</t>
   </si>
   <si>
-    <t>4. The probability of a recession affecting the company</t>
-  </si>
-  <si>
     <t>60% chance of chinese recession</t>
-  </si>
-  <si>
-    <t>5. Is the upside very attractive?</t>
   </si>
   <si>
     <t>A = Upside in event of a win</t>
@@ -1222,6 +1216,12 @@
   </si>
   <si>
     <t>capped at</t>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
   </si>
 </sst>
 </file>
@@ -4539,8 +4539,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:H35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E42" s="359">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
@@ -5282,7 +5282,7 @@
         <v>Strongly Agree</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H42" s="74"/>
       <c r="I42" s="74"/>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F43" s="361">
         <f>AVERAGE(80%*0.5,0.6)</f>
@@ -5304,7 +5304,7 @@
     <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F45" s="360">
         <f ca="1">I35/C29-1</f>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F46" s="360">
         <f ca="1">D14/C29-1</f>
@@ -5323,7 +5323,7 @@
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F48" s="214">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E49" s="362">
         <f ca="1">F45/ABS(F46)</f>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E50" s="107">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
@@ -5358,7 +5358,7 @@
         <v>0.18543039319803301</v>
       </c>
       <c r="G50" s="365" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H50" s="78">
         <v>0.3</v>
@@ -9562,7 +9562,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="59">
-        <f>E46-I46-E50</f>
+        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
         <v>1369375.2100000009</v>
       </c>
       <c r="E6" s="14">
@@ -9676,7 +9676,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>1.3569773529403231</v>
       </c>
       <c r="E7" s="49" t="str">

--- a/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8A5F6B-B74E-4068-A5BB-CE49AA441A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B721C56-27E8-4D5B-A3E5-10ECB78BC62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3918,6 +3918,179 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3940,182 +4113,9 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4584,33 +4584,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="392" t="s">
+      <c r="C3" s="397" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="393"/>
+      <c r="D3" s="398"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="404" t="s">
+      <c r="I3" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="405"/>
+      <c r="J3" s="408"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="394" t="s">
+      <c r="C4" s="399" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="395"/>
+      <c r="D4" s="400"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>18.38</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4621,10 +4621,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="396">
+      <c r="C5" s="401">
         <v>44987</v>
       </c>
-      <c r="D5" s="395"/>
+      <c r="D5" s="400"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4632,10 +4632,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="388">
+      <c r="I5" s="409">
         <v>7913203590</v>
       </c>
-      <c r="J5" s="389"/>
+      <c r="J5" s="410"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4658,11 +4658,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="406">
+      <c r="I6" s="411">
         <f>I4*I5/1000000</f>
-        <v>145444.68198419997</v>
-      </c>
-      <c r="J6" s="407"/>
+        <v>147185.586774</v>
+      </c>
+      <c r="J6" s="412"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4702,11 +4702,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.899510915387607</v>
+        <v>11.021928518678378</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.1747235978105177E-2</v>
+        <v>9.0728224040406716E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4725,47 +4725,47 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.72913838932520814</v>
+        <v>0.73732769018296218</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>245.33559233626633</v>
+        <v>248.31947410535426</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="418">
+      <c r="C11" s="421">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="419"/>
+      <c r="D11" s="422"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="416" t="s">
+      <c r="I11" s="419" t="s">
         <v>311</v>
       </c>
-      <c r="J11" s="417"/>
+      <c r="J11" s="420"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="420">
+      <c r="C12" s="375">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="421"/>
+      <c r="D12" s="376"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>7.8415601380983482</v>
+        <v>7.8472833633422852</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4783,21 +4783,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>7.2153410271191953</v>
+        <v>7.2206072013476366</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>27.032972015477124</v>
+        <v>27.052702245830893</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>19.662363646694821</v>
+        <v>19.676714379711775</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4828,16 +4828,16 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>18.38</v>
-      </c>
-      <c r="C16" s="427">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C16" s="385">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-3.0230487122153399E-2</v>
-      </c>
-      <c r="E16" s="424">
+        <v>-4.2112130123022867E-2</v>
+      </c>
+      <c r="E16" s="380">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -4845,42 +4845,42 @@
         <f>E16/B16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="411" t="s">
+      <c r="G16" s="388" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="408">
+      <c r="H16" s="413">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>-2.3063118547647741</v>
-      </c>
-      <c r="I16" s="411" t="s">
+        <v>-2.3079951348767827</v>
+      </c>
+      <c r="I16" s="388" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>20.686311854764774</v>
+        <v>20.907995134876785</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>17.874876042449838</v>
-      </c>
-      <c r="C17" s="428"/>
+        <v>17.887922163374341</v>
+      </c>
+      <c r="C17" s="386"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="425"/>
+      <c r="E17" s="381"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="412"/>
-      <c r="H17" s="409"/>
-      <c r="I17" s="412"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="414"/>
+      <c r="I17" s="389"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>20.181187897214613</v>
+        <v>20.195917298251125</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4888,22 +4888,22 @@
         <f>C35</f>
         <v>15</v>
       </c>
-      <c r="C18" s="429"/>
+      <c r="C18" s="387"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.21082424311298817</v>
-      </c>
-      <c r="E18" s="426"/>
+        <v>0.21178095864745158</v>
+      </c>
+      <c r="E18" s="382"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="413"/>
-      <c r="H18" s="410"/>
-      <c r="I18" s="413"/>
+      <c r="G18" s="390"/>
+      <c r="H18" s="415"/>
+      <c r="I18" s="390"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>17.306311854764775</v>
+        <v>17.307995134876784</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4934,42 +4934,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="399"/>
-      <c r="D21" s="400"/>
-      <c r="E21" s="400"/>
-      <c r="F21" s="400"/>
-      <c r="G21" s="400"/>
-      <c r="H21" s="400"/>
-      <c r="I21" s="400"/>
-      <c r="J21" s="401"/>
+      <c r="C21" s="404"/>
+      <c r="D21" s="405"/>
+      <c r="E21" s="405"/>
+      <c r="F21" s="405"/>
+      <c r="G21" s="405"/>
+      <c r="H21" s="405"/>
+      <c r="I21" s="405"/>
+      <c r="J21" s="406"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="415"/>
-      <c r="D22" s="380"/>
-      <c r="E22" s="380"/>
-      <c r="F22" s="380"/>
-      <c r="G22" s="415"/>
-      <c r="H22" s="415"/>
-      <c r="I22" s="380"/>
-      <c r="J22" s="380"/>
+      <c r="C22" s="417"/>
+      <c r="D22" s="418"/>
+      <c r="E22" s="418"/>
+      <c r="F22" s="418"/>
+      <c r="G22" s="417"/>
+      <c r="H22" s="417"/>
+      <c r="I22" s="418"/>
+      <c r="J22" s="418"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="402"/>
-      <c r="D23" s="403"/>
-      <c r="E23" s="403"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="402"/>
-      <c r="H23" s="402"/>
-      <c r="I23" s="403"/>
-      <c r="J23" s="403"/>
+      <c r="C23" s="383"/>
+      <c r="D23" s="384"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="384"/>
+      <c r="G23" s="383"/>
+      <c r="H23" s="383"/>
+      <c r="I23" s="384"/>
+      <c r="J23" s="384"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5006,213 +5006,213 @@
       </c>
       <c r="J25" s="355">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>15.729890917355856</v>
+        <v>15.74137150376942</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="397">
+      <c r="C26" s="402">
         <v>44987</v>
       </c>
-      <c r="D26" s="398"/>
-      <c r="E26" s="433" t="str">
+      <c r="D26" s="403"/>
+      <c r="E26" s="394" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="434"/>
-      <c r="G26" s="434"/>
-      <c r="H26" s="435"/>
-      <c r="I26" s="414" t="s">
+      <c r="F26" s="395"/>
+      <c r="G26" s="395"/>
+      <c r="H26" s="396"/>
+      <c r="I26" s="416" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="414"/>
+      <c r="J26" s="416"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="423">
+      <c r="C27" s="379">
         <f>C31/D25</f>
         <v>5.5E-2</v>
       </c>
       <c r="D27" s="378"/>
-      <c r="E27" s="422">
+      <c r="E27" s="377">
         <f>E31/D25</f>
         <v>2.75E-2</v>
       </c>
       <c r="F27" s="378"/>
-      <c r="G27" s="431">
+      <c r="G27" s="392">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="432"/>
-      <c r="I27" s="430">
+      <c r="H27" s="393"/>
+      <c r="I27" s="391">
         <f>C27+E27+G27</f>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="J27" s="430"/>
+      <c r="J27" s="391"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="379">
+      <c r="C28" s="368">
         <v>2000</v>
       </c>
-      <c r="D28" s="380"/>
-      <c r="E28" s="379">
+      <c r="D28" s="418"/>
+      <c r="E28" s="368">
         <v>1000</v>
       </c>
-      <c r="F28" s="380"/>
-      <c r="G28" s="388"/>
-      <c r="H28" s="389"/>
-      <c r="I28" s="368">
+      <c r="F28" s="418"/>
+      <c r="G28" s="409"/>
+      <c r="H28" s="410"/>
+      <c r="I28" s="433">
         <f>C28+E28+G28</f>
         <v>3000</v>
       </c>
-      <c r="J28" s="368"/>
+      <c r="J28" s="433"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="381">
+      <c r="C29" s="443">
         <v>16.5</v>
       </c>
-      <c r="D29" s="380"/>
-      <c r="E29" s="381">
+      <c r="D29" s="418"/>
+      <c r="E29" s="443">
         <v>16.5</v>
       </c>
-      <c r="F29" s="380"/>
-      <c r="G29" s="382"/>
-      <c r="H29" s="383"/>
-      <c r="I29" s="390"/>
-      <c r="J29" s="390"/>
+      <c r="F29" s="418"/>
+      <c r="G29" s="423"/>
+      <c r="H29" s="424"/>
+      <c r="I29" s="429"/>
+      <c r="J29" s="429"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="366">
+      <c r="C30" s="431">
         <f>C29*$I$5/1000000</f>
         <v>130567.859235</v>
       </c>
-      <c r="D30" s="373"/>
-      <c r="E30" s="366">
+      <c r="D30" s="438"/>
+      <c r="E30" s="431">
         <f>E29*$I$5/1000000</f>
         <v>130567.859235</v>
       </c>
-      <c r="F30" s="373"/>
-      <c r="G30" s="384">
+      <c r="F30" s="438"/>
+      <c r="G30" s="425">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="385"/>
-      <c r="I30" s="391"/>
-      <c r="J30" s="391"/>
+      <c r="H30" s="426"/>
+      <c r="I30" s="430"/>
+      <c r="J30" s="430"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="374">
+      <c r="C31" s="439">
         <f>C28*C29</f>
         <v>33000</v>
       </c>
-      <c r="D31" s="375"/>
-      <c r="E31" s="367">
+      <c r="D31" s="440"/>
+      <c r="E31" s="432">
         <f>E28*E29</f>
         <v>16500</v>
       </c>
-      <c r="F31" s="376"/>
-      <c r="G31" s="386">
+      <c r="F31" s="441"/>
+      <c r="G31" s="427">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="387"/>
-      <c r="I31" s="367">
+      <c r="H31" s="428"/>
+      <c r="I31" s="432">
         <f>C31+E31+G31</f>
         <v>49500</v>
       </c>
-      <c r="J31" s="367"/>
+      <c r="J31" s="432"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="369"/>
-      <c r="D32" s="370"/>
-      <c r="E32" s="377">
+      <c r="C32" s="434"/>
+      <c r="D32" s="435"/>
+      <c r="E32" s="442">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>16.5</v>
       </c>
       <c r="F32" s="378"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="377">
+      <c r="I32" s="442">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>16.5</v>
       </c>
-      <c r="J32" s="377"/>
+      <c r="J32" s="442"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="371"/>
-      <c r="D33" s="372"/>
-      <c r="E33" s="366">
+      <c r="C33" s="436"/>
+      <c r="D33" s="437"/>
+      <c r="E33" s="431">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>130567.859235</v>
       </c>
-      <c r="F33" s="373"/>
+      <c r="F33" s="438"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="366">
+      <c r="I33" s="431">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>130567.859235</v>
       </c>
-      <c r="J33" s="366"/>
+      <c r="J33" s="431"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="436">
+      <c r="C35" s="366">
         <v>15</v>
       </c>
-      <c r="D35" s="437"/>
-      <c r="G35" s="439" t="s">
+      <c r="D35" s="367"/>
+      <c r="G35" s="370" t="s">
         <v>328</v>
       </c>
-      <c r="H35" s="440"/>
-      <c r="I35" s="436">
+      <c r="H35" s="371"/>
+      <c r="I35" s="366">
         <f ca="1">F14</f>
-        <v>27.032972015477124</v>
-      </c>
-      <c r="J35" s="437"/>
+        <v>27.052702245830893</v>
+      </c>
+      <c r="J35" s="367"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="379">
+      <c r="C36" s="368">
         <f>E28</f>
         <v>1000</v>
       </c>
-      <c r="D36" s="438"/>
-      <c r="G36" s="441" t="s">
+      <c r="D36" s="369"/>
+      <c r="G36" s="372" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="441"/>
-      <c r="I36" s="442">
+      <c r="H36" s="372"/>
+      <c r="I36" s="373">
         <f ca="1">I35/C29-1</f>
-        <v>0.63836194033194693</v>
-      </c>
-      <c r="J36" s="443"/>
+        <v>0.63955771186853894</v>
+      </c>
+      <c r="J36" s="374"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="F45" s="360">
         <f ca="1">I35/C29-1</f>
-        <v>0.63836194033194693</v>
+        <v>0.63955771186853894</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="F46" s="360">
         <f ca="1">D14/C29-1</f>
-        <v>-0.56270660441701847</v>
+        <v>-0.56238744234256743</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5337,11 +5337,11 @@
       </c>
       <c r="E49" s="362">
         <f ca="1">F45/ABS(F46)</f>
-        <v>1.1344489922831273</v>
+        <v>1.1372190481432634</v>
       </c>
       <c r="F49" s="363">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.1344489922831273</v>
+        <v>1.1372190481432634</v>
       </c>
       <c r="G49" s="74"/>
     </row>
@@ -5351,11 +5351,11 @@
       </c>
       <c r="E50" s="107">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
-        <v>0.18543039319803301</v>
+        <v>0.18578937743602947</v>
       </c>
       <c r="F50" s="364">
         <f ca="1">MIN(E50,H50)</f>
-        <v>0.18543039319803301</v>
+        <v>0.18578937743602947</v>
       </c>
       <c r="G50" s="365" t="s">
         <v>344</v>
@@ -6282,22 +6282,28 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6314,28 +6320,22 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="7">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>18.976598635337282</v>
+        <v>18.990448857288158</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.3569773529403231</v>
+        <v>1.3579677536903048</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10594,7 +10594,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>8694432</v>
       </c>
-      <c r="E53" s="375"/>
+      <c r="E53" s="440"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10613,7 +10613,7 @@
       <c r="D54" s="452">
         <v>0</v>
       </c>
-      <c r="E54" s="380"/>
+      <c r="E54" s="418"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10627,7 +10627,7 @@
       <c r="D55" s="452">
         <v>0</v>
       </c>
-      <c r="E55" s="380"/>
+      <c r="E55" s="418"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10691,7 +10691,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="450">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>143137677.98419997</v>
+        <v>144878582.77399999</v>
       </c>
       <c r="E60" s="451"/>
       <c r="F60" s="6"/>
@@ -10710,11 +10710,11 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="442">
+      <c r="D63" s="373">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.64687443506582265</v>
       </c>
-      <c r="E63" s="443"/>
+      <c r="E63" s="374"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="C30" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>7.2153410271191953</v>
+        <v>7.2206072013476366</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="E30" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>27.032972015477124</v>
+        <v>27.052702245830893</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="C33" s="253">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>19.662363646694821</v>
+        <v>19.676714379711775</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12787,11 +12787,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>440.97699527963948</v>
+        <v>441.2941025001017</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.78001001956896565</v>
+        <v>0.78001001956896554</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12803,7 +12803,7 @@
       </c>
       <c r="C34" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>37.544339379894495</v>
+        <v>37.571741415601899</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12811,11 +12811,11 @@
       </c>
       <c r="E34" s="120">
         <f ca="1">(C34-G19)/C9</f>
-        <v>836.11385793527518</v>
+        <v>836.71935894821411</v>
       </c>
       <c r="F34" s="158">
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.489391683554693</v>
+        <v>1.4893916835546928</v>
       </c>
       <c r="G34" s="281">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B721C56-27E8-4D5B-A3E5-10ECB78BC62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25D27AA-F7DA-460A-89C6-A233AFBD6C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="348">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1222,6 +1222,9 @@
   </si>
   <si>
     <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>FY</t>
   </si>
 </sst>
 </file>
@@ -2993,7 +2996,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="460">
+  <cellXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3647,9 +3650,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="182" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3918,179 +3918,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4113,9 +3940,182 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4539,8 +4539,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4568,7 +4568,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="308" t="str">
+      <c r="C2" s="307" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0981.HK : SMIC</v>
       </c>
@@ -4584,27 +4584,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="397" t="s">
+      <c r="C3" s="391" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="398"/>
+      <c r="D3" s="392"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="407" t="s">
+      <c r="I3" s="403" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="408"/>
+      <c r="J3" s="404"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="399" t="s">
+      <c r="C4" s="393" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="400"/>
+      <c r="D4" s="394"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4621,10 +4621,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="401">
+      <c r="C5" s="395">
         <v>44987</v>
       </c>
-      <c r="D5" s="400"/>
+      <c r="D5" s="394"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4632,10 +4632,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="409">
+      <c r="I5" s="387">
         <v>7913203590</v>
       </c>
-      <c r="J5" s="410"/>
+      <c r="J5" s="388"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4643,26 +4643,26 @@
       <c r="B6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="270">
+      <c r="C6" s="269">
         <v>8</v>
       </c>
-      <c r="D6" s="271">
+      <c r="D6" s="270">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45169</v>
       </c>
-      <c r="E6" s="353">
-        <f>Data!C3</f>
-        <v>44561</v>
+      <c r="E6" s="352">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
+        <v>44926</v>
       </c>
       <c r="G6" s="134" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="411">
+      <c r="I6" s="405">
         <f>I4*I5/1000000</f>
         <v>147185.586774</v>
       </c>
-      <c r="J6" s="412"/>
+      <c r="J6" s="406"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4694,8 +4694,8 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="301"/>
-      <c r="D9" s="299"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="298"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -4713,10 +4713,10 @@
       <c r="B10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="300" t="s">
+      <c r="C10" s="299" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="300">
+      <c r="D10" s="299">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
@@ -4733,33 +4733,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="313" t="s">
+      <c r="B11" s="312" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="421">
+      <c r="C11" s="417">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="422"/>
+      <c r="D11" s="418"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="419" t="s">
+      <c r="I11" s="415" t="s">
         <v>311</v>
       </c>
-      <c r="J11" s="420"/>
+      <c r="J11" s="416"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="313" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="375">
+      <c r="C12" s="419">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="376"/>
+      <c r="D12" s="420"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4830,14 +4830,14 @@
         <f>I4</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="C16" s="385">
+      <c r="C16" s="426">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-4.2112130123022867E-2</v>
       </c>
-      <c r="E16" s="380">
+      <c r="E16" s="423">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -4845,14 +4845,14 @@
         <f>E16/B16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="388" t="s">
+      <c r="G16" s="410" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="413">
+      <c r="H16" s="407">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>-2.3079951348767827</v>
       </c>
-      <c r="I16" s="388" t="s">
+      <c r="I16" s="410" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4861,46 +4861,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="290">
+      <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
         <v>17.887922163374341</v>
       </c>
-      <c r="C17" s="386"/>
-      <c r="D17" s="289">
+      <c r="C17" s="427"/>
+      <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="381"/>
+      <c r="E17" s="424"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="389"/>
-      <c r="H17" s="414"/>
-      <c r="I17" s="389"/>
+      <c r="G17" s="411"/>
+      <c r="H17" s="408"/>
+      <c r="I17" s="411"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>20.195917298251125</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="356">
+      <c r="B18" s="355">
         <f>C35</f>
         <v>15</v>
       </c>
-      <c r="C18" s="387"/>
+      <c r="C18" s="428"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>0.21178095864745158</v>
       </c>
-      <c r="E18" s="382"/>
+      <c r="E18" s="425"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="390"/>
-      <c r="H18" s="415"/>
-      <c r="I18" s="390"/>
+      <c r="G18" s="412"/>
+      <c r="H18" s="409"/>
+      <c r="I18" s="412"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>17.307995134876784</v>
@@ -4918,7 +4918,7 @@
       <c r="C20" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="291" t="s">
+      <c r="D20" s="290" t="s">
         <v>312</v>
       </c>
       <c r="E20" s="266" t="s">
@@ -4934,42 +4934,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="404"/>
-      <c r="D21" s="405"/>
-      <c r="E21" s="405"/>
-      <c r="F21" s="405"/>
-      <c r="G21" s="405"/>
-      <c r="H21" s="405"/>
-      <c r="I21" s="405"/>
-      <c r="J21" s="406"/>
+      <c r="C21" s="398"/>
+      <c r="D21" s="399"/>
+      <c r="E21" s="399"/>
+      <c r="F21" s="399"/>
+      <c r="G21" s="399"/>
+      <c r="H21" s="399"/>
+      <c r="I21" s="399"/>
+      <c r="J21" s="400"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="417"/>
-      <c r="D22" s="418"/>
-      <c r="E22" s="418"/>
-      <c r="F22" s="418"/>
-      <c r="G22" s="417"/>
-      <c r="H22" s="417"/>
-      <c r="I22" s="418"/>
-      <c r="J22" s="418"/>
+      <c r="C22" s="414"/>
+      <c r="D22" s="379"/>
+      <c r="E22" s="379"/>
+      <c r="F22" s="379"/>
+      <c r="G22" s="414"/>
+      <c r="H22" s="414"/>
+      <c r="I22" s="379"/>
+      <c r="J22" s="379"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="383"/>
-      <c r="D23" s="384"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="384"/>
-      <c r="G23" s="383"/>
-      <c r="H23" s="383"/>
-      <c r="I23" s="384"/>
-      <c r="J23" s="384"/>
+      <c r="C23" s="401"/>
+      <c r="D23" s="402"/>
+      <c r="E23" s="402"/>
+      <c r="F23" s="402"/>
+      <c r="G23" s="401"/>
+      <c r="H23" s="401"/>
+      <c r="I23" s="402"/>
+      <c r="J23" s="402"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4998,13 +4998,13 @@
         <v>324</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="354">
+      <c r="H25" s="353">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="J25" s="355">
+      <c r="J25" s="354">
         <f ca="1">H14/(H25+C16+1)</f>
         <v>15.74137150376942</v>
       </c>
@@ -5013,219 +5013,219 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="402">
+      <c r="C26" s="396">
         <v>44987</v>
       </c>
-      <c r="D26" s="403"/>
-      <c r="E26" s="394" t="str">
+      <c r="D26" s="397"/>
+      <c r="E26" s="432" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="395"/>
-      <c r="G26" s="395"/>
-      <c r="H26" s="396"/>
-      <c r="I26" s="416" t="s">
+      <c r="F26" s="433"/>
+      <c r="G26" s="433"/>
+      <c r="H26" s="434"/>
+      <c r="I26" s="413" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="416"/>
+      <c r="J26" s="413"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="379">
+      <c r="C27" s="422">
         <f>C31/D25</f>
         <v>5.5E-2</v>
       </c>
-      <c r="D27" s="378"/>
-      <c r="E27" s="377">
+      <c r="D27" s="377"/>
+      <c r="E27" s="421">
         <f>E31/D25</f>
         <v>2.75E-2</v>
       </c>
-      <c r="F27" s="378"/>
-      <c r="G27" s="392">
+      <c r="F27" s="377"/>
+      <c r="G27" s="430">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="393"/>
-      <c r="I27" s="391">
+      <c r="H27" s="431"/>
+      <c r="I27" s="429">
         <f>C27+E27+G27</f>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="J27" s="391"/>
+      <c r="J27" s="429"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="368">
+      <c r="C28" s="378">
         <v>2000</v>
       </c>
-      <c r="D28" s="418"/>
-      <c r="E28" s="368">
+      <c r="D28" s="379"/>
+      <c r="E28" s="378">
         <v>1000</v>
       </c>
-      <c r="F28" s="418"/>
-      <c r="G28" s="409"/>
-      <c r="H28" s="410"/>
-      <c r="I28" s="433">
+      <c r="F28" s="379"/>
+      <c r="G28" s="387"/>
+      <c r="H28" s="388"/>
+      <c r="I28" s="367">
         <f>C28+E28+G28</f>
         <v>3000</v>
       </c>
-      <c r="J28" s="433"/>
+      <c r="J28" s="367"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="443">
+      <c r="C29" s="380">
         <v>16.5</v>
       </c>
-      <c r="D29" s="418"/>
-      <c r="E29" s="443">
+      <c r="D29" s="379"/>
+      <c r="E29" s="380">
         <v>16.5</v>
       </c>
-      <c r="F29" s="418"/>
-      <c r="G29" s="423"/>
-      <c r="H29" s="424"/>
-      <c r="I29" s="429"/>
-      <c r="J29" s="429"/>
+      <c r="F29" s="379"/>
+      <c r="G29" s="381"/>
+      <c r="H29" s="382"/>
+      <c r="I29" s="389"/>
+      <c r="J29" s="389"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="431">
+      <c r="C30" s="365">
         <f>C29*$I$5/1000000</f>
         <v>130567.859235</v>
       </c>
-      <c r="D30" s="438"/>
-      <c r="E30" s="431">
+      <c r="D30" s="372"/>
+      <c r="E30" s="365">
         <f>E29*$I$5/1000000</f>
         <v>130567.859235</v>
       </c>
-      <c r="F30" s="438"/>
-      <c r="G30" s="425">
+      <c r="F30" s="372"/>
+      <c r="G30" s="383">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="426"/>
-      <c r="I30" s="430"/>
-      <c r="J30" s="430"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="390"/>
+      <c r="J30" s="390"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="439">
+      <c r="C31" s="373">
         <f>C28*C29</f>
         <v>33000</v>
       </c>
-      <c r="D31" s="440"/>
-      <c r="E31" s="432">
+      <c r="D31" s="374"/>
+      <c r="E31" s="366">
         <f>E28*E29</f>
         <v>16500</v>
       </c>
-      <c r="F31" s="441"/>
-      <c r="G31" s="427">
+      <c r="F31" s="375"/>
+      <c r="G31" s="385">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="428"/>
-      <c r="I31" s="432">
+      <c r="H31" s="386"/>
+      <c r="I31" s="366">
         <f>C31+E31+G31</f>
         <v>49500</v>
       </c>
-      <c r="J31" s="432"/>
+      <c r="J31" s="366"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="434"/>
-      <c r="D32" s="435"/>
-      <c r="E32" s="442">
+      <c r="C32" s="368"/>
+      <c r="D32" s="369"/>
+      <c r="E32" s="376">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>16.5</v>
       </c>
-      <c r="F32" s="378"/>
+      <c r="F32" s="377"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="442">
+      <c r="I32" s="376">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>16.5</v>
       </c>
-      <c r="J32" s="442"/>
+      <c r="J32" s="376"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="436"/>
-      <c r="D33" s="437"/>
-      <c r="E33" s="431">
+      <c r="C33" s="370"/>
+      <c r="D33" s="371"/>
+      <c r="E33" s="365">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>130567.859235</v>
       </c>
-      <c r="F33" s="438"/>
+      <c r="F33" s="372"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="431">
+      <c r="I33" s="365">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>130567.859235</v>
       </c>
-      <c r="J33" s="431"/>
+      <c r="J33" s="365"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="366">
+      <c r="C35" s="435">
         <v>15</v>
       </c>
-      <c r="D35" s="367"/>
-      <c r="G35" s="370" t="s">
+      <c r="D35" s="436"/>
+      <c r="G35" s="438" t="s">
         <v>328</v>
       </c>
-      <c r="H35" s="371"/>
-      <c r="I35" s="366">
+      <c r="H35" s="439"/>
+      <c r="I35" s="435">
         <f ca="1">F14</f>
         <v>27.052702245830893</v>
       </c>
-      <c r="J35" s="367"/>
+      <c r="J35" s="436"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="368">
+      <c r="C36" s="378">
         <f>E28</f>
         <v>1000</v>
       </c>
-      <c r="D36" s="369"/>
-      <c r="G36" s="372" t="s">
+      <c r="D36" s="437"/>
+      <c r="G36" s="440" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="372"/>
-      <c r="I36" s="373">
+      <c r="H36" s="440"/>
+      <c r="I36" s="441">
         <f ca="1">I35/C29-1</f>
         <v>0.63955771186853894</v>
       </c>
-      <c r="J36" s="374"/>
+      <c r="J36" s="442"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="G38" s="347" t="s">
+      <c r="G38" s="346" t="s">
         <v>141</v>
       </c>
       <c r="H38" s="133"/>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
-      <c r="K38" s="357"/>
+      <c r="K38" s="356"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
@@ -5235,7 +5235,7 @@
         <f>'Qualitative Analysis'!E8</f>
         <v>0.6</v>
       </c>
-      <c r="G39" s="358"/>
+      <c r="G39" s="357"/>
       <c r="H39" s="116"/>
       <c r="I39" s="116"/>
       <c r="J39" s="116"/>
@@ -5257,12 +5257,12 @@
       <c r="B41" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E41" s="359"/>
-      <c r="F41" s="360">
+      <c r="E41" s="358"/>
+      <c r="F41" s="359">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.62807823129251705</v>
       </c>
-      <c r="G41" s="358" t="s">
+      <c r="G41" s="357" t="s">
         <v>337</v>
       </c>
       <c r="H41" s="116"/>
@@ -5273,7 +5273,7 @@
       <c r="B42" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E42" s="359">
+      <c r="E42" s="358">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>1</v>
       </c>
@@ -5292,7 +5292,7 @@
       <c r="B43" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F43" s="361">
+      <c r="F43" s="360">
         <f>AVERAGE(80%*0.5,0.6)</f>
         <v>0.5</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="B45" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F45" s="360">
+      <c r="F45" s="359">
         <f ca="1">I35/C29-1</f>
         <v>0.63955771186853894</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="B46" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F46" s="360">
+      <c r="F46" s="359">
         <f ca="1">D14/C29-1</f>
         <v>-0.56238744234256743</v>
       </c>
@@ -5335,11 +5335,11 @@
       <c r="B49" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E49" s="362">
+      <c r="E49" s="361">
         <f ca="1">F45/ABS(F46)</f>
         <v>1.1372190481432634</v>
       </c>
-      <c r="F49" s="363">
+      <c r="F49" s="362">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>1.1372190481432634</v>
       </c>
@@ -5353,11 +5353,11 @@
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
         <v>0.18578937743602947</v>
       </c>
-      <c r="F50" s="364">
+      <c r="F50" s="363">
         <f ca="1">MIN(E50,H50)</f>
         <v>0.18578937743602947</v>
       </c>
-      <c r="G50" s="365" t="s">
+      <c r="G50" s="364" t="s">
         <v>344</v>
       </c>
       <c r="H50" s="78">
@@ -6282,6 +6282,44 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -6298,44 +6336,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="7">
@@ -6516,47 +6516,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="279">
+      <c r="C6" s="278">
         <f>C3</f>
         <v>44561</v>
       </c>
-      <c r="D6" s="280">
+      <c r="D6" s="279">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="E6" s="280">
+      <c r="E6" s="279">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="F6" s="280">
+      <c r="F6" s="279">
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
-      <c r="G6" s="280">
+      <c r="G6" s="279">
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="H6" s="280">
+      <c r="H6" s="279">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="I6" s="280">
+      <c r="I6" s="279">
         <f t="shared" si="0"/>
         <v>42369</v>
       </c>
-      <c r="J6" s="280">
+      <c r="J6" s="279">
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="K6" s="280">
+      <c r="K6" s="279">
         <f t="shared" si="0"/>
         <v>41639</v>
       </c>
-      <c r="L6" s="280">
+      <c r="L6" s="279">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
-      <c r="M6" s="280">
+      <c r="M6" s="279">
         <f t="shared" si="0"/>
         <v>40908</v>
       </c>
@@ -7214,7 +7214,7 @@
       <c r="B24" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="273">
+      <c r="C24" s="272">
         <v>100763</v>
       </c>
       <c r="D24" s="140">
@@ -7575,7 +7575,7 @@
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="343" t="str">
+      <c r="M34" s="342" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -8101,7 +8101,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="342" t="s">
+      <c r="C49" s="341" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -8117,9 +8117,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="339"/>
+      <c r="C50" s="338"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="339"/>
+      <c r="E50" s="338"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8131,7 +8131,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="340" t="s">
+      <c r="B51" s="339" t="s">
         <v>299</v>
       </c>
       <c r="C51" s="165"/>
@@ -8148,50 +8148,50 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="341" t="s">
+      <c r="B52" s="340" t="s">
         <v>300</v>
       </c>
-      <c r="C52" s="348" t="str">
+      <c r="C52" s="347" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="348" t="str">
+      <c r="D52" s="347" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="348" t="str">
+      <c r="E52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="348" t="str">
+      <c r="F52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="348" t="str">
+      <c r="G52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="348" t="str">
+      <c r="H52" s="347" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="348" t="str">
+      <c r="I52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="348" t="str">
+      <c r="J52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="348" t="str">
+      <c r="K52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="348" t="str">
+      <c r="L52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="349" t="str">
+      <c r="M52" s="348" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9562,7 +9562,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9591,7 +9591,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="347" t="s">
+      <c r="K2" s="346" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9600,7 +9600,7 @@
         <v>259</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="274">
+      <c r="D3" s="273">
         <v>28961421</v>
       </c>
       <c r="E3" s="156" t="str">
@@ -9609,10 +9609,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="275" t="s">
+      <c r="H3" s="274" t="s">
         <v>260</v>
       </c>
-      <c r="I3" s="276">
+      <c r="I3" s="275">
         <v>19149976</v>
       </c>
       <c r="K3" s="74"/>
@@ -9622,7 +9622,7 @@
         <v>226</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="277">
+      <c r="D4" s="276">
         <f>D3-I3</f>
         <v>9811445</v>
       </c>
@@ -9710,12 +9710,11 @@
         <v>255</v>
       </c>
       <c r="C9" s="255"/>
-      <c r="D9" s="272">
+      <c r="D9" s="271">
         <v>44926</v>
       </c>
-      <c r="E9" s="269" t="str">
-        <f>IF(D9=Data!C3,"FY","Quarter")</f>
-        <v>Quarter</v>
+      <c r="E9" s="290" t="s">
+        <v>347</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -10577,11 +10576,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="444">
+      <c r="D52" s="443">
         <f>D53+D54+D55</f>
         <v>8694432</v>
       </c>
-      <c r="E52" s="445"/>
+      <c r="E52" s="444"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10590,11 +10589,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="447">
+      <c r="D53" s="446">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>8694432</v>
       </c>
-      <c r="E53" s="440"/>
+      <c r="E53" s="374"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10610,10 +10609,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="452">
+      <c r="D54" s="451">
         <v>0</v>
       </c>
-      <c r="E54" s="418"/>
+      <c r="E54" s="379"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10624,10 +10623,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="452">
+      <c r="D55" s="451">
         <v>0</v>
       </c>
-      <c r="E55" s="418"/>
+      <c r="E55" s="379"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10642,8 +10641,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="446"/>
-      <c r="E57" s="446"/>
+      <c r="D57" s="445"/>
+      <c r="E57" s="445"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10689,11 +10688,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="450">
+      <c r="D60" s="449">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>144878582.77399999</v>
       </c>
-      <c r="E60" s="451"/>
+      <c r="E60" s="450"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10702,7 +10701,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="292" t="s">
+      <c r="B62" s="291" t="s">
         <v>265</v>
       </c>
     </row>
@@ -10710,33 +10709,33 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="373">
+      <c r="D63" s="441">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.64687443506582265</v>
       </c>
-      <c r="E63" s="374"/>
+      <c r="E63" s="442"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="448">
+      <c r="D64" s="447">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="E64" s="449"/>
+      <c r="E64" s="448"/>
       <c r="F64" s="266" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="292" t="s">
+      <c r="B65" s="291" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="448">
+      <c r="D65" s="447">
         <f>D63</f>
         <v>-0.64687443506582265</v>
       </c>
-      <c r="E65" s="449"/>
+      <c r="E65" s="448"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10750,10 +10749,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16 F31" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{E1E596CF-4722-4837-A6B9-F8766C2AC2AB}">
+      <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10772,7 +10774,7 @@
   <dimension ref="A1:M901"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10805,22 +10807,22 @@
       <c r="B2" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285">
         <v>1</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286">
+      <c r="F2" s="285"/>
+      <c r="G2" s="285">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="286">
+      <c r="I2" s="285">
         <v>3</v>
       </c>
-      <c r="J2" s="286"/>
+      <c r="J2" s="285"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10829,72 +10831,72 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C3" s="278">
-        <f>Data!C3</f>
-        <v>44561</v>
+      <c r="C3" s="277">
+        <f>Dashboard!E6</f>
+        <v>44926</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="277">
         <f>EOMONTH(EDATE(C3,12),0)</f>
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="278" t="str">
+      <c r="G3" s="277" t="str">
         <f>IF(G7="","",EOMONTH(EDATE(E3,12),0))</f>
         <v/>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="278" t="str">
+      <c r="I3" s="277" t="str">
         <f>IF(I14="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="297"/>
+      <c r="J3" s="296"/>
       <c r="L3" s="72" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="293" t="s">
+      <c r="B4" s="292" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="294">
+      <c r="C4" s="293">
         <v>4982237</v>
       </c>
       <c r="D4" s="260">
         <f>C4/C6</f>
         <v>0.91532876780782757</v>
       </c>
-      <c r="E4" s="294"/>
+      <c r="E4" s="293"/>
       <c r="F4" s="260"/>
       <c r="G4" s="222"/>
       <c r="H4" s="260"/>
       <c r="I4" s="222"/>
-      <c r="J4" s="287"/>
+      <c r="J4" s="286"/>
       <c r="K4" s="6"/>
       <c r="L4" s="74"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="292" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="294">
+      <c r="C5" s="293">
         <v>460875</v>
       </c>
       <c r="D5" s="260">
         <f>C5/C6</f>
         <v>8.4671232192172416E-2</v>
       </c>
-      <c r="E5" s="294"/>
+      <c r="E5" s="293"/>
       <c r="F5" s="260"/>
       <c r="G5" s="222"/>
       <c r="H5" s="260"/>
       <c r="I5" s="222"/>
-      <c r="J5" s="287"/>
+      <c r="J5" s="286"/>
       <c r="K5" s="6"/>
       <c r="L5" s="74"/>
       <c r="M5" s="57"/>
@@ -10908,15 +10910,15 @@
         <v>5443112</v>
       </c>
       <c r="D6" s="259"/>
-      <c r="E6" s="338">
+      <c r="E6" s="337">
         <f>1621300+1907000+3745058</f>
         <v>7273358</v>
       </c>
       <c r="F6" s="259"/>
-      <c r="G6" s="338"/>
+      <c r="G6" s="337"/>
       <c r="H6" s="259"/>
       <c r="I6" s="228"/>
-      <c r="J6" s="288"/>
+      <c r="J6" s="287"/>
       <c r="K6" s="6"/>
       <c r="L6" s="74" t="s">
         <v>270</v>
@@ -10937,7 +10939,7 @@
       <c r="G7" s="73"/>
       <c r="H7" s="261"/>
       <c r="I7" s="73"/>
-      <c r="J7" s="328"/>
+      <c r="J7" s="327"/>
       <c r="K7" s="6"/>
       <c r="L7" s="74"/>
       <c r="M7" s="57"/>
@@ -10956,16 +10958,16 @@
         <v>4511636</v>
       </c>
       <c r="F8" s="262"/>
-      <c r="G8" s="282" t="str">
+      <c r="G8" s="281" t="str">
         <f>IF(G6="","",G6*(1-G9))</f>
         <v/>
       </c>
       <c r="H8" s="262"/>
-      <c r="I8" s="282" t="str">
+      <c r="I8" s="281" t="str">
         <f>IF(I6="","",I6*(1-I9))</f>
         <v/>
       </c>
-      <c r="J8" s="329"/>
+      <c r="J8" s="328"/>
       <c r="K8" s="6"/>
       <c r="L8" s="116"/>
       <c r="M8" s="1"/>
@@ -10987,7 +10989,7 @@
       <c r="G9" s="73"/>
       <c r="H9" s="186"/>
       <c r="I9" s="73"/>
-      <c r="J9" s="330"/>
+      <c r="J9" s="329"/>
       <c r="K9" s="6"/>
       <c r="L9" s="74"/>
     </row>
@@ -11035,7 +11037,7 @@
       <c r="G11" s="65"/>
       <c r="H11" s="189"/>
       <c r="I11" s="65"/>
-      <c r="J11" s="331"/>
+      <c r="J11" s="330"/>
       <c r="K11" s="6"/>
       <c r="L11" s="74"/>
     </row>
@@ -11056,7 +11058,7 @@
       <c r="G12" s="76"/>
       <c r="H12" s="263"/>
       <c r="I12" s="76"/>
-      <c r="J12" s="332"/>
+      <c r="J12" s="331"/>
       <c r="K12" s="6"/>
       <c r="L12" s="74"/>
     </row>
@@ -11108,7 +11110,7 @@
         <f>IF(I7="","",IF(ABS(G15+I15)=ABS(G15)+ABS(I15),IF(I15&lt;0,-1,1)*(I15-G15)/G15,"Turn"))</f>
         <v/>
       </c>
-      <c r="J14" s="333"/>
+      <c r="J14" s="332"/>
       <c r="K14" s="6"/>
       <c r="L14" s="77"/>
       <c r="M14" s="78"/>
@@ -11117,103 +11119,103 @@
       <c r="B15" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="320">
+      <c r="C15" s="319">
         <f>C10-C12</f>
         <v>777915</v>
       </c>
-      <c r="D15" s="321"/>
-      <c r="E15" s="320">
+      <c r="D15" s="320"/>
+      <c r="E15" s="319">
         <f>E10-E12</f>
         <v>1675981</v>
       </c>
-      <c r="F15" s="321"/>
-      <c r="G15" s="320" t="str">
+      <c r="F15" s="320"/>
+      <c r="G15" s="319" t="str">
         <f>IF(G7="","",G10-G12)</f>
         <v/>
       </c>
-      <c r="H15" s="321"/>
-      <c r="I15" s="320" t="str">
+      <c r="H15" s="320"/>
+      <c r="I15" s="319" t="str">
         <f>IF(I7="","",I10-I12)</f>
         <v/>
       </c>
-      <c r="J15" s="334"/>
+      <c r="J15" s="333"/>
       <c r="K15" s="6"/>
       <c r="L15" s="79"/>
       <c r="M15" s="56"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="316" t="s">
+      <c r="B16" s="315" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="317">
+      <c r="C16" s="316">
         <v>0.25</v>
       </c>
-      <c r="D16" s="318"/>
-      <c r="E16" s="319">
+      <c r="D16" s="317"/>
+      <c r="E16" s="318">
         <f>IF(E15="","",C16)</f>
         <v>0.25</v>
       </c>
-      <c r="F16" s="319"/>
-      <c r="G16" s="319" t="str">
+      <c r="F16" s="318"/>
+      <c r="G16" s="318" t="str">
         <f>IF(G15="","",E16)</f>
         <v/>
       </c>
-      <c r="H16" s="319"/>
-      <c r="I16" s="319" t="str">
+      <c r="H16" s="318"/>
+      <c r="I16" s="318" t="str">
         <f>IF(I15="","",G16)</f>
         <v/>
       </c>
-      <c r="J16" s="335"/>
+      <c r="J16" s="334"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="325" t="s">
+      <c r="B17" s="324" t="s">
         <v>307</v>
       </c>
       <c r="C17" s="264">
         <f>C18/C8</f>
         <v>0.15486681325985271</v>
       </c>
-      <c r="D17" s="327"/>
-      <c r="E17" s="326">
+      <c r="D17" s="326"/>
+      <c r="E17" s="325">
         <f>E18/E8</f>
         <v>0.27860974378252146</v>
       </c>
-      <c r="F17" s="326"/>
-      <c r="G17" s="326" t="str">
+      <c r="F17" s="325"/>
+      <c r="G17" s="325" t="str">
         <f>IF(G8="","",G18/G8)</f>
         <v/>
       </c>
-      <c r="H17" s="326"/>
-      <c r="I17" s="326" t="str">
+      <c r="H17" s="325"/>
+      <c r="I17" s="325" t="str">
         <f>IF(I8="","",I18/I8)</f>
         <v/>
       </c>
-      <c r="J17" s="336"/>
+      <c r="J17" s="335"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="322" t="s">
+      <c r="B18" s="321" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="323">
+      <c r="C18" s="322">
         <f>IF(C15&lt;=0,C15,C15*(1-C16))</f>
         <v>583436.25</v>
       </c>
-      <c r="D18" s="323"/>
-      <c r="E18" s="324">
+      <c r="D18" s="322"/>
+      <c r="E18" s="323">
         <f>IF(E15="","",IF(E15&lt;=0,E15,E15*(1-E16)))</f>
         <v>1256985.75</v>
       </c>
-      <c r="F18" s="323"/>
-      <c r="G18" s="324" t="str">
+      <c r="F18" s="322"/>
+      <c r="G18" s="323" t="str">
         <f>IF(G15="","",IF(G15&lt;=0,G15,G15*(1-G16)))</f>
         <v/>
       </c>
-      <c r="H18" s="323"/>
-      <c r="I18" s="324" t="str">
+      <c r="H18" s="322"/>
+      <c r="I18" s="323" t="str">
         <f>IF(I15="","",IF(I15&lt;=0,I15,I15*(1-I16)))</f>
         <v/>
       </c>
-      <c r="J18" s="337"/>
+      <c r="J18" s="336"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12167,19 +12169,19 @@
       <c r="B2" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="286">
+      <c r="D2" s="285">
         <v>1</v>
       </c>
-      <c r="E2" s="286">
+      <c r="E2" s="285">
         <v>2</v>
       </c>
-      <c r="F2" s="286">
+      <c r="F2" s="285">
         <v>3</v>
       </c>
-      <c r="G2" s="286" t="str">
+      <c r="G2" s="285" t="str">
         <f>B24</f>
         <v>Exit after Year 1</v>
       </c>
@@ -12191,19 +12193,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C3" s="278">
+      <c r="C3" s="277">
         <f>Operation!C3</f>
-        <v>44561</v>
-      </c>
-      <c r="D3" s="278">
+        <v>44926</v>
+      </c>
+      <c r="D3" s="277">
         <f>Operation!E3</f>
-        <v>44926</v>
-      </c>
-      <c r="E3" s="278" t="str">
+        <v>45291</v>
+      </c>
+      <c r="E3" s="277" t="str">
         <f>Operation!G3</f>
         <v/>
       </c>
-      <c r="F3" s="278" t="str">
+      <c r="F3" s="277" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
@@ -12234,7 +12236,7 @@
         <f>Operation!I18</f>
         <v/>
       </c>
-      <c r="G4" s="304">
+      <c r="G4" s="303">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>1</v>
       </c>
@@ -12275,7 +12277,7 @@
         <v>0.38619999999999999</v>
       </c>
       <c r="E6" s="65"/>
-      <c r="F6" s="309"/>
+      <c r="F6" s="308"/>
       <c r="G6" s="199"/>
       <c r="H6" s="6"/>
       <c r="I6" s="77"/>
@@ -12284,16 +12286,16 @@
       <c r="B7" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="310">
+      <c r="C7" s="309">
         <f>C4*C6</f>
         <v>225323.07975</v>
       </c>
-      <c r="D7" s="310">
+      <c r="D7" s="309">
         <f>D4*D6</f>
         <v>485447.89665000001</v>
       </c>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
       <c r="G7" s="200"/>
       <c r="H7" s="82"/>
       <c r="I7" s="56"/>
@@ -12335,19 +12337,19 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>4.5255144288534596E-2</v>
       </c>
-      <c r="D9" s="306">
+      <c r="D9" s="305">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>9.7500063605718501E-2</v>
       </c>
-      <c r="E9" s="306" t="str">
+      <c r="E9" s="305" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="F9" s="306" t="str">
+      <c r="F9" s="305" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="307">
+      <c r="G9" s="306">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>9.7500063605718501E-2</v>
       </c>
@@ -12359,16 +12361,16 @@
       <c r="B10" s="234" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="312">
+      <c r="C10" s="311">
         <f>C11/C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="312">
+      <c r="D10" s="311">
         <f>D11/D9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="344"/>
-      <c r="F10" s="344"/>
+      <c r="E10" s="343"/>
+      <c r="F10" s="343"/>
       <c r="G10" s="235"/>
       <c r="H10" s="82"/>
       <c r="I10" s="56"/>
@@ -12378,15 +12380,15 @@
       <c r="B11" s="234" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="284">
+      <c r="C11" s="283">
         <v>0</v>
       </c>
-      <c r="D11" s="285">
+      <c r="D11" s="284">
         <v>0</v>
       </c>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="283"/>
+      <c r="E11" s="344"/>
+      <c r="F11" s="344"/>
+      <c r="G11" s="282"/>
       <c r="H11" s="82"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -12401,8 +12403,8 @@
       <c r="D12" s="236">
         <v>0</v>
       </c>
-      <c r="E12" s="346"/>
-      <c r="F12" s="346"/>
+      <c r="E12" s="345"/>
+      <c r="F12" s="345"/>
       <c r="G12" s="230">
         <f>G9*D27</f>
         <v>5.3625034983145179</v>
@@ -12557,7 +12559,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.0987246696126012</v>
       </c>
-      <c r="E20" s="455" t="str">
+      <c r="E20" s="454" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12580,7 +12582,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-1.239882796949497</v>
       </c>
-      <c r="E21" s="455"/>
+      <c r="E21" s="454"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>0.95991278040655081</v>
@@ -12602,11 +12604,11 @@
         <f>B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="E23" s="459" t="s">
+      <c r="E23" s="458" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="459"/>
-      <c r="G23" s="459"/>
+      <c r="F23" s="458"/>
+      <c r="G23" s="458"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12619,7 +12621,7 @@
       <c r="D24" s="202" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="305" t="s">
+      <c r="E24" s="304" t="s">
         <v>228</v>
       </c>
       <c r="F24" s="265" t="s">
@@ -12640,14 +12642,14 @@
         <f>1/D25</f>
         <v>0.05</v>
       </c>
-      <c r="D25" s="298">
+      <c r="D25" s="297">
         <v>20</v>
       </c>
       <c r="E25" s="206">
         <f ca="1">G9*D25/G14</f>
         <v>1.6233560592885623</v>
       </c>
-      <c r="F25" s="456">
+      <c r="F25" s="455">
         <f ca="1">SUM(C15:F15)</f>
         <v>8.8959912049013226E-2</v>
       </c>
@@ -12661,19 +12663,19 @@
       <c r="B26" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="350">
+      <c r="C26" s="349">
         <f>1/D26</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="D26" s="351">
+      <c r="D26" s="350">
         <v>45</v>
       </c>
-      <c r="E26" s="352">
+      <c r="E26" s="351">
         <f ca="1">G9*D26/G14</f>
         <v>3.6525511333992653</v>
       </c>
-      <c r="F26" s="457"/>
-      <c r="G26" s="352">
+      <c r="F26" s="456"/>
+      <c r="G26" s="351">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>3.447397142838577</v>
       </c>
@@ -12682,21 +12684,21 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="302" t="s">
+      <c r="B27" s="301" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="303">
+      <c r="C27" s="302">
         <f t="shared" ref="C27" si="0">1/D27</f>
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="D27" s="315">
+      <c r="D27" s="314">
         <v>55</v>
       </c>
       <c r="E27" s="207">
         <f ca="1">G9*D27/G14</f>
         <v>4.4642291630435462</v>
       </c>
-      <c r="F27" s="458"/>
+      <c r="F27" s="457"/>
       <c r="G27" s="207">
         <f ca="1">$F$25+E27+$G$19</f>
         <v>4.2590751724828584</v>
@@ -12760,10 +12762,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="453" t="s">
+      <c r="C32" s="452" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="454"/>
+      <c r="D32" s="453"/>
       <c r="E32" s="30" t="s">
         <v>219</v>
       </c>
@@ -12817,7 +12819,7 @@
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>1.4893916835546928</v>
       </c>
-      <c r="G34" s="281">
+      <c r="G34" s="280">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
@@ -13872,7 +13874,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="295"/>
+      <c r="G10" s="294"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="99" t="s">
@@ -13880,7 +13882,7 @@
       </c>
       <c r="C11" s="93"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="295"/>
+      <c r="G11" s="294"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
@@ -13894,7 +13896,7 @@
         <v>156</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="295" t="s">
+      <c r="G12" s="294" t="s">
         <v>319</v>
       </c>
     </row>
@@ -13910,7 +13912,7 @@
         <v>165</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="295"/>
+      <c r="G13" s="294"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
@@ -13924,7 +13926,7 @@
         <v>165</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="295"/>
+      <c r="G14" s="294"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
@@ -13938,7 +13940,7 @@
         <v>178</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="295"/>
+      <c r="G15" s="294"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
@@ -13952,7 +13954,7 @@
         <v>156</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="295"/>
+      <c r="G16" s="294"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="99" t="s">
@@ -13960,7 +13962,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="295"/>
+      <c r="G17" s="294"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -13975,7 +13977,7 @@
         <v>agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="295"/>
+      <c r="G18" s="294"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
@@ -13989,7 +13991,7 @@
         <v>156</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="295" t="s">
+      <c r="G19" s="294" t="s">
         <v>320</v>
       </c>
     </row>
@@ -14005,7 +14007,7 @@
         <v>178</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="295"/>
+      <c r="G20" s="294"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
@@ -14019,7 +14021,7 @@
         <v>165</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="295"/>
+      <c r="G21" s="294"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -14033,7 +14035,7 @@
         <v>156</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="295"/>
+      <c r="G22" s="294"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="99" t="s">
@@ -14041,7 +14043,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="295"/>
+      <c r="G23" s="294"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -14055,7 +14057,7 @@
         <v>155</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="295" t="s">
+      <c r="G24" s="294" t="s">
         <v>321</v>
       </c>
     </row>
@@ -14071,7 +14073,7 @@
         <v>156</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="295" t="s">
+      <c r="G25" s="294" t="s">
         <v>322</v>
       </c>
     </row>
@@ -14087,7 +14089,7 @@
         <v>155</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="295"/>
+      <c r="G26" s="294"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
@@ -14101,7 +14103,7 @@
         <v>155</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="295"/>
+      <c r="G27" s="294"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
@@ -14115,7 +14117,7 @@
         <v>155</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="295"/>
+      <c r="G28" s="294"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="99" t="s">
@@ -14123,7 +14125,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="295"/>
+      <c r="G29" s="294"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -14138,7 +14140,7 @@
         <v>Very Low</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="295"/>
+      <c r="G30" s="294"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
@@ -14152,7 +14154,7 @@
         <v>178</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="295"/>
+      <c r="G31" s="294"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
@@ -14166,7 +14168,7 @@
         <v>178</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="295"/>
+      <c r="G32" s="294"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
@@ -14180,7 +14182,7 @@
         <v>178</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="295"/>
+      <c r="G33" s="294"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
@@ -14194,7 +14196,7 @@
         <v>178</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="295"/>
+      <c r="G34" s="294"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
@@ -14207,7 +14209,7 @@
       <c r="E35" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="295"/>
+      <c r="G35" s="294"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -14222,7 +14224,7 @@
         <v>Very High</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="295"/>
+      <c r="G36" s="294"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
@@ -14236,7 +14238,7 @@
         <v>165</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="295"/>
+      <c r="G37" s="294"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
@@ -14250,7 +14252,7 @@
         <v>165</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="295"/>
+      <c r="G38" s="294"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
@@ -14264,7 +14266,7 @@
         <v>165</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="295"/>
+      <c r="G39" s="294"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
@@ -14278,7 +14280,7 @@
         <v>165</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="295"/>
+      <c r="G40" s="294"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
@@ -14291,7 +14293,7 @@
       <c r="E41" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="295"/>
+      <c r="G41" s="294"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -14306,7 +14308,7 @@
         <v>Low</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="295"/>
+      <c r="G42" s="294"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
@@ -14320,7 +14322,7 @@
         <v>165</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="295"/>
+      <c r="G43" s="294"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
@@ -14334,7 +14336,7 @@
         <v>178</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="295"/>
+      <c r="G44" s="294"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
@@ -14348,7 +14350,7 @@
         <v>178</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="295"/>
+      <c r="G45" s="294"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
@@ -14362,7 +14364,7 @@
         <v>163</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="295" t="s">
+      <c r="G46" s="294" t="s">
         <v>323</v>
       </c>
     </row>
@@ -14378,7 +14380,7 @@
         <v>156</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="295"/>
+      <c r="G47" s="294"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
@@ -14392,7 +14394,7 @@
         <v>178</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="295"/>
+      <c r="G48" s="294"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -14407,7 +14409,7 @@
         <v>Low</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="295"/>
+      <c r="G49" s="294"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
@@ -14420,7 +14422,7 @@
       <c r="E50" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G50" s="295"/>
+      <c r="G50" s="294"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
@@ -14434,7 +14436,7 @@
         <v>178</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="295"/>
+      <c r="G51" s="294"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
@@ -14447,7 +14449,7 @@
       <c r="E52" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="295"/>
+      <c r="G52" s="294"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
@@ -14461,7 +14463,7 @@
         <v>178</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="295"/>
+      <c r="G53" s="294"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14476,7 +14478,7 @@
         <v>276</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="295"/>
+      <c r="G54" s="294"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14492,7 +14494,7 @@
         <v>Medium</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="295"/>
+      <c r="G55" s="294"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14507,7 +14509,7 @@
         <v>155</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="295"/>
+      <c r="G56" s="294"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14522,7 +14524,7 @@
         <v>178</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="295"/>
+      <c r="G57" s="294"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14537,7 +14539,7 @@
         <v>178</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="295"/>
+      <c r="G58" s="294"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14552,7 +14554,7 @@
         <v>165</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="295"/>
+      <c r="G59" s="294"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14567,7 +14569,7 @@
         <v>165</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="295"/>
+      <c r="G60" s="294"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14582,7 +14584,7 @@
         <v>277</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="295"/>
+      <c r="G61" s="294"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14598,12 +14600,12 @@
         <v>Low</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="295"/>
+      <c r="G62" s="294"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="295"/>
+      <c r="G63" s="294"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="97" t="s">
@@ -14617,10 +14619,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.62807823129251705</v>
       </c>
-      <c r="G64" s="295"/>
+      <c r="G64" s="294"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="296"/>
+      <c r="G65" s="295"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">

--- a/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58228DDD-5223-43B9-841E-44EA28D9BEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760F0562-14E9-468B-86EB-9A42157E440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3908,179 +3908,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4103,9 +3930,182 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4529,8 +4529,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4574,27 +4574,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="398" t="s">
+      <c r="C3" s="393" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="399"/>
+      <c r="D3" s="394"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="408" t="s">
+      <c r="I3" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="409"/>
+      <c r="J3" s="406"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="400" t="s">
+      <c r="C4" s="395" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="401"/>
+      <c r="D4" s="396"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4611,10 +4611,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="402">
+      <c r="C5" s="397">
         <v>44987</v>
       </c>
-      <c r="D5" s="401"/>
+      <c r="D5" s="396"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4622,10 +4622,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="410">
+      <c r="I5" s="389">
         <v>7913203590</v>
       </c>
-      <c r="J5" s="411"/>
+      <c r="J5" s="390"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4648,11 +4648,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="412">
+      <c r="I6" s="407">
         <f>I4*I5/1000000</f>
         <v>161825.0134155</v>
       </c>
-      <c r="J6" s="413"/>
+      <c r="J6" s="408"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4726,30 +4726,30 @@
       <c r="B11" s="312" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="422">
+      <c r="C11" s="419">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="423"/>
+      <c r="D11" s="420"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="420" t="s">
+      <c r="I11" s="417" t="s">
         <v>311</v>
       </c>
-      <c r="J11" s="421"/>
+      <c r="J11" s="418"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="313" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="376">
+      <c r="C12" s="421">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="377"/>
+      <c r="D12" s="422"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4820,14 +4820,14 @@
         <f>I4</f>
         <v>20.45</v>
       </c>
-      <c r="C16" s="386">
+      <c r="C16" s="428">
         <v>0.1</v>
       </c>
       <c r="D16" s="159" t="e">
         <f ca="1">H14/B16-1-C16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E16" s="381">
+      <c r="E16" s="425">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -4835,14 +4835,14 @@
         <f>E16/B16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="389" t="s">
+      <c r="G16" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="414">
+      <c r="H16" s="409">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>-6.8220301641242171</v>
       </c>
-      <c r="I16" s="389" t="s">
+      <c r="I16" s="412" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4855,19 +4855,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C17" s="387"/>
+      <c r="C17" s="429"/>
       <c r="D17" s="288" t="e">
         <f ca="1">H14/B17-1-C16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E17" s="382"/>
+      <c r="E17" s="426"/>
       <c r="F17" s="162" t="e">
         <f ca="1">E16/B17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="390"/>
-      <c r="H17" s="415"/>
-      <c r="I17" s="390"/>
+      <c r="G17" s="413"/>
+      <c r="H17" s="410"/>
+      <c r="I17" s="413"/>
       <c r="J17" s="205" t="e">
         <f ca="1">B17-$H$16</f>
         <v>#VALUE!</v>
@@ -4878,19 +4878,19 @@
         <f>C35</f>
         <v>15</v>
       </c>
-      <c r="C18" s="388"/>
+      <c r="C18" s="430"/>
       <c r="D18" s="160" t="e">
         <f ca="1">H14/B18-1-C16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E18" s="383"/>
+      <c r="E18" s="427"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="391"/>
-      <c r="H18" s="416"/>
-      <c r="I18" s="391"/>
+      <c r="G18" s="414"/>
+      <c r="H18" s="411"/>
+      <c r="I18" s="414"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>21.822030164124218</v>
@@ -4924,42 +4924,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="405"/>
-      <c r="D21" s="406"/>
-      <c r="E21" s="406"/>
-      <c r="F21" s="406"/>
-      <c r="G21" s="406"/>
-      <c r="H21" s="406"/>
-      <c r="I21" s="406"/>
-      <c r="J21" s="407"/>
+      <c r="C21" s="400"/>
+      <c r="D21" s="401"/>
+      <c r="E21" s="401"/>
+      <c r="F21" s="401"/>
+      <c r="G21" s="401"/>
+      <c r="H21" s="401"/>
+      <c r="I21" s="401"/>
+      <c r="J21" s="402"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="418"/>
-      <c r="D22" s="419"/>
-      <c r="E22" s="419"/>
-      <c r="F22" s="419"/>
-      <c r="G22" s="418"/>
-      <c r="H22" s="418"/>
-      <c r="I22" s="419"/>
-      <c r="J22" s="419"/>
+      <c r="C22" s="416"/>
+      <c r="D22" s="381"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="381"/>
+      <c r="G22" s="416"/>
+      <c r="H22" s="416"/>
+      <c r="I22" s="381"/>
+      <c r="J22" s="381"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="384"/>
-      <c r="D23" s="385"/>
-      <c r="E23" s="385"/>
-      <c r="F23" s="385"/>
-      <c r="G23" s="384"/>
-      <c r="H23" s="384"/>
-      <c r="I23" s="385"/>
-      <c r="J23" s="385"/>
+      <c r="C23" s="403"/>
+      <c r="D23" s="404"/>
+      <c r="E23" s="404"/>
+      <c r="F23" s="404"/>
+      <c r="G23" s="403"/>
+      <c r="H23" s="403"/>
+      <c r="I23" s="404"/>
+      <c r="J23" s="404"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5003,206 +5003,206 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="403">
+      <c r="C26" s="398">
         <v>44987</v>
       </c>
-      <c r="D26" s="404"/>
-      <c r="E26" s="395" t="str">
+      <c r="D26" s="399"/>
+      <c r="E26" s="434" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="396"/>
-      <c r="G26" s="396"/>
-      <c r="H26" s="397"/>
-      <c r="I26" s="417" t="s">
+      <c r="F26" s="435"/>
+      <c r="G26" s="435"/>
+      <c r="H26" s="436"/>
+      <c r="I26" s="415" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="417"/>
+      <c r="J26" s="415"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="380">
+      <c r="C27" s="424">
         <f>C31/D25</f>
         <v>5.5E-2</v>
       </c>
       <c r="D27" s="379"/>
-      <c r="E27" s="378">
+      <c r="E27" s="423">
         <f>E31/D25</f>
         <v>2.75E-2</v>
       </c>
       <c r="F27" s="379"/>
-      <c r="G27" s="393">
+      <c r="G27" s="432">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="394"/>
-      <c r="I27" s="392">
+      <c r="H27" s="433"/>
+      <c r="I27" s="431">
         <f>C27+E27+G27</f>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="J27" s="392"/>
+      <c r="J27" s="431"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="369">
+      <c r="C28" s="380">
         <v>2000</v>
       </c>
-      <c r="D28" s="419"/>
-      <c r="E28" s="369">
+      <c r="D28" s="381"/>
+      <c r="E28" s="380">
         <v>1000</v>
       </c>
-      <c r="F28" s="419"/>
-      <c r="G28" s="410"/>
-      <c r="H28" s="411"/>
-      <c r="I28" s="434">
+      <c r="F28" s="381"/>
+      <c r="G28" s="389"/>
+      <c r="H28" s="390"/>
+      <c r="I28" s="369">
         <f>C28+E28+G28</f>
         <v>3000</v>
       </c>
-      <c r="J28" s="434"/>
+      <c r="J28" s="369"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="444">
+      <c r="C29" s="382">
         <v>16.5</v>
       </c>
-      <c r="D29" s="419"/>
-      <c r="E29" s="444">
+      <c r="D29" s="381"/>
+      <c r="E29" s="382">
         <v>16.5</v>
       </c>
-      <c r="F29" s="419"/>
-      <c r="G29" s="424"/>
-      <c r="H29" s="425"/>
-      <c r="I29" s="430"/>
-      <c r="J29" s="430"/>
+      <c r="F29" s="381"/>
+      <c r="G29" s="383"/>
+      <c r="H29" s="384"/>
+      <c r="I29" s="391"/>
+      <c r="J29" s="391"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="432">
+      <c r="C30" s="367">
         <f>C29*$I$5/1000000</f>
         <v>130567.859235</v>
       </c>
-      <c r="D30" s="439"/>
-      <c r="E30" s="432">
+      <c r="D30" s="374"/>
+      <c r="E30" s="367">
         <f>E29*$I$5/1000000</f>
         <v>130567.859235</v>
       </c>
-      <c r="F30" s="439"/>
-      <c r="G30" s="426">
+      <c r="F30" s="374"/>
+      <c r="G30" s="385">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="427"/>
-      <c r="I30" s="431"/>
-      <c r="J30" s="431"/>
+      <c r="H30" s="386"/>
+      <c r="I30" s="392"/>
+      <c r="J30" s="392"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="440">
+      <c r="C31" s="375">
         <f>C28*C29</f>
         <v>33000</v>
       </c>
-      <c r="D31" s="441"/>
-      <c r="E31" s="433">
+      <c r="D31" s="376"/>
+      <c r="E31" s="368">
         <f>E28*E29</f>
         <v>16500</v>
       </c>
-      <c r="F31" s="442"/>
-      <c r="G31" s="428">
+      <c r="F31" s="377"/>
+      <c r="G31" s="387">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="429"/>
-      <c r="I31" s="433">
+      <c r="H31" s="388"/>
+      <c r="I31" s="368">
         <f>C31+E31+G31</f>
         <v>49500</v>
       </c>
-      <c r="J31" s="433"/>
+      <c r="J31" s="368"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="435"/>
-      <c r="D32" s="436"/>
-      <c r="E32" s="443">
+      <c r="C32" s="370"/>
+      <c r="D32" s="371"/>
+      <c r="E32" s="378">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>16.5</v>
       </c>
       <c r="F32" s="379"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="443">
+      <c r="I32" s="378">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>16.5</v>
       </c>
-      <c r="J32" s="443"/>
+      <c r="J32" s="378"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="437"/>
-      <c r="D33" s="438"/>
-      <c r="E33" s="432">
+      <c r="C33" s="372"/>
+      <c r="D33" s="373"/>
+      <c r="E33" s="367">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>130567.859235</v>
       </c>
-      <c r="F33" s="439"/>
+      <c r="F33" s="374"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="432">
+      <c r="I33" s="367">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>130567.859235</v>
       </c>
-      <c r="J33" s="432"/>
+      <c r="J33" s="367"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="367">
+      <c r="C35" s="437">
         <v>15</v>
       </c>
-      <c r="D35" s="368"/>
-      <c r="G35" s="371" t="s">
+      <c r="D35" s="438"/>
+      <c r="G35" s="440" t="s">
         <v>328</v>
       </c>
-      <c r="H35" s="372"/>
-      <c r="I35" s="367">
+      <c r="H35" s="441"/>
+      <c r="I35" s="437">
         <f ca="1">F14</f>
         <v>-1.934748458322046</v>
       </c>
-      <c r="J35" s="368"/>
+      <c r="J35" s="438"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="369">
+      <c r="C36" s="380">
         <f>E28</f>
         <v>1000</v>
       </c>
-      <c r="D36" s="370"/>
-      <c r="G36" s="373" t="s">
+      <c r="D36" s="439"/>
+      <c r="G36" s="442" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="373"/>
-      <c r="I36" s="374">
+      <c r="H36" s="442"/>
+      <c r="I36" s="443">
         <f ca="1">I35/C29-1</f>
         <v>-1.1172574823225483</v>
       </c>
-      <c r="J36" s="375"/>
+      <c r="J36" s="444"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -6281,6 +6281,44 @@
     <row r="966" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -6297,44 +6335,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="C35:D36">
@@ -6427,7 +6427,7 @@
   </sheetPr>
   <dimension ref="A1:N941"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -9566,7 +9566,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10597,7 +10597,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>8694432</v>
       </c>
-      <c r="E53" s="441"/>
+      <c r="E53" s="376"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10616,7 +10616,7 @@
       <c r="D54" s="453">
         <v>0</v>
       </c>
-      <c r="E54" s="419"/>
+      <c r="E54" s="381"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10630,7 +10630,7 @@
       <c r="D55" s="453">
         <v>0</v>
       </c>
-      <c r="E55" s="419"/>
+      <c r="E55" s="381"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10713,11 +10713,11 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="374">
+      <c r="D63" s="443">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.64687443506582265</v>
       </c>
-      <c r="E63" s="375"/>
+      <c r="E63" s="444"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
@@ -12151,8 +12151,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>

--- a/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0981.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E63FE3-6C18-4492-ACF5-39C637B07320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A19DBE-E36A-4985-BD37-574BB8D20666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="370">
   <si>
     <t>Company Info:</t>
   </si>
@@ -831,9 +831,6 @@
   </si>
   <si>
     <t>+ ERP</t>
-  </si>
-  <si>
-    <t>NOPAT Growth rate</t>
   </si>
   <si>
     <t>3. Does the company have a stable and durable business?</t>
@@ -1014,18 +1011,12 @@
     <t>Allocation Analysis</t>
   </si>
   <si>
-    <t>80% chance of recession in US, and 50% chance of spilling over</t>
-  </si>
-  <si>
     <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
   </si>
   <si>
     <t>1. The valuation quality rating (proxy of the "Error Term")</t>
   </si>
   <si>
-    <t>60% chance of chinese recession</t>
-  </si>
-  <si>
     <t>A = Upside in event of a win</t>
   </si>
   <si>
@@ -1069,9 +1060,6 @@
   </si>
   <si>
     <t>Ex-post</t>
-  </si>
-  <si>
-    <t>4. The probability of an ex-post recession affecting the company</t>
   </si>
   <si>
     <t>Kelly's Formula: [W – (1 – W)/R] / K, Where K =</t>
@@ -1316,6 +1304,15 @@
       </rPr>
       <t xml:space="preserve"> using DCF Model</t>
     </r>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>Assumes a higher ROE than in the Past given the firm's competitive advantages in bullish scenario</t>
+  </si>
+  <si>
+    <t>4. The Company's Liquidity and leverage rating</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="126">
+  <borders count="127">
     <border>
       <left/>
       <right/>
@@ -3303,13 +3300,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="498">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4101,9 +4109,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4305,6 +4310,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4562,6 +4568,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4972,8 +4990,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:J24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5018,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="431" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D3" s="432"/>
       <c r="E3" s="15"/>
@@ -5035,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="433" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D4" s="434"/>
       <c r="E4" s="6"/>
@@ -5147,14 +5165,14 @@
         <v>241</v>
       </c>
       <c r="C10" s="268" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D10" s="268">
         <v>3.6810000000000002E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I10" s="130">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
@@ -5180,7 +5198,7 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="453" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J11" s="454"/>
     </row>
@@ -5211,20 +5229,20 @@
       <c r="B14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="332" t="s">
-        <v>297</v>
+      <c r="C14" s="331" t="s">
+        <v>294</v>
       </c>
       <c r="D14" s="228"/>
       <c r="E14" s="183">
-        <f ca="1">'Val Models'!C44</f>
-        <v>6.3949079349960645</v>
+        <f ca="1">'Val Models'!C45</f>
+        <v>12.894858976534021</v>
       </c>
       <c r="F14" s="176"/>
       <c r="G14" s="177"/>
-      <c r="H14" s="332" t="s">
-        <v>345</v>
-      </c>
-      <c r="I14" s="385">
+      <c r="H14" s="331" t="s">
+        <v>341</v>
+      </c>
+      <c r="I14" s="384">
         <v>0.25</v>
       </c>
       <c r="J14" s="125"/>
@@ -5236,7 +5254,7 @@
         <v>(in HKD)</v>
       </c>
       <c r="C15" s="215" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D15" s="85" t="s">
         <v>17</v>
@@ -5245,11 +5263,11 @@
       <c r="F15" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="337" t="s">
+      <c r="H15" s="336" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="85" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J15" s="85" t="s">
         <v>18</v>
@@ -5265,19 +5283,19 @@
       </c>
       <c r="D16" s="151">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-0.21946444966641399</v>
+        <v>-0.19865670743320929</v>
       </c>
       <c r="E16" s="418" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="445">
-        <f>('Val Models'!G16)*Exchange_Rate</f>
+        <f>('Val Models'!G17)*Exchange_Rate</f>
         <v>-5.2984304315196171</v>
       </c>
       <c r="G16" s="418" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="338">
+      <c r="H16" s="337">
         <f>B16-$F$16</f>
         <v>23.818430431519616</v>
       </c>
@@ -5292,19 +5310,19 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="258">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(D20&lt;&gt;"Fast Growers",E14,I37/(1+C16)))</f>
-        <v>11.637722370087431</v>
+        <v>14.430382479782089</v>
       </c>
       <c r="C17" s="428"/>
       <c r="D17" s="257">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>0.36040140971687262</v>
+        <v>8.5127251777251889E-2</v>
       </c>
       <c r="E17" s="419"/>
       <c r="F17" s="446"/>
       <c r="G17" s="419"/>
-      <c r="H17" s="339">
+      <c r="H17" s="338">
         <f ca="1">B17-$F$16</f>
-        <v>16.936152801607047</v>
+        <v>19.728812911301706</v>
       </c>
       <c r="I17" s="414"/>
       <c r="J17" s="154">
@@ -5315,19 +5333,19 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="312">
         <f>C37</f>
-        <v>10</v>
+        <v>13.8</v>
       </c>
       <c r="C18" s="429"/>
       <c r="D18" s="152">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.61595183921780117</v>
+        <v>0.1438317230678956</v>
       </c>
       <c r="E18" s="420"/>
       <c r="F18" s="447"/>
       <c r="G18" s="420"/>
-      <c r="H18" s="340">
+      <c r="H18" s="339">
         <f>B18-$F$16</f>
-        <v>15.298430431519616</v>
+        <v>19.098430431519617</v>
       </c>
       <c r="I18" s="415"/>
       <c r="J18" s="155">
@@ -5348,7 +5366,7 @@
         <v>225</v>
       </c>
       <c r="D20" s="259" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E20" s="239" t="s">
         <v>234</v>
@@ -5402,7 +5420,7 @@
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C24" s="455"/>
       <c r="D24" s="456"/>
@@ -5415,8 +5433,8 @@
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="345" t="s">
-        <v>310</v>
+      <c r="B25" s="344" t="s">
+        <v>306</v>
       </c>
       <c r="C25" s="458"/>
       <c r="D25" s="459"/>
@@ -5452,11 +5470,11 @@
       <c r="E27" s="12"/>
       <c r="F27" s="8"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="342" t="s">
-        <v>305</v>
+      <c r="H27" s="341" t="s">
+        <v>301</v>
       </c>
       <c r="I27" s="29"/>
-      <c r="J27" s="386">
+      <c r="J27" s="385">
         <f>C16</f>
         <v>0.2</v>
       </c>
@@ -5485,7 +5503,7 @@
       </c>
       <c r="C29" s="412">
         <f>C33/D27</f>
-        <v>6.0606060606060608E-2</v>
+        <v>0.16309090909090909</v>
       </c>
       <c r="D29" s="403"/>
       <c r="E29" s="411">
@@ -5500,7 +5518,7 @@
       <c r="H29" s="423"/>
       <c r="I29" s="421">
         <f>C29+E29+G29</f>
-        <v>6.0606060606060608E-2</v>
+        <v>0.16309090909090909</v>
       </c>
       <c r="J29" s="421"/>
     </row>
@@ -5509,7 +5527,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="393">
-        <v>4000</v>
+        <v>7800</v>
       </c>
       <c r="D30" s="394"/>
       <c r="E30" s="393"/>
@@ -5518,7 +5536,7 @@
       <c r="H30" s="407"/>
       <c r="I30" s="430">
         <f>C30+E30+G30</f>
-        <v>4000</v>
+        <v>7800</v>
       </c>
       <c r="J30" s="430"/>
     </row>
@@ -5527,7 +5545,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="395">
-        <v>10</v>
+        <v>13.8</v>
       </c>
       <c r="D31" s="394"/>
       <c r="E31" s="395"/>
@@ -5543,7 +5561,7 @@
       </c>
       <c r="C32" s="396">
         <f>C31*$I$5/1000000</f>
-        <v>59685.299200000001</v>
+        <v>82365.712895999997</v>
       </c>
       <c r="D32" s="397"/>
       <c r="E32" s="396">
@@ -5565,7 +5583,7 @@
       </c>
       <c r="C33" s="398">
         <f>C30*C31</f>
-        <v>40000</v>
+        <v>107640</v>
       </c>
       <c r="D33" s="399"/>
       <c r="E33" s="400">
@@ -5580,7 +5598,7 @@
       <c r="H33" s="471"/>
       <c r="I33" s="400">
         <f>C33+E33+G33</f>
-        <v>40000</v>
+        <v>107640</v>
       </c>
       <c r="J33" s="400"/>
     </row>
@@ -5592,14 +5610,14 @@
       <c r="D34" s="474"/>
       <c r="E34" s="402">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>10</v>
+        <v>13.8</v>
       </c>
       <c r="F34" s="403"/>
       <c r="G34" s="112"/>
       <c r="H34" s="112"/>
       <c r="I34" s="402">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>10</v>
+        <v>13.8</v>
       </c>
       <c r="J34" s="402"/>
     </row>
@@ -5611,25 +5629,25 @@
       <c r="D35" s="476"/>
       <c r="E35" s="396">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>59685.299200000001</v>
+        <v>82365.712895999997</v>
       </c>
       <c r="F35" s="397"/>
       <c r="G35" s="113"/>
       <c r="H35" s="113"/>
       <c r="I35" s="396">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>59685.299200000001</v>
+        <v>82365.712895999997</v>
       </c>
       <c r="J35" s="396"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C37" s="464">
         <f>C31</f>
-        <v>10</v>
+        <v>13.8</v>
       </c>
       <c r="D37" s="465"/>
       <c r="E37" s="148" t="str">
@@ -5637,38 +5655,38 @@
         <v/>
       </c>
       <c r="G37" s="461" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H37" s="461"/>
       <c r="I37" s="462">
-        <f ca="1">'Val Models'!C46</f>
-        <v>18.159518392178011</v>
+        <f ca="1">'Val Models'!C47</f>
+        <v>18.544877778336961</v>
       </c>
       <c r="J37" s="463"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="138" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C38" s="464">
         <f>E34</f>
-        <v>10</v>
+        <v>13.8</v>
       </c>
       <c r="D38" s="465"/>
       <c r="G38" s="466" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H38" s="467"/>
       <c r="I38" s="462">
-        <f ca="1">'Val Models'!C47</f>
-        <v>5.1159263479968518</v>
+        <f ca="1">'Val Models'!C48</f>
+        <v>10.315887181227216</v>
       </c>
       <c r="J38" s="463"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G40" s="308" t="s">
         <v>128</v>
@@ -5680,7 +5698,7 @@
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F41" s="199">
         <f>'Qualitative Analysis'!E8</f>
@@ -5693,7 +5711,7 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F42" s="199">
         <f>80%-(5%*IF(LEFT(D20,2)="St",2,IF(LEFT(D20,2)="Sl",3,IF(LEFT(D20,2)="Cy",4,IF(LEFT(D20,2)="Tu",5,IF(LEFT(D20,2)="Fa",6,0))))))</f>
@@ -5706,30 +5724,26 @@
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F43" s="318">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.48357142857142854</v>
       </c>
-      <c r="G43" s="320" t="s">
-        <v>283</v>
-      </c>
+      <c r="G43" s="320"/>
       <c r="H43" s="111"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F44" s="321">
-        <f>AVERAGE(80%*0.5,0.6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="72" t="s">
-        <v>286</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="F44" s="497">
+        <f>AVERAGE(Asset_Model!J26/4,1-Asset_Model!I53)</f>
+        <v>0.75899714274494179</v>
+      </c>
+      <c r="G44" s="72"/>
       <c r="H44" s="72"/>
       <c r="I44" s="72"/>
       <c r="J44" s="72"/>
@@ -5742,80 +5756,80 @@
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
       <c r="E46" s="247" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F46" s="247" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E47" s="318">
         <f ca="1">I37/C31-1</f>
-        <v>0.81595183921780112</v>
+        <v>0.34383172306789556</v>
       </c>
       <c r="F47" s="318">
         <f ca="1">I37/C38-1</f>
-        <v>0.81595183921780112</v>
-      </c>
-      <c r="J47" s="343"/>
+        <v>0.34383172306789556</v>
+      </c>
+      <c r="J47" s="342"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E48" s="318">
-        <f ca="1">'Val Models'!C47/C31-1</f>
-        <v>-0.4884073652003148</v>
+        <f ca="1">'Val Models'!C48/C31-1</f>
+        <v>-0.25247194338933221</v>
       </c>
       <c r="F48" s="318">
-        <f ca="1">'Val Models'!C47/C38-1</f>
-        <v>-0.4884073652003148</v>
+        <f ca="1">'Val Models'!C48/C38-1</f>
+        <v>-0.25247194338933221</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E50" s="336">
-        <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44))-(MAX(0,1-E51))</f>
-        <v>0.46589285714285711</v>
+        <v>287</v>
+      </c>
+      <c r="E50" s="335">
+        <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*E51))</f>
+        <v>0.56069982605537894</v>
       </c>
       <c r="F50" s="318">
-        <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44))-(MAX(0,1-F51))</f>
-        <v>0.46589285714285711</v>
+        <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*F51))</f>
+        <v>0.56069982605537894</v>
       </c>
       <c r="G50" s="72"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D51" s="315"/>
       <c r="E51" s="317">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>1.6706378678035447</v>
+        <v>1.3618611179210482</v>
       </c>
       <c r="F51" s="317">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>1.6706378678035447</v>
+        <v>1.3618611179210482</v>
       </c>
       <c r="G51" s="72"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E52" s="341">
+        <v>299</v>
+      </c>
+      <c r="E52" s="340">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F52" s="341">
+        <v>1.4541997333424244</v>
+      </c>
+      <c r="F52" s="340">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)</f>
-        <v>1</v>
+        <v>1.4541997333424244</v>
       </c>
       <c r="G52" s="319"/>
       <c r="H52" s="82"/>
@@ -5823,18 +5837,18 @@
     </row>
     <row r="53" spans="2:9" ht="15.75" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E53" s="316">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.1461903332443924</v>
+        <v>0.16375083733884022</v>
       </c>
       <c r="F53" s="316">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.1461903332443924</v>
+        <v>0.16375083733884022</v>
       </c>
       <c r="G53" s="319" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H53" s="76">
         <v>0.4</v>
@@ -5843,38 +5857,38 @@
     <row r="54" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:9" ht="15.75" customHeight="1">
       <c r="B55" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B56" s="344" t="s">
-        <v>295</v>
+      <c r="B56" s="343" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="344" t="s">
-        <v>296</v>
+      <c r="B60" s="343" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1">
       <c r="B62" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
@@ -6909,7 +6923,7 @@
       <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6942,8 +6956,8 @@
   </sheetPr>
   <dimension ref="A1:N947"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -8132,7 +8146,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="224" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C35" s="216">
         <f t="shared" ref="C35:M35" si="12">IF(C34="","",C34/C16)</f>
@@ -8630,68 +8644,68 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="352" t="s">
-        <v>312</v>
-      </c>
-      <c r="C47" s="346"/>
-      <c r="D47" s="346"/>
-      <c r="E47" s="346"/>
-      <c r="F47" s="346"/>
-      <c r="G47" s="346"/>
-      <c r="H47" s="346"/>
-      <c r="I47" s="346"/>
-      <c r="J47" s="346"/>
-      <c r="K47" s="346"/>
-      <c r="L47" s="346"/>
-      <c r="M47" s="346"/>
+      <c r="B47" s="351" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" s="345"/>
+      <c r="D47" s="345"/>
+      <c r="E47" s="345"/>
+      <c r="F47" s="345"/>
+      <c r="G47" s="345"/>
+      <c r="H47" s="345"/>
+      <c r="I47" s="345"/>
+      <c r="J47" s="345"/>
+      <c r="K47" s="345"/>
+      <c r="L47" s="345"/>
+      <c r="M47" s="345"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="160" t="s">
-        <v>313</v>
-      </c>
-      <c r="C48" s="349">
+        <v>309</v>
+      </c>
+      <c r="C48" s="348">
         <f>C13</f>
         <v>0.30716303666954292</v>
       </c>
-      <c r="D48" s="349">
+      <c r="D48" s="348">
         <f>D13</f>
         <v>0.25213976857356601</v>
       </c>
-      <c r="E48" s="349">
+      <c r="E48" s="348">
         <f t="shared" ref="E48:M48" si="20">E13</f>
         <v>0.15998848213771524</v>
       </c>
-      <c r="F48" s="349">
+      <c r="F48" s="348">
         <f t="shared" si="20"/>
         <v>0.1157692465702423</v>
       </c>
-      <c r="G48" s="349" t="str">
+      <c r="G48" s="348" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H48" s="349" t="str">
+      <c r="H48" s="348" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="I48" s="349" t="str">
+      <c r="I48" s="348" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J48" s="349" t="str">
+      <c r="J48" s="348" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K48" s="349" t="str">
+      <c r="K48" s="348" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L48" s="349" t="str">
+      <c r="L48" s="348" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="M48" s="349" t="str">
+      <c r="M48" s="348" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -8700,49 +8714,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="134" t="s">
-        <v>314</v>
-      </c>
-      <c r="C49" s="347">
+        <v>310</v>
+      </c>
+      <c r="C49" s="346">
         <f>C7/(C29+C21+C22)</f>
         <v>0.17005929069316317</v>
       </c>
-      <c r="D49" s="347">
+      <c r="D49" s="346">
         <f>IF(D7="","",D7/(D29+D21+D22))</f>
         <v>0.14782569658540531</v>
       </c>
-      <c r="E49" s="347">
+      <c r="E49" s="346">
         <f t="shared" ref="E49:M49" si="21">IF(E7="","",E7/(E29+E21+E22))</f>
         <v>0.11411004735903939</v>
       </c>
-      <c r="F49" s="347">
+      <c r="F49" s="346">
         <f t="shared" si="21"/>
         <v>0.19100156722372127</v>
       </c>
-      <c r="G49" s="347" t="str">
+      <c r="G49" s="346" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H49" s="347" t="str">
+      <c r="H49" s="346" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="I49" s="347" t="str">
+      <c r="I49" s="346" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J49" s="347" t="str">
+      <c r="J49" s="346" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K49" s="347" t="str">
+      <c r="K49" s="346" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="L49" s="347" t="str">
+      <c r="L49" s="346" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M49" s="347" t="str">
+      <c r="M49" s="346" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -8751,49 +8765,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="134" t="s">
-        <v>315</v>
-      </c>
-      <c r="C50" s="348">
+        <v>311</v>
+      </c>
+      <c r="C50" s="347">
         <f>(C29+C21+C22)/C29</f>
         <v>2.2333765326912158</v>
       </c>
-      <c r="D50" s="348">
+      <c r="D50" s="347">
         <f>IF(D29="","",(D29+D21+D22)/D29)</f>
         <v>2.1470478372054402</v>
       </c>
-      <c r="E50" s="348">
+      <c r="E50" s="347">
         <f t="shared" ref="E50:M50" si="22">IF(E29="","",(E29+E21+E22)/E29)</f>
         <v>2.2563146664747671</v>
       </c>
-      <c r="F50" s="348">
+      <c r="F50" s="347">
         <f t="shared" si="22"/>
         <v>2.6169812032095643</v>
       </c>
-      <c r="G50" s="348" t="str">
+      <c r="G50" s="347" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H50" s="348" t="str">
+      <c r="H50" s="347" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="I50" s="348" t="str">
+      <c r="I50" s="347" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="J50" s="348" t="str">
+      <c r="J50" s="347" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="K50" s="348" t="str">
+      <c r="K50" s="347" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L50" s="348" t="str">
+      <c r="L50" s="347" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M50" s="348" t="str">
+      <c r="M50" s="347" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -8802,49 +8816,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="134" t="s">
-        <v>316</v>
-      </c>
-      <c r="C51" s="351">
+        <v>312</v>
+      </c>
+      <c r="C51" s="350">
         <f>C48*C49*C50</f>
         <v>0.11666249607832405</v>
       </c>
-      <c r="D51" s="351">
+      <c r="D51" s="350">
         <f>IF(D48="","",D48*D49*D50)</f>
         <v>8.0026349204275954E-2</v>
       </c>
-      <c r="E51" s="351">
+      <c r="E51" s="350">
         <f t="shared" ref="E51:M51" si="23">IF(E48="","",E48*E49*E50)</f>
         <v>4.1191942268768447E-2</v>
       </c>
-      <c r="F51" s="351">
+      <c r="F51" s="350">
         <f t="shared" si="23"/>
         <v>5.7866969772566293E-2</v>
       </c>
-      <c r="G51" s="351" t="str">
+      <c r="G51" s="350" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H51" s="351" t="str">
+      <c r="H51" s="350" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I51" s="351" t="str">
+      <c r="I51" s="350" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="J51" s="351" t="str">
+      <c r="J51" s="350" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="K51" s="351" t="str">
+      <c r="K51" s="350" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L51" s="351" t="str">
+      <c r="L51" s="350" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M51" s="351" t="str">
+      <c r="M51" s="350" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -8852,50 +8866,50 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="353" t="s">
-        <v>317</v>
-      </c>
-      <c r="C52" s="350">
+      <c r="B52" s="352" t="s">
+        <v>313</v>
+      </c>
+      <c r="C52" s="349">
         <f>C35*C51</f>
         <v>0.29270381161835396</v>
       </c>
-      <c r="D52" s="350">
+      <c r="D52" s="349">
         <f>IF(D35="","",D35*D51)</f>
         <v>0.17719021504444635</v>
       </c>
-      <c r="E52" s="350">
+      <c r="E52" s="349">
         <f t="shared" ref="E52:M52" si="24">IF(E35="","",E35*E51)</f>
         <v>0.29906552359160316</v>
       </c>
-      <c r="F52" s="350" t="str">
+      <c r="F52" s="349" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="G52" s="350" t="str">
+      <c r="G52" s="349" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="H52" s="350" t="str">
+      <c r="H52" s="349" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I52" s="350" t="str">
+      <c r="I52" s="349" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J52" s="350" t="str">
+      <c r="J52" s="349" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K52" s="350" t="str">
+      <c r="K52" s="349" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="L52" s="350" t="str">
+      <c r="L52" s="349" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="M52" s="350" t="str">
+      <c r="M52" s="349" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -8931,7 +8945,7 @@
         <v>72</v>
       </c>
       <c r="C55" s="306" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D55" s="6"/>
       <c r="F55" s="6"/>
@@ -8961,7 +8975,7 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="304" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C57" s="157">
         <v>733096</v>
@@ -8982,7 +8996,7 @@
     <row r="58" spans="1:14" ht="15.75" customHeight="1">
       <c r="A58" s="9"/>
       <c r="B58" s="305" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C58" s="309">
         <f t="shared" ref="C58:M58" si="25">IF(C57="","",C57/C7)</f>
@@ -10395,8 +10409,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10482,7 +10496,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="B6" s="57" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="58">
@@ -10496,7 +10510,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I6" s="68">
         <f>C26/I26</f>
@@ -10507,7 +10521,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B7" s="52" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D7" s="60">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
@@ -10518,7 +10532,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I7" s="68">
         <f>C25/I26</f>
@@ -10530,7 +10544,7 @@
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="D8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I8" s="68">
         <f>C24/I26</f>
@@ -10548,7 +10562,7 @@
         <v>44651</v>
       </c>
       <c r="E9" s="259" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
@@ -10877,7 +10891,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I24" s="68">
         <f>E24/($I$26-I15)</f>
@@ -10907,7 +10921,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I25" s="68">
         <f>E25/$I$26</f>
@@ -11151,7 +11165,7 @@
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1">
       <c r="B36" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="63">
         <f>19499744+513478</f>
@@ -11169,7 +11183,7 @@
     </row>
     <row r="37" spans="2:10" ht="14">
       <c r="B37" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="63">
         <v>0</v>
@@ -11292,7 +11306,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I44" s="68">
         <f>E44/(I46-I15-I32)</f>
@@ -11322,7 +11336,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I45" s="68">
         <f>E45/$I$46</f>
@@ -11352,7 +11366,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I46" s="147">
         <f>I26+I42</f>
@@ -11433,7 +11447,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I53" s="14">
         <f>D53/I3</f>
@@ -11610,7 +11624,7 @@
   <dimension ref="A1:M902"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -11681,14 +11695,14 @@
       <c r="F3" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="250" t="str">
+      <c r="G3" s="250">
         <f>IF(G8="","",EOMONTH(EDATE(E3,12),0))</f>
-        <v/>
+        <v>45657</v>
       </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="250" t="str">
+      <c r="I3" s="250">
         <f>IF(I15="","",EOMONTH(EDATE(G3,12),0))</f>
-        <v/>
+        <v>46022</v>
       </c>
       <c r="J3" s="265"/>
       <c r="L3" s="70" t="s">
@@ -11697,7 +11711,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="261" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C4" s="262">
         <v>5400629</v>
@@ -11714,9 +11728,9 @@
         <f>E4/E7</f>
         <v>0.92022827011568942</v>
       </c>
-      <c r="G4" s="383"/>
+      <c r="G4" s="382"/>
       <c r="H4" s="233"/>
-      <c r="I4" s="383"/>
+      <c r="I4" s="382"/>
       <c r="J4" s="255"/>
       <c r="K4" s="6"/>
       <c r="L4" s="72"/>
@@ -11724,7 +11738,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="B5" s="261" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C5" s="262">
         <v>1510291</v>
@@ -11741,19 +11755,19 @@
         <f>E5/E7</f>
         <v>6.433567619166651E-2</v>
       </c>
-      <c r="G5" s="383"/>
+      <c r="G5" s="382"/>
       <c r="H5" s="233"/>
-      <c r="I5" s="383"/>
+      <c r="I5" s="382"/>
       <c r="J5" s="255"/>
       <c r="K5" s="6"/>
       <c r="L5" s="72" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="B6" s="261" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C6" s="262">
         <v>362364</v>
@@ -11770,9 +11784,9 @@
         <f>E6/E7</f>
         <v>1.5436053692644029E-2</v>
       </c>
-      <c r="G6" s="383"/>
+      <c r="G6" s="382"/>
       <c r="H6" s="233"/>
-      <c r="I6" s="383"/>
+      <c r="I6" s="382"/>
       <c r="J6" s="255"/>
       <c r="K6" s="6"/>
       <c r="L6" s="72"/>
@@ -11792,9 +11806,15 @@
         <v>5868792.75</v>
       </c>
       <c r="F7" s="232"/>
-      <c r="G7" s="302"/>
+      <c r="G7" s="302">
+        <f>E7*1.4</f>
+        <v>8216309.8499999996</v>
+      </c>
       <c r="H7" s="232"/>
-      <c r="I7" s="212"/>
+      <c r="I7" s="212">
+        <f>G7*1.3</f>
+        <v>10681202.805</v>
+      </c>
       <c r="J7" s="256"/>
       <c r="K7" s="6"/>
       <c r="L7" s="72"/>
@@ -11814,9 +11834,15 @@
         <v>-0.1931027648583501</v>
       </c>
       <c r="F8" s="234"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18">
+        <f>G7/E7-1</f>
+        <v>0.39999999999999991</v>
+      </c>
       <c r="H8" s="234"/>
-      <c r="I8" s="71"/>
+      <c r="I8" s="71">
+        <f>I7/G7-1</f>
+        <v>0.30000000000000004</v>
+      </c>
       <c r="J8" s="292"/>
       <c r="K8" s="6"/>
       <c r="L8" s="72"/>
@@ -11833,17 +11859,17 @@
       <c r="D9" s="235"/>
       <c r="E9" s="211">
         <f>E7*(1-E10)</f>
-        <v>3022428.2662499999</v>
+        <v>3521275.65</v>
       </c>
       <c r="F9" s="235"/>
-      <c r="G9" s="253" t="str">
+      <c r="G9" s="253">
         <f>IF(G7="","",G7*(1-G10))</f>
-        <v/>
+        <v>4929785.9099999992</v>
       </c>
       <c r="H9" s="235"/>
-      <c r="I9" s="253" t="str">
+      <c r="I9" s="253">
         <f>IF(I7="","",I7*(1-I10))</f>
-        <v/>
+        <v>6408721.6829999993</v>
       </c>
       <c r="J9" s="293"/>
       <c r="K9" s="6"/>
@@ -11860,12 +11886,18 @@
       </c>
       <c r="D10" s="178"/>
       <c r="E10" s="71">
-        <v>0.48499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F10" s="178"/>
-      <c r="G10" s="71"/>
+      <c r="G10" s="71">
+        <f>E10</f>
+        <v>0.4</v>
+      </c>
       <c r="H10" s="178"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="71">
+        <f>G10</f>
+        <v>0.4</v>
+      </c>
       <c r="J10" s="294"/>
       <c r="K10" s="6"/>
       <c r="L10" s="72"/>
@@ -11881,17 +11913,17 @@
       <c r="D11" s="26"/>
       <c r="E11" s="26">
         <f>E7-E9</f>
-        <v>2846364.4837500001</v>
+        <v>2347517.1</v>
       </c>
       <c r="F11" s="26"/>
-      <c r="G11" s="26" t="str">
+      <c r="G11" s="26">
         <f>IF(G8="","",G7-G9)</f>
-        <v/>
+        <v>3286523.9400000004</v>
       </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="26" t="str">
+      <c r="I11" s="26">
         <f>IF(I8="","",I7-I9)</f>
-        <v/>
+        <v>4272481.1220000004</v>
       </c>
       <c r="J11" s="219"/>
       <c r="K11" s="6"/>
@@ -11911,9 +11943,15 @@
         <v>0.19359999999999999</v>
       </c>
       <c r="F12" s="179"/>
-      <c r="G12" s="64"/>
+      <c r="G12" s="64">
+        <f>E12</f>
+        <v>0.19359999999999999</v>
+      </c>
       <c r="H12" s="179"/>
-      <c r="I12" s="64"/>
+      <c r="I12" s="64">
+        <f>G12</f>
+        <v>0.19359999999999999</v>
+      </c>
       <c r="J12" s="295"/>
       <c r="K12" s="6"/>
       <c r="L12" s="72"/>
@@ -11932,9 +11970,15 @@
         <v>1136198.2763999999</v>
       </c>
       <c r="F13" s="236"/>
-      <c r="G13" s="74"/>
+      <c r="G13" s="74">
+        <f>G12*G7</f>
+        <v>1590677.58696</v>
+      </c>
       <c r="H13" s="236"/>
-      <c r="I13" s="74"/>
+      <c r="I13" s="74">
+        <f>I12*I7</f>
+        <v>2067880.8630479998</v>
+      </c>
       <c r="J13" s="296"/>
       <c r="K13" s="6"/>
       <c r="L13" s="72"/>
@@ -11950,17 +11994,17 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18">
         <f>E16/E7</f>
-        <v>0.29140000000000005</v>
+        <v>0.20640000000000003</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="18" t="str">
+      <c r="G14" s="18">
         <f>IF(G8="","",G16/G7)</f>
-        <v/>
+        <v>0.20640000000000006</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="18" t="str">
+      <c r="I14" s="18">
         <f>IF(I8="","",I16/I7)</f>
-        <v/>
+        <v>0.20640000000000006</v>
       </c>
       <c r="J14" s="213"/>
       <c r="K14" s="6"/>
@@ -11978,17 +12022,17 @@
       <c r="D15" s="237"/>
       <c r="E15" s="14">
         <f>IF(ABS(C16+E16)=ABS(C16)+ABS(E16),IF(E16&lt;0,-1,1)*(E16-C16)/C16,"Turn")</f>
-        <v>0.13936034621862417</v>
+        <v>-0.19298567103800948</v>
       </c>
       <c r="F15" s="237"/>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="14">
         <f>IF(G8="","",IF(ABS(E16+G16)=ABS(E16)+ABS(G16),IF(G16&lt;0,-1,1)*(G16-E16)/E16,"Turn"))</f>
-        <v/>
+        <v>0.40000000000000008</v>
       </c>
       <c r="H15" s="237"/>
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="14">
         <f>IF(I8="","",IF(ABS(G16+I16)=ABS(G16)+ABS(I16),IF(I16&lt;0,-1,1)*(I16-G16)/G16,"Turn"))</f>
-        <v/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J15" s="297"/>
       <c r="K15" s="6"/>
@@ -12006,17 +12050,17 @@
       <c r="D16" s="285"/>
       <c r="E16" s="284">
         <f>E11-E13</f>
-        <v>1710166.2073500003</v>
+        <v>1211318.8236000002</v>
       </c>
       <c r="F16" s="285"/>
-      <c r="G16" s="284" t="str">
+      <c r="G16" s="284">
         <f>IF(G8="","",G11-G13)</f>
-        <v/>
+        <v>1695846.3530400004</v>
       </c>
       <c r="H16" s="285"/>
-      <c r="I16" s="284" t="str">
+      <c r="I16" s="284">
         <f>IF(I8="","",I11-I13)</f>
-        <v/>
+        <v>2204600.2589520006</v>
       </c>
       <c r="J16" s="298"/>
       <c r="K16" s="6"/>
@@ -12036,21 +12080,21 @@
         <v>0.25</v>
       </c>
       <c r="F17" s="283"/>
-      <c r="G17" s="283" t="str">
+      <c r="G17" s="283">
         <f>IF(G16="","",E17)</f>
-        <v/>
+        <v>0.25</v>
       </c>
       <c r="H17" s="283"/>
-      <c r="I17" s="283" t="str">
+      <c r="I17" s="283">
         <f>IF(I16="","",G17)</f>
-        <v/>
+        <v>0.25</v>
       </c>
       <c r="J17" s="299"/>
       <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1">
       <c r="B18" s="289" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" s="237">
         <f>C19/C9</f>
@@ -12059,17 +12103,17 @@
       <c r="D18" s="291"/>
       <c r="E18" s="290">
         <f>E19/E9</f>
-        <v>0.42436893203883502</v>
+        <v>0.25800000000000006</v>
       </c>
       <c r="F18" s="290"/>
-      <c r="G18" s="290" t="str">
+      <c r="G18" s="290">
         <f>IF(G9="","",G19/G9)</f>
-        <v/>
+        <v>0.25800000000000012</v>
       </c>
       <c r="H18" s="290"/>
-      <c r="I18" s="290" t="str">
+      <c r="I18" s="290">
         <f>IF(I9="","",I19/I9)</f>
-        <v/>
+        <v>0.25800000000000006</v>
       </c>
       <c r="J18" s="300"/>
     </row>
@@ -12084,17 +12128,17 @@
       <c r="D19" s="287"/>
       <c r="E19" s="288">
         <f>IF(E16="","",IF(E16&lt;=0,E16,E16*(1-E17)))</f>
-        <v>1282624.6555125001</v>
+        <v>908489.11770000018</v>
       </c>
       <c r="F19" s="287"/>
-      <c r="G19" s="288" t="str">
+      <c r="G19" s="288">
         <f>IF(G16="","",IF(G16&lt;=0,G16,G16*(1-G17)))</f>
-        <v/>
+        <v>1271884.7647800003</v>
       </c>
       <c r="H19" s="287"/>
-      <c r="I19" s="288" t="str">
+      <c r="I19" s="288">
         <f>IF(I16="","",IF(I16&lt;=0,I16,I16*(1-I17)))</f>
-        <v/>
+        <v>1653450.1942140004</v>
       </c>
       <c r="J19" s="301"/>
     </row>
@@ -13027,10 +13071,10 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J916"/>
+  <dimension ref="A1:J917"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -13051,7 +13095,7 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="87" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C2" s="254" t="s">
         <v>233</v>
@@ -13066,8 +13110,8 @@
         <v>3</v>
       </c>
       <c r="G2" s="254" t="str">
-        <f>B21</f>
-        <v>TV after Year 1</v>
+        <f>B22</f>
+        <v>TV after Year 3</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -13085,13 +13129,13 @@
         <f>Operation!E3</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="250" t="str">
+      <c r="E3" s="250">
         <f>Operation!G3</f>
-        <v/>
-      </c>
-      <c r="F3" s="250" t="str">
+        <v>45657</v>
+      </c>
+      <c r="F3" s="250">
         <f>Operation!I3</f>
-        <v/>
+        <v>46022</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>232</v>
@@ -13101,49 +13145,51 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="5" t="s">
-        <v>74</v>
+      <c r="B4" s="5" t="str">
+        <f>IF(Dashboard!D20="Fast Growers", "Sales","NOPAT")</f>
+        <v>Sales</v>
       </c>
       <c r="C4" s="174">
-        <f>Operation!C19</f>
-        <v>1125741</v>
+        <f>IF(B4="NOPAT",Operation!C19,Operation!C7)</f>
+        <v>7273284</v>
       </c>
       <c r="D4" s="44">
-        <f>Operation!E19</f>
-        <v>1282624.6555125001</v>
-      </c>
-      <c r="E4" s="44" t="str">
-        <f>Operation!G19</f>
-        <v/>
-      </c>
-      <c r="F4" s="191" t="str">
-        <f>Operation!I19</f>
-        <v/>
+        <f>IF(B4="NOPAT",Operation!E19,Operation!E7)</f>
+        <v>5868792.75</v>
+      </c>
+      <c r="E4" s="44">
+        <f>IF(Operation!G7="","",IF(B4="NOPAT",Operation!G19,Operation!G7))</f>
+        <v>8216309.8499999996</v>
+      </c>
+      <c r="F4" s="191">
+        <f>IF(Operation!I7="","",IF(B4="NOPAT",Operation!I19,Operation!I7))</f>
+        <v>10681202.805</v>
       </c>
       <c r="G4" s="270">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="77"/>
       <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="17" t="s">
-        <v>243</v>
+      <c r="B5" s="17" t="str">
+        <f>B4&amp;" Growth rate"</f>
+        <v>Sales Growth rate</v>
       </c>
       <c r="C5" s="230"/>
       <c r="D5" s="231">
         <f>D4/C4-1</f>
-        <v>0.13936034621862414</v>
-      </c>
-      <c r="E5" s="231" t="str">
+        <v>-0.1931027648583501</v>
+      </c>
+      <c r="E5" s="231">
         <f>IF(E4="","",E4/D4-1)</f>
-        <v/>
-      </c>
-      <c r="F5" s="231" t="str">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F5" s="231">
         <f>IF(F4="","",F4/E4-1)</f>
-        <v/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G5" s="188"/>
       <c r="H5" s="6"/>
@@ -13152,876 +13198,912 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="17" t="str">
-        <f>B7&amp;"/NOPAT"</f>
-        <v>Reinvestment/NOPAT</v>
+        <f>B8&amp;"/"&amp;B4</f>
+        <v>Reinvestment/Sales</v>
       </c>
       <c r="C6" s="64">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="210">
-        <f>C6</f>
-        <v>4</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="274"/>
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="64">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="274">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="G6" s="189"/>
       <c r="H6" s="6"/>
       <c r="I6" s="75"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B7" s="390" t="s">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="494"/>
+      <c r="D7" s="495"/>
+      <c r="E7" s="494"/>
+      <c r="F7" s="496">
+        <f>(F4-C4)/SUM(C8:E8)</f>
+        <v>0.20952366433106062</v>
+      </c>
+      <c r="G7" s="189"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B8" s="389" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="275">
+      <c r="C8" s="275">
         <f>C4*C6</f>
-        <v>4502964</v>
-      </c>
-      <c r="D7" s="275">
+        <v>5818627.2000000002</v>
+      </c>
+      <c r="D8" s="275">
         <f>D4*D6</f>
-        <v>5130498.6220500004</v>
-      </c>
-      <c r="E7" s="276"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B8" s="17" t="str">
-        <f>IF(B7="Reinvestment","FCFF","Retention")</f>
-        <v>FCFF</v>
-      </c>
-      <c r="C8" s="182">
-        <f>IF(C4="","",C4-C7)</f>
-        <v>-3377223</v>
-      </c>
-      <c r="D8" s="181">
-        <f>D4-D7</f>
-        <v>-3847873.9665375003</v>
-      </c>
-      <c r="E8" s="181" t="str">
-        <f>IF(E4="","",E4-E7)</f>
-        <v/>
-      </c>
-      <c r="F8" s="181" t="str">
-        <f>IF(F4="","",F4-F7)</f>
-        <v/>
-      </c>
-      <c r="G8" s="357"/>
+        <v>4695034.2</v>
+      </c>
+      <c r="E8" s="276">
+        <f>E6*E4</f>
+        <v>5751416.8949999996</v>
+      </c>
+      <c r="F8" s="276">
+        <f>F6*F4</f>
+        <v>5874661.54275</v>
+      </c>
+      <c r="G8" s="190"/>
       <c r="H8" s="79"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="192" t="str">
-        <f>B8&amp;" per share"</f>
-        <v>FCFF per share</v>
-      </c>
-      <c r="C9" s="183">
-        <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>-0.56583832958317481</v>
-      </c>
-      <c r="D9" s="272">
-        <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>-0.64469375509765403</v>
-      </c>
-      <c r="E9" s="272" t="str">
-        <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
-        <v/>
-      </c>
-      <c r="F9" s="272" t="str">
-        <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
-        <v/>
-      </c>
-      <c r="G9" s="376">
-        <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Dashboard!I5</f>
-        <v>-0.64469375509765403</v>
-      </c>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B9" s="17" t="str">
+        <f>IF(B8="Reinvestment","FCFF","Retention")</f>
+        <v>FCFF</v>
+      </c>
+      <c r="C9" s="182">
+        <f>IF(C4="","",Operation!C19-C8)</f>
+        <v>-4692886.2</v>
+      </c>
+      <c r="D9" s="181">
+        <f>Operation!E19-D8</f>
+        <v>-3786545.0822999999</v>
+      </c>
+      <c r="E9" s="181">
+        <f>IF(E4="","",Operation!G19-E8)</f>
+        <v>-4479532.1302199997</v>
+      </c>
+      <c r="F9" s="181">
+        <f>IF(F4="","",Operation!I19-F8)</f>
+        <v>-4221211.3485359997</v>
+      </c>
+      <c r="G9" s="356"/>
       <c r="H9" s="79"/>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="192" t="str">
+        <f>B9&amp;" per share"</f>
+        <v>FCFF per share</v>
+      </c>
+      <c r="C10" s="183">
+        <f>C9/(Common_Shares/Data!$C$4)</f>
+        <v>-0.78627170557938664</v>
+      </c>
+      <c r="D10" s="272">
+        <f>D9/(Common_Shares/Data!$C$4)</f>
+        <v>-0.63441837991154781</v>
+      </c>
+      <c r="E10" s="272">
+        <f>IF(E9="","",E9/(Common_Shares/Data!$C$4))</f>
+        <v>-0.75052520306708959</v>
+      </c>
+      <c r="F10" s="272">
+        <f>IF(F9="","",F9/(Common_Shares/Data!$C$4))</f>
+        <v>-0.70724473280951561</v>
+      </c>
+      <c r="G10" s="375">
+        <f>IF(F4="",IF(E4="",D9,E9),F9)*Data!C$4/Common_Shares</f>
+        <v>-0.70724473280951561</v>
+      </c>
+      <c r="H10" s="79"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="180"/>
-      <c r="D10" s="207">
+      <c r="C11" s="180"/>
+      <c r="D11" s="207">
         <f ca="1">Dashboard!C12</f>
         <v>0.08</v>
       </c>
-      <c r="E10" s="18" t="str">
-        <f>IF(E4="","",D10)</f>
-        <v/>
-      </c>
-      <c r="F10" s="18" t="str">
-        <f>IF(F4="","",D10)</f>
-        <v/>
-      </c>
-      <c r="G10" s="374">
+      <c r="E11" s="18">
+        <f ca="1">IF(E4="","",D11)</f>
+        <v>0.08</v>
+      </c>
+      <c r="F11" s="18">
+        <f ca="1">IF(F4="","",D11)</f>
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="373">
         <f ca="1">Dashboard!C12</f>
         <v>0.08</v>
-      </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="208">
-        <f ca="1">IF(D4="","",1+D10)</f>
-        <v>1.08</v>
-      </c>
-      <c r="E11" s="209" t="str">
-        <f>IF(E4="","",(1+D10)*(1+E10))</f>
-        <v/>
-      </c>
-      <c r="F11" s="209" t="str">
-        <f>IF(F4="","",(1+D10)*(1+E10)*(1+F10))</f>
-        <v/>
-      </c>
-      <c r="G11" s="377">
-        <f ca="1">IF(F4="",IF(E4="",D11,E11),F11)*(1+G10)</f>
-        <v>1.1664000000000001</v>
       </c>
       <c r="H11" s="61"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B12" s="8" t="str">
-        <f>"PV "&amp;B8&amp;" per share"</f>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="109"/>
+      <c r="D12" s="208">
+        <f ca="1">IF(D4="","",1+D11)</f>
+        <v>1.08</v>
+      </c>
+      <c r="E12" s="209">
+        <f ca="1">IF(E4="","",(1+D11)*(1+E11))</f>
+        <v>1.1664000000000001</v>
+      </c>
+      <c r="F12" s="209">
+        <f ca="1">IF(F4="","",(1+D11)*(1+E11)*(1+F11))</f>
+        <v>1.2597120000000002</v>
+      </c>
+      <c r="G12" s="376">
+        <f ca="1">IF(F4="",IF(E4="",D12,E12),F12)*(1+G11)</f>
+        <v>1.3604889600000003</v>
+      </c>
+      <c r="H12" s="61"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B13" s="8" t="str">
+        <f>"PV "&amp;B9&amp;" per share"</f>
         <v>PV FCFF per share</v>
       </c>
-      <c r="C12" s="325"/>
-      <c r="D12" s="185">
-        <f ca="1">IF(D9="","",D9/D11)</f>
-        <v>-0.59693866212745739</v>
-      </c>
-      <c r="E12" s="186" t="str">
-        <f>IF(E9="","",E9/E11)</f>
-        <v/>
-      </c>
-      <c r="F12" s="186" t="str">
-        <f>IF(F9="","",F9/F11)</f>
-        <v/>
-      </c>
-      <c r="G12" s="378"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="F13" s="6"/>
-      <c r="G13" s="110"/>
+      <c r="C13" s="324"/>
+      <c r="D13" s="185">
+        <f ca="1">IF(D10="","",D10/D12)</f>
+        <v>-0.58742442584402577</v>
+      </c>
+      <c r="E13" s="186">
+        <f ca="1">IF(E10="","",E10/E12)</f>
+        <v>-0.6434543922042949</v>
+      </c>
+      <c r="F13" s="186">
+        <f ca="1">IF(F10="","",F10/F12)</f>
+        <v>-0.56143367119588883</v>
+      </c>
+      <c r="G13" s="377"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B14" s="334" t="s">
+      <c r="E14" s="392"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="110"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="333" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="184" t="str">
+      <c r="C15" s="184" t="str">
         <f>B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E15" s="70" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B15" s="57" t="s">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B16" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C16" s="81">
         <f>Asset_Model!E59</f>
         <v>9216152</v>
       </c>
-      <c r="D15" s="204">
-        <f>C15/(Dashboard!I5/Data!C4)</f>
+      <c r="D16" s="204">
+        <f>C16/(Dashboard!I5/Data!C4)</f>
         <v>1.5441242858006818</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E16" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="129">
-        <f>C15+C16+C17+C18</f>
+      <c r="G16" s="129">
+        <f>C16+C17+C18+C19</f>
         <v>-4048418.0999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B16" s="57" t="s">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B17" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C17" s="81">
         <f>Asset_Model!E58</f>
         <v>6268982.9000000004</v>
       </c>
-      <c r="D16" s="204">
-        <f>C16/(Dashboard!I5/Data!C4)</f>
+      <c r="D17" s="204">
+        <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>1.0503395281630759</v>
       </c>
-      <c r="E16" s="82" t="s">
-        <v>293</v>
-      </c>
-      <c r="G16" s="187">
-        <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
+      <c r="E17" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="187">
+        <f>(G16+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>-0.67829401113230903</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B17" s="57" t="s">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B18" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C18" s="81">
         <f>-Asset_Model!D52</f>
         <v>-9352809</v>
       </c>
-      <c r="D17" s="204">
-        <f>C17/(Dashboard!I5/Data!C4)</f>
+      <c r="D18" s="204">
+        <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-1.5670205436450255</v>
       </c>
-      <c r="E17" s="488" t="str">
-        <f>IF(F18+G18=G16,"⇒","Error!")</f>
+      <c r="E18" s="488" t="str">
+        <f>IF(F19+G19=G17,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
-      <c r="F17" s="138" t="s">
+      <c r="F18" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G18" s="84" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B18" s="82" t="s">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B19" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C19" s="81">
         <f>-Asset_Model!E50</f>
         <v>-10180744</v>
       </c>
-      <c r="D18" s="204">
-        <f>C18/(Dashboard!I5/Data!C4)</f>
+      <c r="D19" s="204">
+        <f>C19/(Dashboard!I5/Data!C4)</f>
         <v>-1.7057372814510412</v>
       </c>
-      <c r="E18" s="488"/>
-      <c r="F18" s="140">
-        <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
+      <c r="E19" s="488"/>
+      <c r="F19" s="140">
+        <f>D16+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.5441242858006818</v>
       </c>
-      <c r="G18" s="139">
-        <f>SUM(D16:D18)</f>
+      <c r="G19" s="139">
+        <f>SUM(D17:D19)</f>
         <v>-2.2224182969329909</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B20" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="C20" s="184" t="str">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B21" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="184" t="str">
         <f>B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="E20" s="489" t="s">
+      <c r="E21" s="489" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="489"/>
-      <c r="G20" s="91"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B21" s="120" t="str">
+      <c r="F21" s="489"/>
+      <c r="G21" s="91"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B22" s="120" t="str">
         <f>"TV after Year "&amp;G4</f>
-        <v>TV after Year 1</v>
-      </c>
-      <c r="C21" s="389" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" s="247" t="s">
-        <v>358</v>
-      </c>
-      <c r="E21" s="271" t="s">
+        <v>TV after Year 3</v>
+      </c>
+      <c r="C22" s="388" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" s="247" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" s="271" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="238" t="str">
+      <c r="F22" s="238" t="str">
         <f>"Equity Value ("&amp;Dashboard!I11&amp;")"</f>
         <v>Equity Value (USD)</v>
       </c>
-      <c r="G21" s="329" t="str">
+      <c r="G22" s="328" t="str">
         <f>"Equity Value ("&amp;Dashboard!J4&amp;")"</f>
         <v>Equity Value (HKD)</v>
       </c>
-      <c r="I21" s="83"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B22" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="266">
+      <c r="I22" s="83"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B23" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="266">
         <v>2.69</v>
       </c>
-      <c r="D22" s="391">
-        <f>C22*Operation!E7*Data!C4/Common_Shares</f>
-        <v>2.6450487321172713</v>
-      </c>
-      <c r="E22" s="387">
-        <f>IF(D22="",IF(G9&lt;0,G9,G9*C22/G11),D22)</f>
-        <v>2.6450487321172713</v>
-      </c>
-      <c r="F22" s="327">
-        <f ca="1">SUM(D12:F12)+E22+$G$16</f>
-        <v>1.3698160588575048</v>
-      </c>
-      <c r="G22" s="330">
-        <f ca="1">F22*Exchange_Rate</f>
-        <v>10.70019043765247</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B23" s="326" t="s">
-        <v>265</v>
-      </c>
-      <c r="C23" s="279">
-        <v>4.34</v>
-      </c>
-      <c r="D23" s="392">
-        <f>C23*Operation!E7*Data!C4/Common_Shares</f>
-        <v>4.267476393081397</v>
-      </c>
-      <c r="E23" s="388">
-        <f>IF(D23="",IF(G9&lt;0,G9,G9*C23/G11),D23)</f>
-        <v>4.267476393081397</v>
-      </c>
-      <c r="F23" s="328">
-        <f ca="1">SUM(D12:F12)+E23+$G$16</f>
-        <v>2.9922437198216305</v>
-      </c>
-      <c r="G23" s="331">
+      <c r="D23" s="390">
+        <f>C23*F4*Data!C4/Common_Shares</f>
+        <v>4.8139886924534334</v>
+      </c>
+      <c r="E23" s="386">
+        <f>IF(D23="",IF(G10&lt;0,G10,G10*C23/G12),D23)</f>
+        <v>4.8139886924534334</v>
+      </c>
+      <c r="F23" s="326">
+        <f ca="1">SUM(D13:F13)+E23+$G$17</f>
+        <v>2.3433821920769149</v>
+      </c>
+      <c r="G23" s="329">
         <f ca="1">F23*Exchange_Rate</f>
-        <v>23.373632854520139</v>
+        <v>18.30511152303178</v>
       </c>
       <c r="I23" s="72" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.5" customHeight="1" thickTop="1">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="490" t="s">
-        <v>370</v>
-      </c>
-      <c r="F24" s="491"/>
-      <c r="G24" s="358">
-        <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
-        <v>16.828705092094907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="87" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" s="254" t="s">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B24" s="325" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="279">
+        <v>4.34</v>
+      </c>
+      <c r="D24" s="391">
+        <f>C24*F4*Data!C4/Common_Shares</f>
+        <v>7.7668070354081422</v>
+      </c>
+      <c r="E24" s="387">
+        <f>IF(D24="",IF(G10&lt;0,G10,G10*C24/G12),D24)</f>
+        <v>7.7668070354081422</v>
+      </c>
+      <c r="F24" s="327">
+        <f ca="1">SUM(D13:F13)+E24+$G$17</f>
+        <v>5.2962005350316232</v>
+      </c>
+      <c r="G24" s="330">
+        <f ca="1">F24*Exchange_Rate</f>
+        <v>41.370776721730934</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.5" customHeight="1" thickTop="1">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="490" t="s">
+        <v>366</v>
+      </c>
+      <c r="F25" s="491"/>
+      <c r="G25" s="357">
+        <f ca="1">MIN(G23,G24)+ABS(G23-G24)*'Qualitative Analysis'!$E$64</f>
+        <v>29.459008194117011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="254" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="254">
+      <c r="D27" s="254">
         <v>1</v>
       </c>
-      <c r="E26" s="254">
+      <c r="E27" s="254">
         <v>2</v>
       </c>
-      <c r="F26" s="254">
+      <c r="F27" s="254">
         <v>3</v>
       </c>
-      <c r="G26" s="254" t="str">
+      <c r="G27" s="254" t="str">
         <f>G2</f>
-        <v>TV after Year 1</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B27" s="28" t="str">
+        <v>TV after Year 3</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B28" s="28" t="str">
         <f>B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C27" s="250">
+      <c r="C28" s="250">
         <f>C3</f>
         <v>44926</v>
       </c>
-      <c r="D27" s="250">
+      <c r="D28" s="250">
         <f>D3</f>
         <v>45291</v>
       </c>
-      <c r="E27" s="250" t="str">
+      <c r="E28" s="250">
         <f>E3</f>
-        <v/>
-      </c>
-      <c r="F27" s="250" t="str">
+        <v>45657</v>
+      </c>
+      <c r="F28" s="250">
         <f>F3</f>
-        <v/>
-      </c>
-      <c r="G27" s="27" t="str">
+        <v>46022</v>
+      </c>
+      <c r="G28" s="27" t="str">
         <f>G3</f>
         <v>Terminal Value</v>
       </c>
-      <c r="I27" s="72" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B28" s="5" t="s">
+      <c r="I28" s="72" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C29" s="26">
         <f>C4</f>
-        <v>1125741</v>
-      </c>
-      <c r="D28" s="26">
+        <v>7273284</v>
+      </c>
+      <c r="D29" s="26">
         <f>D4</f>
-        <v>1282624.6555125001</v>
-      </c>
-      <c r="E28" s="26" t="str">
+        <v>5868792.75</v>
+      </c>
+      <c r="E29" s="26">
         <f>E4</f>
-        <v/>
-      </c>
-      <c r="F28" s="354" t="str">
+        <v>8216309.8499999996</v>
+      </c>
+      <c r="F29" s="353">
         <f>F4</f>
-        <v/>
-      </c>
-      <c r="G28" s="379">
-        <f>D28*1.02</f>
-        <v>1308277.1486227501</v>
-      </c>
-      <c r="I28" s="72" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B29" s="355" t="s">
-        <v>321</v>
-      </c>
-      <c r="C29" s="64">
+        <v>10681202.805</v>
+      </c>
+      <c r="G29" s="378">
+        <f>D29*1.02</f>
+        <v>5986168.6050000004</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B30" s="354" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="64">
         <v>0.05</v>
       </c>
-      <c r="D29" s="210">
+      <c r="D30" s="210">
         <v>0.05</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="274"/>
-      <c r="G29" s="274">
+      <c r="E30" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="274">
+        <v>0.05</v>
+      </c>
+      <c r="G30" s="274">
         <v>0.04</v>
       </c>
-      <c r="I29" s="72"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B30" s="355" t="s">
-        <v>330</v>
-      </c>
-      <c r="C30" s="380">
+      <c r="I30" s="72"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B31" s="354" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" s="379">
         <f>MAX(Asset_Model!D52,0)</f>
         <v>9352809</v>
       </c>
-      <c r="D30" s="362">
-        <f>C30*1.05</f>
+      <c r="D31" s="361">
+        <f>C31*1.05</f>
         <v>9820449.4500000011</v>
       </c>
-      <c r="E30" s="361"/>
-      <c r="F30" s="361"/>
-      <c r="G30" s="361">
-        <f>IF(F30&lt;&gt;"",F30,IF(E30&lt;&gt;"",E30,D30))*1.05</f>
+      <c r="E31" s="360">
+        <f>D31*1.05</f>
         <v>10311471.922500001</v>
       </c>
-      <c r="I30" s="72" t="s">
+      <c r="F31" s="360">
+        <f>E31*1.05</f>
+        <v>10827045.518625002</v>
+      </c>
+      <c r="G31" s="360">
+        <f>IF(F31&lt;&gt;"",F31,IF(E31&lt;&gt;"",E31,D31))*1.05</f>
+        <v>11368397.794556253</v>
+      </c>
+      <c r="I31" s="72" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B32" s="354" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B31" s="355" t="s">
-        <v>335</v>
-      </c>
-      <c r="C31" s="381">
+      <c r="C32" s="380">
         <f>Operation!C17</f>
         <v>0.25</v>
       </c>
-      <c r="D31" s="381">
+      <c r="D32" s="380">
         <f>Operation!E17</f>
         <v>0.25</v>
       </c>
-      <c r="E31" s="381" t="str">
+      <c r="E32" s="380">
         <f>Operation!G17</f>
-        <v/>
-      </c>
-      <c r="F31" s="381" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="380">
         <f>Operation!I17</f>
-        <v/>
-      </c>
-      <c r="G31" s="381">
-        <f>IF(F31&lt;&gt;"",F31,IF(E31&lt;&gt;"",E31,D31))</f>
         <v>0.25</v>
       </c>
-      <c r="I31" s="72"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B32" s="356" t="s">
-        <v>334</v>
-      </c>
-      <c r="C32" s="359">
-        <f>C30*(C29*(1-Operation!C17))</f>
+      <c r="G32" s="380">
+        <f>IF(F32&lt;&gt;"",F32,IF(E32&lt;&gt;"",E32,D32))</f>
+        <v>0.25</v>
+      </c>
+      <c r="I32" s="72"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B33" s="355" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="358">
+        <f>C31*(C30*(1-Operation!C17))</f>
         <v>350730.33750000002</v>
       </c>
-      <c r="D32" s="359">
-        <f>(D30*D29)*(1-D31)</f>
+      <c r="D33" s="358">
+        <f>(D31*D30)*(1-D32)</f>
         <v>368266.85437500005</v>
       </c>
-      <c r="E32" s="360" t="str">
-        <f>IF(E28="","",(E30*E29)*(1-E31))</f>
-        <v/>
-      </c>
-      <c r="F32" s="360" t="str">
-        <f>IF(F28="","",(F30*F29)*(1-F31))</f>
-        <v/>
-      </c>
-      <c r="G32" s="359">
-        <f>(G30*G29)*(1-Operation!E17)</f>
-        <v>309344.15767500002</v>
-      </c>
-      <c r="I32" s="72"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B33" s="355" t="s">
+      <c r="E33" s="359">
+        <f>IF(E29="","",(E31*E30)*(1-E32))</f>
+        <v>386680.19709375006</v>
+      </c>
+      <c r="F33" s="359">
+        <f>IF(F29="","",(F31*F30)*(1-F32))</f>
+        <v>406014.20694843761</v>
+      </c>
+      <c r="G33" s="358">
+        <f>(G31*G30)*(1-Operation!E17)</f>
+        <v>341051.93383668759</v>
+      </c>
+      <c r="I33" s="72"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B34" s="354" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="182">
+        <f>C29-C33</f>
+        <v>6922553.6624999996</v>
+      </c>
+      <c r="D34" s="181">
+        <f>D29-D33</f>
+        <v>5500525.8956249999</v>
+      </c>
+      <c r="E34" s="181">
+        <f>IF(E29="","",E29-E33)</f>
+        <v>7829629.6529062493</v>
+      </c>
+      <c r="F34" s="181">
+        <f>IF(F29="","",F29-F33)</f>
+        <v>10275188.598051563</v>
+      </c>
+      <c r="G34" s="363">
+        <f>G29-G33</f>
+        <v>5645116.6711633131</v>
+      </c>
+      <c r="I34" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="C33" s="182">
-        <f>C28-C32</f>
-        <v>775010.66249999998</v>
-      </c>
-      <c r="D33" s="181">
-        <f>D28-D32</f>
-        <v>914357.80113749998</v>
-      </c>
-      <c r="E33" s="181" t="str">
-        <f>IF(E28="","",E28-E32)</f>
-        <v/>
-      </c>
-      <c r="F33" s="181" t="str">
-        <f>IF(F28="","",F28-F32)</f>
-        <v/>
-      </c>
-      <c r="G33" s="364">
-        <f>G28-G32</f>
-        <v>998932.99094775005</v>
-      </c>
-      <c r="I33" s="72" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B34" s="264" t="s">
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B35" s="264" t="s">
+        <v>319</v>
+      </c>
+      <c r="C35" s="183">
+        <f>C34/(Common_Shares/Data!$C$4)</f>
+        <v>1.1598423322472009</v>
+      </c>
+      <c r="D35" s="272">
+        <f>D34/(Common_Shares/Data!$C$4)</f>
+        <v>0.9215880575873866</v>
+      </c>
+      <c r="E35" s="272">
+        <f>IF(E34="","",E34/(Common_Shares/Data!$C$4))</f>
+        <v>1.3118187824894492</v>
+      </c>
+      <c r="F35" s="272">
+        <f>IF(F34="","",F34/(Common_Shares/Data!$C$4))</f>
+        <v>1.7215610436366151</v>
+      </c>
+      <c r="G35" s="183">
+        <f>G34/(Common_Shares/Data!$C$4)</f>
+        <v>0.94581358338290999</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="72"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B36" s="354" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" s="362">
+        <f>Dashboard!C31</f>
+        <v>13.8</v>
+      </c>
+      <c r="D36" s="207">
+        <f ca="1">D11</f>
+        <v>0.08</v>
+      </c>
+      <c r="E36" s="18">
+        <f ca="1">IF(E11="","",E11)</f>
+        <v>0.08</v>
+      </c>
+      <c r="F36" s="18">
+        <f ca="1">IF(F11="","",F11)</f>
+        <v>0.08</v>
+      </c>
+      <c r="G36" s="373">
+        <f ca="1">G11</f>
+        <v>0.08</v>
+      </c>
+      <c r="I36" s="72"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B37" s="355" t="s">
         <v>323</v>
       </c>
-      <c r="C34" s="183">
-        <f>C33/(Common_Shares/Data!$C$4)</f>
-        <v>0.12984950614103649</v>
-      </c>
-      <c r="D34" s="272">
-        <f>D33/(Common_Shares/Data!$C$4)</f>
-        <v>0.15319648445986175</v>
-      </c>
-      <c r="E34" s="272" t="str">
-        <f>IF(E33="","",E33/(Common_Shares/Data!$C$4))</f>
-        <v/>
-      </c>
-      <c r="F34" s="272" t="str">
-        <f>IF(F33="","",F33/(Common_Shares/Data!$C$4))</f>
-        <v/>
-      </c>
-      <c r="G34" s="183">
-        <f>G33/(Common_Shares/Data!$C$4)</f>
-        <v>0.16736667225214313</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="72"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B35" s="355" t="s">
-        <v>328</v>
-      </c>
-      <c r="C35" s="363">
-        <f>Dashboard!C31</f>
-        <v>10</v>
-      </c>
-      <c r="D35" s="207">
-        <f ca="1">D10</f>
-        <v>0.08</v>
-      </c>
-      <c r="E35" s="18" t="str">
-        <f>IF(E10="","",E10)</f>
-        <v/>
-      </c>
-      <c r="F35" s="18" t="str">
-        <f>IF(F10="","",F10)</f>
-        <v/>
-      </c>
-      <c r="G35" s="374">
-        <f ca="1">G10</f>
-        <v>0.08</v>
-      </c>
-      <c r="I35" s="72"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B36" s="356" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36" s="368"/>
-      <c r="D36" s="369">
-        <f ca="1">C35*D35</f>
-        <v>0.8</v>
-      </c>
-      <c r="E36" s="370" t="str">
-        <f>IF(E35="","", $D$36)</f>
-        <v/>
-      </c>
-      <c r="F36" s="370" t="str">
-        <f>IF(F35="","", $D$36)</f>
-        <v/>
-      </c>
-      <c r="G36" s="375">
-        <f ca="1">D36</f>
-        <v>0.8</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="72"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B37" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C37" s="384">
+      <c r="C37" s="367"/>
+      <c r="D37" s="368">
+        <f ca="1">C36*D36</f>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="E37" s="369">
+        <f ca="1">IF(E36="","", $D$37)</f>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="F37" s="369">
+        <f ca="1">IF(F36="","", $D$37)</f>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="G37" s="374">
+        <f ca="1">D37</f>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="72"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B38" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="383">
         <f>'Qualitative Analysis'!E64^2</f>
         <v>0.23384132653061221</v>
       </c>
-      <c r="D37" s="366">
-        <f ca="1">D34-D36</f>
-        <v>-0.64680351554013826</v>
-      </c>
-      <c r="E37" s="366" t="str">
-        <f>IF(E34="","",E34-E36)</f>
-        <v/>
-      </c>
-      <c r="F37" s="366" t="str">
-        <f>IF(F34="","",F34-F36)</f>
-        <v/>
-      </c>
-      <c r="G37" s="367">
-        <f ca="1">G34-G36</f>
-        <v>-0.63263332774785686</v>
-      </c>
-      <c r="I37" s="72" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="5" t="s">
+      <c r="D38" s="365">
+        <f ca="1">D35-D37</f>
+        <v>-0.18241194241261349</v>
+      </c>
+      <c r="E38" s="365">
+        <f ca="1">IF(E35="","",E35-E37)</f>
+        <v>0.20781878248944907</v>
+      </c>
+      <c r="F38" s="365">
+        <f ca="1">IF(F35="","",F35-F37)</f>
+        <v>0.61756104363661501</v>
+      </c>
+      <c r="G38" s="366">
+        <f ca="1">G35-G37</f>
+        <v>-0.1581864166170901</v>
+      </c>
+      <c r="I38" s="72" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B39" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="365"/>
-      <c r="D38" s="371">
-        <f ca="1">D11</f>
+      <c r="C39" s="364"/>
+      <c r="D39" s="370">
+        <f ca="1">D12</f>
         <v>1.08</v>
       </c>
-      <c r="E38" s="371" t="str">
-        <f>E11</f>
-        <v/>
-      </c>
-      <c r="F38" s="371" t="str">
-        <f>F11</f>
-        <v/>
-      </c>
-      <c r="G38" s="371">
-        <f ca="1">IF(F30="",IF(E30="",D38,E38),F38)*(1+G35-C37)</f>
-        <v>0.91385136734693895</v>
-      </c>
-      <c r="I38" s="72"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B39" s="126" t="s">
-        <v>333</v>
-      </c>
-      <c r="C39" s="372"/>
-      <c r="D39" s="373">
-        <f ca="1">D37/D38</f>
-        <v>-0.59889214401864654</v>
-      </c>
-      <c r="E39" s="373" t="str">
-        <f>IF(E37="","",E37/E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="373" t="str">
-        <f>IF(F37="","",F37/F38)</f>
-        <v/>
-      </c>
-      <c r="G39" s="373">
-        <f ca="1">G37/G38</f>
-        <v>-0.69227157758104096</v>
+      <c r="E39" s="370">
+        <f ca="1">E12</f>
+        <v>1.1664000000000001</v>
+      </c>
+      <c r="F39" s="370">
+        <f ca="1">F12</f>
+        <v>1.2597120000000002</v>
+      </c>
+      <c r="G39" s="370">
+        <f ca="1">IF(F31="",IF(E31="",D39,E39),F39)*(1+G36-C38)</f>
+        <v>1.0659162348734696</v>
       </c>
       <c r="I39" s="72"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B40" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="492" t="s">
-        <v>343</v>
-      </c>
-      <c r="F40" s="493"/>
-      <c r="G40" s="382">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B40" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="C40" s="371"/>
+      <c r="D40" s="372">
+        <f ca="1">D38/D39</f>
+        <v>-0.16889994667834582</v>
+      </c>
+      <c r="E40" s="372">
+        <f ca="1">IF(E38="","",E38/E39)</f>
+        <v>0.17817110981605713</v>
+      </c>
+      <c r="F40" s="372">
+        <f ca="1">IF(F38="","",F38/F39)</f>
+        <v>0.49023986723680885</v>
+      </c>
+      <c r="G40" s="372">
+        <f ca="1">G38/G39</f>
+        <v>-0.14840417233711403</v>
+      </c>
+      <c r="I40" s="72"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B41" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="492" t="s">
+        <v>339</v>
+      </c>
+      <c r="F41" s="493"/>
+      <c r="G41" s="381">
         <f>Asset_Model!D7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
-      <c r="E41" s="490" t="s">
-        <v>329</v>
-      </c>
-      <c r="F41" s="491"/>
-      <c r="G41" s="358">
-        <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="87" t="s">
-        <v>368</v>
-      </c>
-      <c r="E43" s="29" t="s">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
+      <c r="E42" s="490" t="s">
+        <v>325</v>
+      </c>
+      <c r="F42" s="491"/>
+      <c r="G42" s="357">
+        <f ca="1">MAX((G41+SUM(D40:G40))*Exchange_Rate,0)</f>
+        <v>2.7426384883379948</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A44" s="4"/>
+      <c r="B44" s="87" t="s">
+        <v>364</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="G43" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="H43" s="125"/>
-      <c r="I43" s="192"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B44" s="229" t="s">
-        <v>297</v>
-      </c>
-      <c r="C44" s="227">
-        <f ca="1">MIN(G24,G41)+ABS(G24-G41)*'Qualitative Analysis'!$E$8</f>
-        <v>6.3949079349960645</v>
-      </c>
-      <c r="D44" s="114" t="str">
+      <c r="F44" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="H44" s="125"/>
+      <c r="I44" s="192"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B45" s="229" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="227">
+        <f ca="1">MIN(G25,G42)+ABS(G25-G42)*'Qualitative Analysis'!$E$8</f>
+        <v>12.894858976534021</v>
+      </c>
+      <c r="D45" s="114" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E44" s="115">
-        <f ca="1">(C44-G16)/C9</f>
-        <v>-12.500393798594118</v>
-      </c>
-      <c r="F44" s="150">
-        <f ca="1">C44/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.16871455513306574</v>
-      </c>
-      <c r="G44" s="150">
-        <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.67180289674326321</v>
-      </c>
-      <c r="I44" s="72"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B45" s="322" t="s">
-        <v>336</v>
-      </c>
-      <c r="C45" s="324">
-        <f>Operation!E7*Data!C4*4/Common_Shares*Exchange_Rate</f>
-        <v>30.723496768164047</v>
-      </c>
-      <c r="D45" s="323" t="str">
-        <f>D44</f>
-        <v>HKD</v>
-      </c>
       <c r="E45" s="115">
-        <f>(C45-G16)/C9</f>
-        <v>-55.4960474353664</v>
+        <f ca="1">(C45-G17)/C10</f>
+        <v>-17.262675092275597</v>
       </c>
       <c r="F45" s="150">
-        <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.2098147808965376</v>
+        <f ca="1">C45/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.34020042475105555</v>
       </c>
       <c r="G45" s="150">
-        <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>3.2275889405666001</v>
+        <f ca="1">C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
+        <v>1.3546408645110162</v>
       </c>
       <c r="I45" s="72"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B46" s="335" t="s">
-        <v>337</v>
-      </c>
-      <c r="C46" s="333">
-        <f ca="1">MIN(C45,C44)+ABS(C45-C44)*'Qualitative Analysis'!E64</f>
-        <v>18.159518392178011</v>
-      </c>
-      <c r="D46" s="323" t="str">
+      <c r="B46" s="321" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="323">
+        <f>Operation!E7*Data!C4*3.2/Common_Shares*Exchange_Rate</f>
+        <v>24.578797414531238</v>
+      </c>
+      <c r="D46" s="322" t="str">
         <f>D45</f>
         <v>HKD</v>
       </c>
       <c r="E46" s="115">
-        <f ca="1">(C46-G16)/C9</f>
-        <v>-33.291863450090432</v>
+        <f>(C46-G17)/C10</f>
+        <v>-32.122599918627543</v>
       </c>
       <c r="F46" s="150">
-        <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.71507660506875093</v>
+        <f>C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.96785182471723019</v>
       </c>
       <c r="G46" s="150">
-        <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.9077080050778341</v>
-      </c>
+        <f>C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
+        <v>2.5820711524532802</v>
+      </c>
+      <c r="I46" s="72"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B47" s="322" t="s">
-        <v>298</v>
-      </c>
-      <c r="C47" s="333">
-        <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>5.1159263479968518</v>
-      </c>
-      <c r="D47" s="323" t="str">
-        <f>D45</f>
+      <c r="B47" s="334" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="332">
+        <f ca="1">MIN(C46,C45)+ABS(C46-C45)*'Qualitative Analysis'!E64</f>
+        <v>18.544877778336961</v>
+      </c>
+      <c r="D47" s="322" t="str">
+        <f>D46</f>
         <v>HKD</v>
       </c>
       <c r="E47" s="115">
-        <f ca="1">(C47-G16)/C9</f>
-        <v>-10.240063382410799</v>
+        <f ca="1">(C47-G17)/C10</f>
+        <v>-24.448510169018647</v>
       </c>
       <c r="F47" s="150">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.2014524375427886</v>
+        <v>0.73025109789586318</v>
       </c>
       <c r="G47" s="150">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.53744231739461057</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
+        <v>1.9481910823230966</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B48" s="321" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="332">
+        <f ca="1">MAX(G42,C45)/(1+Dashboard!I14)</f>
+        <v>10.315887181227216</v>
+      </c>
+      <c r="D48" s="322" t="str">
+        <f>D46</f>
+        <v>HKD</v>
+      </c>
+      <c r="E48" s="115">
+        <f ca="1">(C48-G17)/C10</f>
+        <v>-13.982674327900622</v>
+      </c>
+      <c r="F48" s="150">
+        <f ca="1">C48/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.40621394381260711</v>
+      </c>
+      <c r="G48" s="150">
+        <f ca="1">C48/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
+        <v>1.0837126916088129</v>
+      </c>
+    </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -14890,35 +14972,36 @@
     <row r="914" ht="15.75" customHeight="1"/>
     <row r="915" ht="15.75" customHeight="1"/>
     <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E42:F42"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="D22:G23">
+  <conditionalFormatting sqref="D23:G24">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F12 E28:F39">
+  <conditionalFormatting sqref="E4:F13 E29:F40">
     <cfRule type="containsBlanks" dxfId="1" priority="15">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G32">
+  <conditionalFormatting sqref="G29:G33">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(G28))=0</formula>
+      <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{B6E9FFE5-BFA5-4858-88BE-381E3175A48C}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{B6E9FFE5-BFA5-4858-88BE-381E3175A48C}">
       <formula1>"P/FCFF, P/S, P/D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{2C6973E3-4A73-4B2B-9055-BF048B4B0CE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{2C6973E3-4A73-4B2B-9055-BF048B4B0CE8}">
       <formula1>"Reinvestment, Payout"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14934,8 +15017,8 @@
   </sheetPr>
   <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -14964,7 +15047,7 @@
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="91"/>
       <c r="D3" s="89">
@@ -14975,12 +15058,12 @@
         <v>140</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="91"/>
       <c r="D4" s="89">
@@ -14994,7 +15077,7 @@
     </row>
     <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="91"/>
       <c r="D5" s="89">
@@ -15009,7 +15092,7 @@
     </row>
     <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="91"/>
       <c r="D6" s="89">
@@ -15024,7 +15107,7 @@
     </row>
     <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="91"/>
       <c r="D7" s="95">
@@ -15078,7 +15161,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="B12" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D12" s="95">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
@@ -15156,7 +15239,7 @@
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="95">
         <f>Asset_Model!J26</f>
@@ -15182,7 +15265,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="263" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
@@ -15265,7 +15348,7 @@
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1">
       <c r="B26" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D26" s="95">
         <f t="shared" si="2"/>
@@ -15279,7 +15362,7 @@
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1">
       <c r="B27" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D27" s="95">
         <f t="shared" si="2"/>
@@ -15344,7 +15427,7 @@
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1">
       <c r="B32" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" s="95">
         <f t="shared" si="3"/>
@@ -15358,7 +15441,7 @@
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1">
       <c r="B33" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" s="95">
         <f t="shared" si="3"/>
@@ -15372,7 +15455,7 @@
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1">
       <c r="B34" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D34" s="95">
         <f t="shared" si="3"/>
@@ -15386,7 +15469,7 @@
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1">
       <c r="B35" s="52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D35" s="95">
         <f t="shared" si="3"/>
@@ -15428,7 +15511,7 @@
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1">
       <c r="B38" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38" s="95">
         <f t="shared" si="4"/>
@@ -15442,7 +15525,7 @@
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1">
       <c r="B39" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D39" s="95">
         <f t="shared" si="4"/>
@@ -15456,7 +15539,7 @@
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1">
       <c r="B40" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D40" s="95">
         <f t="shared" si="4"/>
@@ -15470,7 +15553,7 @@
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1">
       <c r="B41" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D41" s="95">
         <f t="shared" si="4"/>
@@ -15624,7 +15707,7 @@
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
       <c r="B52" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D52" s="95">
         <f t="shared" si="6"/>
@@ -15637,7 +15720,7 @@
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
       <c r="B53" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D53" s="95">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
@@ -15652,14 +15735,14 @@
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
       <c r="B54" s="52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D54" s="99">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
         <v>1.9047619047619047</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F54" s="52"/>
       <c r="G54" s="263"/>
@@ -15765,7 +15848,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F61" s="52"/>
       <c r="G61" s="263"/>
